--- a/doc/dsgn062012.xlsx
+++ b/doc/dsgn062012.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21080" tabRatio="773" firstSheet="1" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21080" tabRatio="773" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="New dbloques circuitos" sheetId="19" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="289">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2513,20 +2513,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2534,47 +2540,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2600,35 +2630,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2657,38 +2666,11 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    <xf numFmtId="9" fontId="0" fillId="14" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="9" fontId="0" fillId="14" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2741,100 +2723,133 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="14" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="14" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2843,26 +2858,8 @@
     <xf numFmtId="0" fontId="5" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2870,7 +2867,25 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2880,21 +2895,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -34362,47 +34362,47 @@
       <c r="M2" s="44"/>
       <c r="N2" s="106"/>
       <c r="O2" s="113"/>
-      <c r="P2" s="163" t="s">
+      <c r="P2" s="204" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="163"/>
-      <c r="U2" s="163"/>
-      <c r="V2" s="163"/>
-      <c r="W2" s="163"/>
-      <c r="X2" s="163"/>
-      <c r="Y2" s="163"/>
-      <c r="Z2" s="164"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="204"/>
+      <c r="S2" s="204"/>
+      <c r="T2" s="204"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="204"/>
+      <c r="W2" s="204"/>
+      <c r="X2" s="204"/>
+      <c r="Y2" s="204"/>
+      <c r="Z2" s="248"/>
       <c r="AA2" s="43"/>
-      <c r="AB2" s="163" t="s">
+      <c r="AB2" s="204" t="s">
         <v>37</v>
       </c>
-      <c r="AC2" s="163"/>
-      <c r="AD2" s="163"/>
-      <c r="AE2" s="163"/>
-      <c r="AF2" s="163"/>
-      <c r="AG2" s="163"/>
-      <c r="AH2" s="163"/>
-      <c r="AI2" s="163"/>
-      <c r="AJ2" s="163"/>
-      <c r="AK2" s="163"/>
-      <c r="AL2" s="163"/>
-      <c r="AM2" s="164"/>
+      <c r="AC2" s="204"/>
+      <c r="AD2" s="204"/>
+      <c r="AE2" s="204"/>
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="204"/>
+      <c r="AH2" s="204"/>
+      <c r="AI2" s="204"/>
+      <c r="AJ2" s="204"/>
+      <c r="AK2" s="204"/>
+      <c r="AL2" s="204"/>
+      <c r="AM2" s="248"/>
       <c r="AN2" s="43"/>
-      <c r="AO2" s="163" t="s">
+      <c r="AO2" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="AP2" s="163"/>
-      <c r="AQ2" s="163"/>
-      <c r="AR2" s="163"/>
-      <c r="AS2" s="163"/>
-      <c r="AT2" s="163"/>
-      <c r="AU2" s="163"/>
-      <c r="AV2" s="163"/>
-      <c r="AW2" s="163"/>
-      <c r="AX2" s="163"/>
+      <c r="AP2" s="204"/>
+      <c r="AQ2" s="204"/>
+      <c r="AR2" s="204"/>
+      <c r="AS2" s="204"/>
+      <c r="AT2" s="204"/>
+      <c r="AU2" s="204"/>
+      <c r="AV2" s="204"/>
+      <c r="AW2" s="204"/>
+      <c r="AX2" s="204"/>
       <c r="AY2" s="81"/>
       <c r="AZ2" s="81"/>
       <c r="BA2" s="44"/>
@@ -34410,60 +34410,60 @@
       <c r="BC2" s="14"/>
     </row>
     <row r="3" spans="5:145" ht="48" customHeight="1">
-      <c r="E3" s="165" t="s">
+      <c r="E3" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="167"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="244"/>
+      <c r="M3" s="244"/>
+      <c r="N3" s="245"/>
       <c r="O3" s="94"/>
-      <c r="P3" s="168" t="s">
+      <c r="P3" s="170" t="s">
         <v>59</v>
       </c>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="168"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="168"/>
-      <c r="U3" s="168"/>
-      <c r="V3" s="168"/>
-      <c r="W3" s="168"/>
-      <c r="X3" s="168"/>
-      <c r="Y3" s="168"/>
-      <c r="Z3" s="169"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="170"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="170"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="170"/>
+      <c r="Z3" s="171"/>
       <c r="AA3" s="94"/>
-      <c r="AB3" s="166" t="s">
+      <c r="AB3" s="244" t="s">
         <v>60</v>
       </c>
-      <c r="AC3" s="166"/>
-      <c r="AD3" s="166"/>
-      <c r="AE3" s="166"/>
-      <c r="AF3" s="166"/>
-      <c r="AG3" s="166"/>
-      <c r="AH3" s="166"/>
-      <c r="AI3" s="166"/>
-      <c r="AJ3" s="166"/>
-      <c r="AK3" s="166"/>
-      <c r="AL3" s="166"/>
-      <c r="AM3" s="167"/>
+      <c r="AC3" s="244"/>
+      <c r="AD3" s="244"/>
+      <c r="AE3" s="244"/>
+      <c r="AF3" s="244"/>
+      <c r="AG3" s="244"/>
+      <c r="AH3" s="244"/>
+      <c r="AI3" s="244"/>
+      <c r="AJ3" s="244"/>
+      <c r="AK3" s="244"/>
+      <c r="AL3" s="244"/>
+      <c r="AM3" s="245"/>
       <c r="AN3" s="94"/>
-      <c r="AO3" s="170" t="s">
+      <c r="AO3" s="267" t="s">
         <v>61</v>
       </c>
-      <c r="AP3" s="170"/>
-      <c r="AQ3" s="170"/>
-      <c r="AR3" s="170"/>
-      <c r="AS3" s="170"/>
-      <c r="AT3" s="170"/>
-      <c r="AU3" s="170"/>
-      <c r="AV3" s="170"/>
-      <c r="AW3" s="170"/>
-      <c r="AX3" s="170"/>
+      <c r="AP3" s="267"/>
+      <c r="AQ3" s="267"/>
+      <c r="AR3" s="267"/>
+      <c r="AS3" s="267"/>
+      <c r="AT3" s="267"/>
+      <c r="AU3" s="267"/>
+      <c r="AV3" s="267"/>
+      <c r="AW3" s="267"/>
+      <c r="AX3" s="267"/>
       <c r="AY3" s="95"/>
       <c r="AZ3" s="95"/>
       <c r="BA3" s="17"/>
@@ -34481,7 +34481,7 @@
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="171"/>
+      <c r="O4" s="172"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -34540,17 +34540,17 @@
       <c r="N5" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="172"/>
+      <c r="O5" s="173"/>
       <c r="P5" s="55"/>
       <c r="Q5" s="55"/>
       <c r="R5" s="55"/>
-      <c r="S5" s="174" t="s">
+      <c r="S5" s="249" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="175"/>
-      <c r="U5" s="175"/>
-      <c r="V5" s="175"/>
-      <c r="W5" s="176"/>
+      <c r="T5" s="250"/>
+      <c r="U5" s="250"/>
+      <c r="V5" s="250"/>
+      <c r="W5" s="251"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
@@ -34571,13 +34571,13 @@
       <c r="AO5" s="16"/>
       <c r="AP5" s="16"/>
       <c r="AQ5" s="16"/>
-      <c r="AR5" s="183" t="s">
+      <c r="AR5" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="AS5" s="184"/>
-      <c r="AT5" s="184"/>
-      <c r="AU5" s="184"/>
-      <c r="AV5" s="185"/>
+      <c r="AS5" s="194"/>
+      <c r="AT5" s="194"/>
+      <c r="AU5" s="194"/>
+      <c r="AV5" s="195"/>
       <c r="AW5" s="16"/>
       <c r="AX5" s="16"/>
       <c r="AY5" s="108"/>
@@ -34599,15 +34599,15 @@
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
       <c r="N6" s="4"/>
-      <c r="O6" s="172"/>
+      <c r="O6" s="173"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="177"/>
-      <c r="T6" s="178"/>
-      <c r="U6" s="178"/>
-      <c r="V6" s="178"/>
-      <c r="W6" s="179"/>
+      <c r="S6" s="252"/>
+      <c r="T6" s="253"/>
+      <c r="U6" s="253"/>
+      <c r="V6" s="253"/>
+      <c r="W6" s="254"/>
       <c r="X6" s="86"/>
       <c r="Y6" s="86"/>
       <c r="Z6" s="86"/>
@@ -34628,11 +34628,11 @@
       <c r="AO6" s="68"/>
       <c r="AP6" s="68"/>
       <c r="AQ6" s="68"/>
-      <c r="AR6" s="186"/>
-      <c r="AS6" s="187"/>
-      <c r="AT6" s="187"/>
-      <c r="AU6" s="187"/>
-      <c r="AV6" s="188"/>
+      <c r="AR6" s="196"/>
+      <c r="AS6" s="197"/>
+      <c r="AT6" s="197"/>
+      <c r="AU6" s="197"/>
+      <c r="AV6" s="198"/>
       <c r="AW6" s="87"/>
       <c r="AX6" s="87"/>
       <c r="AY6" s="108"/>
@@ -34656,15 +34656,15 @@
       <c r="N7" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="172"/>
+      <c r="O7" s="173"/>
       <c r="P7" s="60"/>
       <c r="Q7" s="60"/>
       <c r="R7" s="60"/>
-      <c r="S7" s="180"/>
-      <c r="T7" s="181"/>
-      <c r="U7" s="181"/>
-      <c r="V7" s="181"/>
-      <c r="W7" s="182"/>
+      <c r="S7" s="255"/>
+      <c r="T7" s="256"/>
+      <c r="U7" s="256"/>
+      <c r="V7" s="256"/>
+      <c r="W7" s="257"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
@@ -34685,11 +34685,11 @@
       <c r="AO7" s="16"/>
       <c r="AP7" s="16"/>
       <c r="AQ7" s="16"/>
-      <c r="AR7" s="186"/>
-      <c r="AS7" s="187"/>
-      <c r="AT7" s="187"/>
-      <c r="AU7" s="187"/>
-      <c r="AV7" s="188"/>
+      <c r="AR7" s="196"/>
+      <c r="AS7" s="197"/>
+      <c r="AT7" s="197"/>
+      <c r="AU7" s="197"/>
+      <c r="AV7" s="198"/>
       <c r="AW7" s="16"/>
       <c r="AX7" s="16"/>
       <c r="AY7" s="108"/>
@@ -34709,7 +34709,7 @@
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="172"/>
+      <c r="O8" s="173"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -34738,11 +34738,11 @@
       <c r="AO8" s="16"/>
       <c r="AP8" s="63"/>
       <c r="AQ8" s="63"/>
-      <c r="AR8" s="186"/>
-      <c r="AS8" s="187"/>
-      <c r="AT8" s="187"/>
-      <c r="AU8" s="187"/>
-      <c r="AV8" s="188"/>
+      <c r="AR8" s="196"/>
+      <c r="AS8" s="197"/>
+      <c r="AT8" s="197"/>
+      <c r="AU8" s="197"/>
+      <c r="AV8" s="198"/>
       <c r="AW8" s="16"/>
       <c r="AX8" s="16"/>
       <c r="AY8" s="108"/>
@@ -34766,44 +34766,44 @@
       <c r="N9" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="O9" s="172"/>
+      <c r="O9" s="173"/>
       <c r="P9" s="55"/>
       <c r="Q9" s="55"/>
       <c r="R9" s="55"/>
-      <c r="S9" s="183" t="s">
+      <c r="S9" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="T9" s="184"/>
-      <c r="U9" s="184"/>
-      <c r="V9" s="184"/>
-      <c r="W9" s="185"/>
+      <c r="T9" s="194"/>
+      <c r="U9" s="194"/>
+      <c r="V9" s="194"/>
+      <c r="W9" s="195"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="108"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
-      <c r="AD9" s="192" t="s">
+      <c r="AD9" s="258" t="s">
         <v>4</v>
       </c>
-      <c r="AE9" s="193"/>
-      <c r="AF9" s="193"/>
-      <c r="AG9" s="193"/>
-      <c r="AH9" s="193"/>
-      <c r="AI9" s="193"/>
-      <c r="AJ9" s="193"/>
-      <c r="AK9" s="194"/>
+      <c r="AE9" s="259"/>
+      <c r="AF9" s="259"/>
+      <c r="AG9" s="259"/>
+      <c r="AH9" s="259"/>
+      <c r="AI9" s="259"/>
+      <c r="AJ9" s="259"/>
+      <c r="AK9" s="260"/>
       <c r="AL9" s="16"/>
       <c r="AM9" s="16"/>
       <c r="AN9" s="108"/>
       <c r="AO9" s="16"/>
       <c r="AP9" s="63"/>
       <c r="AQ9" s="16"/>
-      <c r="AR9" s="189"/>
-      <c r="AS9" s="190"/>
-      <c r="AT9" s="190"/>
-      <c r="AU9" s="190"/>
-      <c r="AV9" s="191"/>
+      <c r="AR9" s="199"/>
+      <c r="AS9" s="200"/>
+      <c r="AT9" s="200"/>
+      <c r="AU9" s="200"/>
+      <c r="AV9" s="201"/>
       <c r="AW9" s="16"/>
       <c r="AX9" s="16"/>
       <c r="AY9" s="108"/>
@@ -34829,29 +34829,29 @@
       <c r="N10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="172"/>
+      <c r="O10" s="173"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="186"/>
-      <c r="T10" s="187"/>
-      <c r="U10" s="187"/>
-      <c r="V10" s="187"/>
-      <c r="W10" s="188"/>
+      <c r="S10" s="196"/>
+      <c r="T10" s="197"/>
+      <c r="U10" s="197"/>
+      <c r="V10" s="197"/>
+      <c r="W10" s="198"/>
       <c r="X10" s="86"/>
       <c r="Y10" s="86"/>
       <c r="Z10" s="86"/>
       <c r="AA10" s="108"/>
       <c r="AB10" s="86"/>
       <c r="AC10" s="86"/>
-      <c r="AD10" s="195"/>
-      <c r="AE10" s="196"/>
-      <c r="AF10" s="196"/>
-      <c r="AG10" s="196"/>
-      <c r="AH10" s="196"/>
-      <c r="AI10" s="196"/>
-      <c r="AJ10" s="196"/>
-      <c r="AK10" s="197"/>
+      <c r="AD10" s="261"/>
+      <c r="AE10" s="262"/>
+      <c r="AF10" s="262"/>
+      <c r="AG10" s="262"/>
+      <c r="AH10" s="262"/>
+      <c r="AI10" s="262"/>
+      <c r="AJ10" s="262"/>
+      <c r="AK10" s="263"/>
       <c r="AL10" s="16"/>
       <c r="AM10" s="16"/>
       <c r="AN10" s="108"/>
@@ -34886,29 +34886,29 @@
       <c r="N11" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="O11" s="172"/>
+      <c r="O11" s="173"/>
       <c r="P11" s="60"/>
       <c r="Q11" s="60"/>
       <c r="R11" s="60"/>
-      <c r="S11" s="189"/>
-      <c r="T11" s="190"/>
-      <c r="U11" s="190"/>
-      <c r="V11" s="190"/>
-      <c r="W11" s="191"/>
+      <c r="S11" s="199"/>
+      <c r="T11" s="200"/>
+      <c r="U11" s="200"/>
+      <c r="V11" s="200"/>
+      <c r="W11" s="201"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="108"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
-      <c r="AD11" s="195"/>
-      <c r="AE11" s="196"/>
-      <c r="AF11" s="196"/>
-      <c r="AG11" s="196"/>
-      <c r="AH11" s="196"/>
-      <c r="AI11" s="196"/>
-      <c r="AJ11" s="196"/>
-      <c r="AK11" s="197"/>
+      <c r="AD11" s="261"/>
+      <c r="AE11" s="262"/>
+      <c r="AF11" s="262"/>
+      <c r="AG11" s="262"/>
+      <c r="AH11" s="262"/>
+      <c r="AI11" s="262"/>
+      <c r="AJ11" s="262"/>
+      <c r="AK11" s="263"/>
       <c r="AL11" s="87"/>
       <c r="AM11" s="87"/>
       <c r="AN11" s="108"/>
@@ -34939,7 +34939,7 @@
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="172"/>
+      <c r="O12" s="173"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -34954,14 +34954,14 @@
       <c r="AA12" s="108"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
-      <c r="AD12" s="195"/>
-      <c r="AE12" s="196"/>
-      <c r="AF12" s="196"/>
-      <c r="AG12" s="196"/>
-      <c r="AH12" s="196"/>
-      <c r="AI12" s="196"/>
-      <c r="AJ12" s="196"/>
-      <c r="AK12" s="197"/>
+      <c r="AD12" s="261"/>
+      <c r="AE12" s="262"/>
+      <c r="AF12" s="262"/>
+      <c r="AG12" s="262"/>
+      <c r="AH12" s="262"/>
+      <c r="AI12" s="262"/>
+      <c r="AJ12" s="262"/>
+      <c r="AK12" s="263"/>
       <c r="AL12" s="16"/>
       <c r="AM12" s="16"/>
       <c r="AN12" s="108"/>
@@ -34996,31 +34996,31 @@
       <c r="N13" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="O13" s="172"/>
+      <c r="O13" s="173"/>
       <c r="P13" s="55"/>
       <c r="Q13" s="55"/>
       <c r="R13" s="55"/>
-      <c r="S13" s="183" t="s">
+      <c r="S13" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="T13" s="184"/>
-      <c r="U13" s="184"/>
-      <c r="V13" s="184"/>
-      <c r="W13" s="185"/>
+      <c r="T13" s="194"/>
+      <c r="U13" s="194"/>
+      <c r="V13" s="194"/>
+      <c r="W13" s="195"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="108"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
-      <c r="AD13" s="195"/>
-      <c r="AE13" s="196"/>
-      <c r="AF13" s="196"/>
-      <c r="AG13" s="196"/>
-      <c r="AH13" s="196"/>
-      <c r="AI13" s="196"/>
-      <c r="AJ13" s="196"/>
-      <c r="AK13" s="197"/>
+      <c r="AD13" s="261"/>
+      <c r="AE13" s="262"/>
+      <c r="AF13" s="262"/>
+      <c r="AG13" s="262"/>
+      <c r="AH13" s="262"/>
+      <c r="AI13" s="262"/>
+      <c r="AJ13" s="262"/>
+      <c r="AK13" s="263"/>
       <c r="AL13" s="93"/>
       <c r="AM13" s="93"/>
       <c r="AN13" s="108"/>
@@ -35054,29 +35054,29 @@
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="172"/>
+      <c r="O14" s="173"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="186"/>
-      <c r="T14" s="187"/>
-      <c r="U14" s="187"/>
-      <c r="V14" s="187"/>
-      <c r="W14" s="188"/>
+      <c r="S14" s="196"/>
+      <c r="T14" s="197"/>
+      <c r="U14" s="197"/>
+      <c r="V14" s="197"/>
+      <c r="W14" s="198"/>
       <c r="X14" s="86"/>
       <c r="Y14" s="86"/>
       <c r="Z14" s="86"/>
       <c r="AA14" s="108"/>
       <c r="AB14" s="86"/>
       <c r="AC14" s="86"/>
-      <c r="AD14" s="195"/>
-      <c r="AE14" s="196"/>
-      <c r="AF14" s="196"/>
-      <c r="AG14" s="196"/>
-      <c r="AH14" s="196"/>
-      <c r="AI14" s="196"/>
-      <c r="AJ14" s="196"/>
-      <c r="AK14" s="197"/>
+      <c r="AD14" s="261"/>
+      <c r="AE14" s="262"/>
+      <c r="AF14" s="262"/>
+      <c r="AG14" s="262"/>
+      <c r="AH14" s="262"/>
+      <c r="AI14" s="262"/>
+      <c r="AJ14" s="262"/>
+      <c r="AK14" s="263"/>
       <c r="AL14" s="16"/>
       <c r="AM14" s="16"/>
       <c r="AN14" s="108"/>
@@ -35111,29 +35111,29 @@
       <c r="N15" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="O15" s="172"/>
+      <c r="O15" s="173"/>
       <c r="P15" s="60"/>
       <c r="Q15" s="60"/>
       <c r="R15" s="60"/>
-      <c r="S15" s="189"/>
-      <c r="T15" s="190"/>
-      <c r="U15" s="190"/>
-      <c r="V15" s="190"/>
-      <c r="W15" s="191"/>
+      <c r="S15" s="199"/>
+      <c r="T15" s="200"/>
+      <c r="U15" s="200"/>
+      <c r="V15" s="200"/>
+      <c r="W15" s="201"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="108"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
-      <c r="AD15" s="198"/>
-      <c r="AE15" s="199"/>
-      <c r="AF15" s="199"/>
-      <c r="AG15" s="199"/>
-      <c r="AH15" s="199"/>
-      <c r="AI15" s="199"/>
-      <c r="AJ15" s="199"/>
-      <c r="AK15" s="200"/>
+      <c r="AD15" s="264"/>
+      <c r="AE15" s="265"/>
+      <c r="AF15" s="265"/>
+      <c r="AG15" s="265"/>
+      <c r="AH15" s="265"/>
+      <c r="AI15" s="265"/>
+      <c r="AJ15" s="265"/>
+      <c r="AK15" s="266"/>
       <c r="AL15" s="16"/>
       <c r="AM15" s="16"/>
       <c r="AN15" s="108"/>
@@ -35164,7 +35164,7 @@
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="173"/>
+      <c r="O16" s="193"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
@@ -35239,231 +35239,231 @@
       <c r="M18" s="44"/>
       <c r="N18" s="106"/>
       <c r="O18" s="43"/>
-      <c r="P18" s="163" t="s">
+      <c r="P18" s="204" t="s">
         <v>38</v>
       </c>
-      <c r="Q18" s="163"/>
-      <c r="R18" s="163"/>
-      <c r="S18" s="163"/>
-      <c r="T18" s="163"/>
-      <c r="U18" s="163"/>
-      <c r="V18" s="163"/>
-      <c r="W18" s="163"/>
-      <c r="X18" s="163"/>
-      <c r="Y18" s="163"/>
-      <c r="Z18" s="163"/>
-      <c r="AA18" s="163"/>
-      <c r="AB18" s="163"/>
-      <c r="AC18" s="163"/>
-      <c r="AD18" s="163"/>
-      <c r="AE18" s="163"/>
-      <c r="AF18" s="163"/>
-      <c r="AG18" s="163"/>
-      <c r="AH18" s="163"/>
-      <c r="AI18" s="163"/>
-      <c r="AJ18" s="163"/>
-      <c r="AK18" s="163"/>
-      <c r="AL18" s="163"/>
-      <c r="AM18" s="164"/>
+      <c r="Q18" s="204"/>
+      <c r="R18" s="204"/>
+      <c r="S18" s="204"/>
+      <c r="T18" s="204"/>
+      <c r="U18" s="204"/>
+      <c r="V18" s="204"/>
+      <c r="W18" s="204"/>
+      <c r="X18" s="204"/>
+      <c r="Y18" s="204"/>
+      <c r="Z18" s="204"/>
+      <c r="AA18" s="204"/>
+      <c r="AB18" s="204"/>
+      <c r="AC18" s="204"/>
+      <c r="AD18" s="204"/>
+      <c r="AE18" s="204"/>
+      <c r="AF18" s="204"/>
+      <c r="AG18" s="204"/>
+      <c r="AH18" s="204"/>
+      <c r="AI18" s="204"/>
+      <c r="AJ18" s="204"/>
+      <c r="AK18" s="204"/>
+      <c r="AL18" s="204"/>
+      <c r="AM18" s="248"/>
       <c r="AN18" s="43"/>
-      <c r="AO18" s="163" t="s">
+      <c r="AO18" s="204" t="s">
         <v>37</v>
       </c>
-      <c r="AP18" s="163"/>
-      <c r="AQ18" s="163"/>
-      <c r="AR18" s="163"/>
-      <c r="AS18" s="163"/>
-      <c r="AT18" s="163"/>
-      <c r="AU18" s="163"/>
-      <c r="AV18" s="163"/>
-      <c r="AW18" s="163"/>
-      <c r="AX18" s="163"/>
-      <c r="AY18" s="163"/>
-      <c r="AZ18" s="163"/>
-      <c r="BA18" s="163"/>
-      <c r="BB18" s="163"/>
-      <c r="BC18" s="163"/>
-      <c r="BD18" s="163"/>
-      <c r="BE18" s="163"/>
-      <c r="BF18" s="163"/>
-      <c r="BG18" s="163"/>
-      <c r="BH18" s="163"/>
-      <c r="BI18" s="163"/>
-      <c r="BJ18" s="163"/>
-      <c r="BK18" s="163"/>
-      <c r="BL18" s="163"/>
-      <c r="BM18" s="163"/>
-      <c r="BN18" s="163"/>
-      <c r="BO18" s="163"/>
-      <c r="BP18" s="163"/>
-      <c r="BQ18" s="164"/>
+      <c r="AP18" s="204"/>
+      <c r="AQ18" s="204"/>
+      <c r="AR18" s="204"/>
+      <c r="AS18" s="204"/>
+      <c r="AT18" s="204"/>
+      <c r="AU18" s="204"/>
+      <c r="AV18" s="204"/>
+      <c r="AW18" s="204"/>
+      <c r="AX18" s="204"/>
+      <c r="AY18" s="204"/>
+      <c r="AZ18" s="204"/>
+      <c r="BA18" s="204"/>
+      <c r="BB18" s="204"/>
+      <c r="BC18" s="204"/>
+      <c r="BD18" s="204"/>
+      <c r="BE18" s="204"/>
+      <c r="BF18" s="204"/>
+      <c r="BG18" s="204"/>
+      <c r="BH18" s="204"/>
+      <c r="BI18" s="204"/>
+      <c r="BJ18" s="204"/>
+      <c r="BK18" s="204"/>
+      <c r="BL18" s="204"/>
+      <c r="BM18" s="204"/>
+      <c r="BN18" s="204"/>
+      <c r="BO18" s="204"/>
+      <c r="BP18" s="204"/>
+      <c r="BQ18" s="248"/>
       <c r="BR18" s="43"/>
-      <c r="BS18" s="163" t="s">
+      <c r="BS18" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="BT18" s="163"/>
-      <c r="BU18" s="163"/>
-      <c r="BV18" s="163"/>
-      <c r="BW18" s="163"/>
-      <c r="BX18" s="163"/>
-      <c r="BY18" s="164"/>
+      <c r="BT18" s="204"/>
+      <c r="BU18" s="204"/>
+      <c r="BV18" s="204"/>
+      <c r="BW18" s="204"/>
+      <c r="BX18" s="204"/>
+      <c r="BY18" s="248"/>
       <c r="BZ18" s="43"/>
-      <c r="CA18" s="163" t="s">
+      <c r="CA18" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="CB18" s="163"/>
-      <c r="CC18" s="163"/>
-      <c r="CD18" s="163"/>
-      <c r="CE18" s="163"/>
-      <c r="CF18" s="163"/>
-      <c r="CG18" s="163"/>
-      <c r="CH18" s="163"/>
-      <c r="CI18" s="164"/>
+      <c r="CB18" s="204"/>
+      <c r="CC18" s="204"/>
+      <c r="CD18" s="204"/>
+      <c r="CE18" s="204"/>
+      <c r="CF18" s="204"/>
+      <c r="CG18" s="204"/>
+      <c r="CH18" s="204"/>
+      <c r="CI18" s="248"/>
       <c r="CJ18" s="43"/>
-      <c r="CK18" s="163" t="s">
+      <c r="CK18" s="204" t="s">
         <v>41</v>
       </c>
-      <c r="CL18" s="163"/>
-      <c r="CM18" s="163"/>
-      <c r="CN18" s="163"/>
-      <c r="CO18" s="163"/>
-      <c r="CP18" s="163"/>
-      <c r="CQ18" s="163"/>
-      <c r="CR18" s="247" t="s">
+      <c r="CL18" s="204"/>
+      <c r="CM18" s="204"/>
+      <c r="CN18" s="204"/>
+      <c r="CO18" s="204"/>
+      <c r="CP18" s="204"/>
+      <c r="CQ18" s="204"/>
+      <c r="CR18" s="163" t="s">
         <v>196</v>
       </c>
-      <c r="CS18" s="248"/>
-      <c r="CT18" s="248"/>
-      <c r="CU18" s="248"/>
-      <c r="CV18" s="248"/>
-      <c r="CW18" s="248"/>
-      <c r="CX18" s="248"/>
-      <c r="CY18" s="248"/>
-      <c r="CZ18" s="248"/>
-      <c r="DA18" s="248"/>
-      <c r="DB18" s="248"/>
-      <c r="DC18" s="248"/>
-      <c r="DD18" s="248"/>
-      <c r="DE18" s="249"/>
+      <c r="CS18" s="164"/>
+      <c r="CT18" s="164"/>
+      <c r="CU18" s="164"/>
+      <c r="CV18" s="164"/>
+      <c r="CW18" s="164"/>
+      <c r="CX18" s="164"/>
+      <c r="CY18" s="164"/>
+      <c r="CZ18" s="164"/>
+      <c r="DA18" s="164"/>
+      <c r="DB18" s="164"/>
+      <c r="DC18" s="164"/>
+      <c r="DD18" s="164"/>
+      <c r="DE18" s="165"/>
     </row>
     <row r="19" spans="5:109" s="25" customFormat="1" ht="15.75" customHeight="1">
-      <c r="E19" s="165" t="s">
+      <c r="E19" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="166"/>
-      <c r="G19" s="166"/>
-      <c r="H19" s="166"/>
-      <c r="I19" s="166"/>
-      <c r="J19" s="166"/>
-      <c r="K19" s="166"/>
-      <c r="L19" s="166"/>
-      <c r="M19" s="166"/>
-      <c r="N19" s="167"/>
+      <c r="F19" s="244"/>
+      <c r="G19" s="244"/>
+      <c r="H19" s="244"/>
+      <c r="I19" s="244"/>
+      <c r="J19" s="244"/>
+      <c r="K19" s="244"/>
+      <c r="L19" s="244"/>
+      <c r="M19" s="244"/>
+      <c r="N19" s="245"/>
       <c r="O19" s="80"/>
-      <c r="P19" s="201" t="s">
+      <c r="P19" s="246" t="s">
         <v>49</v>
       </c>
-      <c r="Q19" s="201"/>
-      <c r="R19" s="201"/>
-      <c r="S19" s="201"/>
-      <c r="T19" s="201"/>
-      <c r="U19" s="201"/>
-      <c r="V19" s="201"/>
-      <c r="W19" s="201"/>
-      <c r="X19" s="201"/>
-      <c r="Y19" s="201"/>
-      <c r="Z19" s="201"/>
-      <c r="AA19" s="201"/>
-      <c r="AB19" s="201"/>
-      <c r="AC19" s="201"/>
-      <c r="AD19" s="201"/>
-      <c r="AE19" s="201"/>
-      <c r="AF19" s="201"/>
-      <c r="AG19" s="201"/>
-      <c r="AH19" s="201"/>
-      <c r="AI19" s="201"/>
-      <c r="AJ19" s="201"/>
-      <c r="AK19" s="201"/>
-      <c r="AL19" s="201"/>
-      <c r="AM19" s="221"/>
+      <c r="Q19" s="246"/>
+      <c r="R19" s="246"/>
+      <c r="S19" s="246"/>
+      <c r="T19" s="246"/>
+      <c r="U19" s="246"/>
+      <c r="V19" s="246"/>
+      <c r="W19" s="246"/>
+      <c r="X19" s="246"/>
+      <c r="Y19" s="246"/>
+      <c r="Z19" s="246"/>
+      <c r="AA19" s="246"/>
+      <c r="AB19" s="246"/>
+      <c r="AC19" s="246"/>
+      <c r="AD19" s="246"/>
+      <c r="AE19" s="246"/>
+      <c r="AF19" s="246"/>
+      <c r="AG19" s="246"/>
+      <c r="AH19" s="246"/>
+      <c r="AI19" s="246"/>
+      <c r="AJ19" s="246"/>
+      <c r="AK19" s="246"/>
+      <c r="AL19" s="246"/>
+      <c r="AM19" s="247"/>
       <c r="AN19" s="80"/>
-      <c r="AO19" s="201" t="s">
+      <c r="AO19" s="246" t="s">
         <v>33</v>
       </c>
-      <c r="AP19" s="201"/>
-      <c r="AQ19" s="201"/>
-      <c r="AR19" s="201"/>
-      <c r="AS19" s="201"/>
-      <c r="AT19" s="201"/>
-      <c r="AU19" s="201"/>
-      <c r="AV19" s="201"/>
-      <c r="AW19" s="201"/>
-      <c r="AX19" s="201"/>
-      <c r="AY19" s="201"/>
-      <c r="AZ19" s="201"/>
-      <c r="BA19" s="201"/>
-      <c r="BB19" s="201"/>
-      <c r="BC19" s="201"/>
-      <c r="BD19" s="201"/>
-      <c r="BE19" s="201"/>
-      <c r="BF19" s="201"/>
-      <c r="BG19" s="201"/>
-      <c r="BH19" s="201"/>
-      <c r="BI19" s="201"/>
-      <c r="BJ19" s="201"/>
-      <c r="BK19" s="201"/>
-      <c r="BL19" s="201"/>
-      <c r="BM19" s="201"/>
-      <c r="BN19" s="201"/>
-      <c r="BO19" s="201"/>
-      <c r="BP19" s="201"/>
-      <c r="BQ19" s="221"/>
+      <c r="AP19" s="246"/>
+      <c r="AQ19" s="246"/>
+      <c r="AR19" s="246"/>
+      <c r="AS19" s="246"/>
+      <c r="AT19" s="246"/>
+      <c r="AU19" s="246"/>
+      <c r="AV19" s="246"/>
+      <c r="AW19" s="246"/>
+      <c r="AX19" s="246"/>
+      <c r="AY19" s="246"/>
+      <c r="AZ19" s="246"/>
+      <c r="BA19" s="246"/>
+      <c r="BB19" s="246"/>
+      <c r="BC19" s="246"/>
+      <c r="BD19" s="246"/>
+      <c r="BE19" s="246"/>
+      <c r="BF19" s="246"/>
+      <c r="BG19" s="246"/>
+      <c r="BH19" s="246"/>
+      <c r="BI19" s="246"/>
+      <c r="BJ19" s="246"/>
+      <c r="BK19" s="246"/>
+      <c r="BL19" s="246"/>
+      <c r="BM19" s="246"/>
+      <c r="BN19" s="246"/>
+      <c r="BO19" s="246"/>
+      <c r="BP19" s="246"/>
+      <c r="BQ19" s="247"/>
       <c r="BR19" s="80"/>
-      <c r="BS19" s="201" t="s">
+      <c r="BS19" s="246" t="s">
         <v>35</v>
       </c>
-      <c r="BT19" s="201"/>
-      <c r="BU19" s="201"/>
-      <c r="BV19" s="201"/>
-      <c r="BW19" s="201"/>
-      <c r="BX19" s="201"/>
-      <c r="BY19" s="221"/>
+      <c r="BT19" s="246"/>
+      <c r="BU19" s="246"/>
+      <c r="BV19" s="246"/>
+      <c r="BW19" s="246"/>
+      <c r="BX19" s="246"/>
+      <c r="BY19" s="247"/>
       <c r="BZ19" s="80"/>
-      <c r="CA19" s="166" t="s">
+      <c r="CA19" s="244" t="s">
         <v>34</v>
       </c>
-      <c r="CB19" s="166"/>
-      <c r="CC19" s="166"/>
-      <c r="CD19" s="166"/>
-      <c r="CE19" s="166"/>
-      <c r="CF19" s="166"/>
-      <c r="CG19" s="166"/>
-      <c r="CH19" s="166"/>
-      <c r="CI19" s="167"/>
+      <c r="CB19" s="244"/>
+      <c r="CC19" s="244"/>
+      <c r="CD19" s="244"/>
+      <c r="CE19" s="244"/>
+      <c r="CF19" s="244"/>
+      <c r="CG19" s="244"/>
+      <c r="CH19" s="244"/>
+      <c r="CI19" s="245"/>
       <c r="CJ19" s="80"/>
-      <c r="CK19" s="201" t="s">
+      <c r="CK19" s="246" t="s">
         <v>36</v>
       </c>
-      <c r="CL19" s="201"/>
-      <c r="CM19" s="201"/>
-      <c r="CN19" s="201"/>
-      <c r="CO19" s="201"/>
-      <c r="CP19" s="201"/>
-      <c r="CQ19" s="201"/>
-      <c r="CR19" s="250"/>
-      <c r="CS19" s="251"/>
-      <c r="CT19" s="251"/>
-      <c r="CU19" s="251"/>
-      <c r="CV19" s="251"/>
-      <c r="CW19" s="251"/>
-      <c r="CX19" s="251"/>
-      <c r="CY19" s="251"/>
-      <c r="CZ19" s="251"/>
-      <c r="DA19" s="251"/>
-      <c r="DB19" s="251"/>
-      <c r="DC19" s="251"/>
-      <c r="DD19" s="251"/>
-      <c r="DE19" s="252"/>
+      <c r="CL19" s="246"/>
+      <c r="CM19" s="246"/>
+      <c r="CN19" s="246"/>
+      <c r="CO19" s="246"/>
+      <c r="CP19" s="246"/>
+      <c r="CQ19" s="246"/>
+      <c r="CR19" s="166"/>
+      <c r="CS19" s="167"/>
+      <c r="CT19" s="167"/>
+      <c r="CU19" s="167"/>
+      <c r="CV19" s="167"/>
+      <c r="CW19" s="167"/>
+      <c r="CX19" s="167"/>
+      <c r="CY19" s="167"/>
+      <c r="CZ19" s="167"/>
+      <c r="DA19" s="167"/>
+      <c r="DB19" s="167"/>
+      <c r="DC19" s="167"/>
+      <c r="DD19" s="167"/>
+      <c r="DE19" s="168"/>
     </row>
     <row r="20" spans="5:109">
       <c r="E20" s="43"/>
@@ -35557,20 +35557,20 @@
       <c r="CO20" s="44"/>
       <c r="CP20" s="44"/>
       <c r="CQ20" s="44"/>
-      <c r="CR20" s="253"/>
-      <c r="CS20" s="168"/>
-      <c r="CT20" s="168"/>
-      <c r="CU20" s="168"/>
-      <c r="CV20" s="168"/>
-      <c r="CW20" s="168"/>
-      <c r="CX20" s="168"/>
-      <c r="CY20" s="168"/>
-      <c r="CZ20" s="168"/>
-      <c r="DA20" s="168"/>
-      <c r="DB20" s="168"/>
-      <c r="DC20" s="168"/>
-      <c r="DD20" s="168"/>
-      <c r="DE20" s="169"/>
+      <c r="CR20" s="169"/>
+      <c r="CS20" s="170"/>
+      <c r="CT20" s="170"/>
+      <c r="CU20" s="170"/>
+      <c r="CV20" s="170"/>
+      <c r="CW20" s="170"/>
+      <c r="CX20" s="170"/>
+      <c r="CY20" s="170"/>
+      <c r="CZ20" s="170"/>
+      <c r="DA20" s="170"/>
+      <c r="DB20" s="170"/>
+      <c r="DC20" s="170"/>
+      <c r="DD20" s="170"/>
+      <c r="DE20" s="171"/>
     </row>
     <row r="21" spans="5:109">
       <c r="E21" s="18" t="s">
@@ -35593,13 +35593,13 @@
       <c r="R21" s="55"/>
       <c r="S21" s="55"/>
       <c r="T21" s="55"/>
-      <c r="U21" s="183" t="s">
+      <c r="U21" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="V21" s="184"/>
-      <c r="W21" s="184"/>
-      <c r="X21" s="184"/>
-      <c r="Y21" s="185"/>
+      <c r="V21" s="194"/>
+      <c r="W21" s="194"/>
+      <c r="X21" s="194"/>
+      <c r="Y21" s="195"/>
       <c r="Z21" s="16"/>
       <c r="AA21" s="16"/>
       <c r="AB21" s="16"/>
@@ -35702,11 +35702,11 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
-      <c r="U22" s="186"/>
-      <c r="V22" s="187"/>
-      <c r="W22" s="187"/>
-      <c r="X22" s="187"/>
-      <c r="Y22" s="188"/>
+      <c r="U22" s="196"/>
+      <c r="V22" s="197"/>
+      <c r="W22" s="197"/>
+      <c r="X22" s="197"/>
+      <c r="Y22" s="198"/>
       <c r="Z22" s="56"/>
       <c r="AA22" s="56"/>
       <c r="AB22" s="57" t="s">
@@ -35817,17 +35817,17 @@
       <c r="R23" s="60"/>
       <c r="S23" s="60"/>
       <c r="T23" s="60"/>
-      <c r="U23" s="189"/>
-      <c r="V23" s="190"/>
-      <c r="W23" s="190"/>
-      <c r="X23" s="190"/>
-      <c r="Y23" s="191"/>
+      <c r="U23" s="199"/>
+      <c r="V23" s="200"/>
+      <c r="W23" s="200"/>
+      <c r="X23" s="200"/>
+      <c r="Y23" s="201"/>
       <c r="Z23" s="16"/>
       <c r="AA23" s="16"/>
       <c r="AB23" s="16"/>
       <c r="AC23" s="16"/>
       <c r="AD23" s="16"/>
-      <c r="AE23" s="266" t="s">
+      <c r="AE23" s="214" t="s">
         <v>16</v>
       </c>
       <c r="AF23" s="16"/>
@@ -35936,7 +35936,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
-      <c r="AE24" s="266"/>
+      <c r="AE24" s="214"/>
       <c r="AF24" s="16"/>
       <c r="AG24" s="16"/>
       <c r="AH24" s="16"/>
@@ -36043,7 +36043,7 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
-      <c r="AE25" s="266"/>
+      <c r="AE25" s="214"/>
       <c r="AF25" s="16"/>
       <c r="AG25" s="16"/>
       <c r="AH25" s="16"/>
@@ -36150,7 +36150,7 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
-      <c r="AE26" s="266"/>
+      <c r="AE26" s="214"/>
       <c r="AF26" s="16"/>
       <c r="AG26" s="16"/>
       <c r="AH26" s="16"/>
@@ -36257,7 +36257,7 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
-      <c r="AE27" s="267"/>
+      <c r="AE27" s="215"/>
       <c r="AF27" s="16"/>
       <c r="AG27" s="16"/>
       <c r="AH27" s="16"/>
@@ -36951,15 +36951,15 @@
       <c r="AZ33" s="66"/>
       <c r="BA33" s="66"/>
       <c r="BB33" s="16"/>
-      <c r="BC33" s="202" t="s">
+      <c r="BC33" s="205" t="s">
         <v>27</v>
       </c>
-      <c r="BD33" s="203"/>
-      <c r="BE33" s="203"/>
-      <c r="BF33" s="203"/>
-      <c r="BG33" s="203"/>
-      <c r="BH33" s="203"/>
-      <c r="BI33" s="204"/>
+      <c r="BD33" s="206"/>
+      <c r="BE33" s="206"/>
+      <c r="BF33" s="206"/>
+      <c r="BG33" s="206"/>
+      <c r="BH33" s="206"/>
+      <c r="BI33" s="207"/>
       <c r="BJ33" s="16"/>
       <c r="BK33" s="16"/>
       <c r="BL33" s="16"/>
@@ -37053,7 +37053,7 @@
       <c r="AO34" s="16"/>
       <c r="AP34" s="16"/>
       <c r="AQ34" s="16"/>
-      <c r="AR34" s="211" t="s">
+      <c r="AR34" s="233" t="s">
         <v>28</v>
       </c>
       <c r="AS34" s="16"/>
@@ -37066,13 +37066,13 @@
       <c r="AZ34" s="16"/>
       <c r="BA34" s="66"/>
       <c r="BB34" s="66"/>
-      <c r="BC34" s="205"/>
-      <c r="BD34" s="206"/>
-      <c r="BE34" s="206"/>
-      <c r="BF34" s="206"/>
-      <c r="BG34" s="206"/>
-      <c r="BH34" s="206"/>
-      <c r="BI34" s="207"/>
+      <c r="BC34" s="208"/>
+      <c r="BD34" s="209"/>
+      <c r="BE34" s="209"/>
+      <c r="BF34" s="209"/>
+      <c r="BG34" s="209"/>
+      <c r="BH34" s="209"/>
+      <c r="BI34" s="210"/>
       <c r="BJ34" s="16"/>
       <c r="BK34" s="16"/>
       <c r="BL34" s="16"/>
@@ -37083,13 +37083,13 @@
       <c r="BQ34" s="16"/>
       <c r="BR34" s="108"/>
       <c r="BS34" s="16"/>
-      <c r="BT34" s="202" t="s">
+      <c r="BT34" s="205" t="s">
         <v>25</v>
       </c>
-      <c r="BU34" s="203"/>
-      <c r="BV34" s="203"/>
-      <c r="BW34" s="203"/>
-      <c r="BX34" s="204"/>
+      <c r="BU34" s="206"/>
+      <c r="BV34" s="206"/>
+      <c r="BW34" s="206"/>
+      <c r="BX34" s="207"/>
       <c r="BY34" s="16"/>
       <c r="BZ34" s="108"/>
       <c r="CA34" s="16"/>
@@ -37170,26 +37170,26 @@
       <c r="AO35" s="16"/>
       <c r="AP35" s="16"/>
       <c r="AQ35" s="16"/>
-      <c r="AR35" s="211"/>
+      <c r="AR35" s="233"/>
       <c r="AS35" s="16"/>
-      <c r="AT35" s="212" t="s">
+      <c r="AT35" s="234" t="s">
         <v>26</v>
       </c>
-      <c r="AU35" s="213"/>
-      <c r="AV35" s="213"/>
-      <c r="AW35" s="213"/>
-      <c r="AX35" s="213"/>
-      <c r="AY35" s="214"/>
+      <c r="AU35" s="235"/>
+      <c r="AV35" s="235"/>
+      <c r="AW35" s="235"/>
+      <c r="AX35" s="235"/>
+      <c r="AY35" s="236"/>
       <c r="AZ35" s="16"/>
       <c r="BA35" s="16"/>
       <c r="BB35" s="16"/>
-      <c r="BC35" s="205"/>
-      <c r="BD35" s="206"/>
-      <c r="BE35" s="206"/>
-      <c r="BF35" s="206"/>
-      <c r="BG35" s="206"/>
-      <c r="BH35" s="206"/>
-      <c r="BI35" s="207"/>
+      <c r="BC35" s="208"/>
+      <c r="BD35" s="209"/>
+      <c r="BE35" s="209"/>
+      <c r="BF35" s="209"/>
+      <c r="BG35" s="209"/>
+      <c r="BH35" s="209"/>
+      <c r="BI35" s="210"/>
       <c r="BJ35" s="16"/>
       <c r="BK35" s="16"/>
       <c r="BL35" s="16"/>
@@ -37200,33 +37200,33 @@
       <c r="BQ35" s="16"/>
       <c r="BR35" s="108"/>
       <c r="BS35" s="16"/>
-      <c r="BT35" s="205"/>
-      <c r="BU35" s="206"/>
-      <c r="BV35" s="206"/>
-      <c r="BW35" s="206"/>
-      <c r="BX35" s="207"/>
+      <c r="BT35" s="208"/>
+      <c r="BU35" s="209"/>
+      <c r="BV35" s="209"/>
+      <c r="BW35" s="209"/>
+      <c r="BX35" s="210"/>
       <c r="BY35" s="16"/>
       <c r="BZ35" s="108"/>
       <c r="CA35" s="16"/>
       <c r="CB35" s="16"/>
       <c r="CC35" s="16"/>
-      <c r="CD35" s="202" t="s">
+      <c r="CD35" s="205" t="s">
         <v>31</v>
       </c>
-      <c r="CE35" s="203"/>
-      <c r="CF35" s="203"/>
-      <c r="CG35" s="203"/>
-      <c r="CH35" s="204"/>
+      <c r="CE35" s="206"/>
+      <c r="CF35" s="206"/>
+      <c r="CG35" s="206"/>
+      <c r="CH35" s="207"/>
       <c r="CI35" s="16"/>
       <c r="CJ35" s="108"/>
       <c r="CK35" s="16"/>
-      <c r="CL35" s="202" t="s">
+      <c r="CL35" s="205" t="s">
         <v>32</v>
       </c>
-      <c r="CM35" s="203"/>
-      <c r="CN35" s="203"/>
-      <c r="CO35" s="203"/>
-      <c r="CP35" s="204"/>
+      <c r="CM35" s="206"/>
+      <c r="CN35" s="206"/>
+      <c r="CO35" s="206"/>
+      <c r="CP35" s="207"/>
       <c r="CQ35" s="16"/>
       <c r="CR35" s="108"/>
       <c r="CS35" s="16"/>
@@ -37287,24 +37287,24 @@
       <c r="AO36" s="60"/>
       <c r="AP36" s="60"/>
       <c r="AQ36" s="16"/>
-      <c r="AR36" s="211"/>
+      <c r="AR36" s="233"/>
       <c r="AS36" s="66"/>
-      <c r="AT36" s="215"/>
-      <c r="AU36" s="216"/>
-      <c r="AV36" s="216"/>
-      <c r="AW36" s="216"/>
-      <c r="AX36" s="216"/>
-      <c r="AY36" s="217"/>
+      <c r="AT36" s="237"/>
+      <c r="AU36" s="238"/>
+      <c r="AV36" s="238"/>
+      <c r="AW36" s="238"/>
+      <c r="AX36" s="238"/>
+      <c r="AY36" s="239"/>
       <c r="AZ36" s="70"/>
       <c r="BA36" s="70"/>
       <c r="BB36" s="70"/>
-      <c r="BC36" s="205"/>
-      <c r="BD36" s="206"/>
-      <c r="BE36" s="206"/>
-      <c r="BF36" s="206"/>
-      <c r="BG36" s="206"/>
-      <c r="BH36" s="206"/>
-      <c r="BI36" s="207"/>
+      <c r="BC36" s="208"/>
+      <c r="BD36" s="209"/>
+      <c r="BE36" s="209"/>
+      <c r="BF36" s="209"/>
+      <c r="BG36" s="209"/>
+      <c r="BH36" s="209"/>
+      <c r="BI36" s="210"/>
       <c r="BJ36" s="66" t="s">
         <v>30</v>
       </c>
@@ -37317,29 +37317,29 @@
       <c r="BQ36" s="66"/>
       <c r="BR36" s="108"/>
       <c r="BS36" s="66"/>
-      <c r="BT36" s="205"/>
-      <c r="BU36" s="206"/>
-      <c r="BV36" s="206"/>
-      <c r="BW36" s="206"/>
-      <c r="BX36" s="207"/>
+      <c r="BT36" s="208"/>
+      <c r="BU36" s="209"/>
+      <c r="BV36" s="209"/>
+      <c r="BW36" s="209"/>
+      <c r="BX36" s="210"/>
       <c r="BY36" s="66"/>
       <c r="BZ36" s="108"/>
       <c r="CA36" s="66"/>
       <c r="CB36" s="66"/>
       <c r="CC36" s="66"/>
-      <c r="CD36" s="205"/>
-      <c r="CE36" s="206"/>
-      <c r="CF36" s="206"/>
-      <c r="CG36" s="206"/>
-      <c r="CH36" s="207"/>
+      <c r="CD36" s="208"/>
+      <c r="CE36" s="209"/>
+      <c r="CF36" s="209"/>
+      <c r="CG36" s="209"/>
+      <c r="CH36" s="210"/>
       <c r="CI36" s="16"/>
       <c r="CJ36" s="108"/>
       <c r="CK36" s="16"/>
-      <c r="CL36" s="205"/>
-      <c r="CM36" s="206"/>
-      <c r="CN36" s="206"/>
-      <c r="CO36" s="206"/>
-      <c r="CP36" s="207"/>
+      <c r="CL36" s="208"/>
+      <c r="CM36" s="209"/>
+      <c r="CN36" s="209"/>
+      <c r="CO36" s="209"/>
+      <c r="CP36" s="210"/>
       <c r="CQ36" s="16"/>
       <c r="CR36" s="108"/>
       <c r="CS36" s="16"/>
@@ -37408,22 +37408,22 @@
       <c r="AQ37" s="16"/>
       <c r="AR37" s="16"/>
       <c r="AS37" s="16"/>
-      <c r="AT37" s="218"/>
-      <c r="AU37" s="219"/>
-      <c r="AV37" s="219"/>
-      <c r="AW37" s="219"/>
-      <c r="AX37" s="219"/>
-      <c r="AY37" s="220"/>
+      <c r="AT37" s="240"/>
+      <c r="AU37" s="241"/>
+      <c r="AV37" s="241"/>
+      <c r="AW37" s="241"/>
+      <c r="AX37" s="241"/>
+      <c r="AY37" s="242"/>
       <c r="AZ37" s="16"/>
       <c r="BA37" s="16"/>
       <c r="BB37" s="16"/>
-      <c r="BC37" s="205"/>
-      <c r="BD37" s="206"/>
-      <c r="BE37" s="206"/>
-      <c r="BF37" s="206"/>
-      <c r="BG37" s="206"/>
-      <c r="BH37" s="206"/>
-      <c r="BI37" s="207"/>
+      <c r="BC37" s="208"/>
+      <c r="BD37" s="209"/>
+      <c r="BE37" s="209"/>
+      <c r="BF37" s="209"/>
+      <c r="BG37" s="209"/>
+      <c r="BH37" s="209"/>
+      <c r="BI37" s="210"/>
       <c r="BJ37" s="16"/>
       <c r="BK37" s="16"/>
       <c r="BL37" s="16"/>
@@ -37434,29 +37434,29 @@
       <c r="BQ37" s="16"/>
       <c r="BR37" s="108"/>
       <c r="BS37" s="16"/>
-      <c r="BT37" s="205"/>
-      <c r="BU37" s="206"/>
-      <c r="BV37" s="206"/>
-      <c r="BW37" s="206"/>
-      <c r="BX37" s="207"/>
+      <c r="BT37" s="208"/>
+      <c r="BU37" s="209"/>
+      <c r="BV37" s="209"/>
+      <c r="BW37" s="209"/>
+      <c r="BX37" s="210"/>
       <c r="BY37" s="16"/>
       <c r="BZ37" s="108"/>
       <c r="CA37" s="16"/>
       <c r="CB37" s="16"/>
       <c r="CC37" s="16"/>
-      <c r="CD37" s="205"/>
-      <c r="CE37" s="206"/>
-      <c r="CF37" s="206"/>
-      <c r="CG37" s="206"/>
-      <c r="CH37" s="207"/>
+      <c r="CD37" s="208"/>
+      <c r="CE37" s="209"/>
+      <c r="CF37" s="209"/>
+      <c r="CG37" s="209"/>
+      <c r="CH37" s="210"/>
       <c r="CI37" s="66"/>
       <c r="CJ37" s="108"/>
       <c r="CK37" s="66"/>
-      <c r="CL37" s="205"/>
-      <c r="CM37" s="206"/>
-      <c r="CN37" s="206"/>
-      <c r="CO37" s="206"/>
-      <c r="CP37" s="207"/>
+      <c r="CL37" s="208"/>
+      <c r="CM37" s="209"/>
+      <c r="CN37" s="209"/>
+      <c r="CO37" s="209"/>
+      <c r="CP37" s="210"/>
       <c r="CQ37" s="66"/>
       <c r="CR37" s="108"/>
       <c r="CS37" s="66"/>
@@ -37524,13 +37524,13 @@
       <c r="AZ38" s="16"/>
       <c r="BA38" s="60"/>
       <c r="BB38" s="60"/>
-      <c r="BC38" s="205"/>
-      <c r="BD38" s="206"/>
-      <c r="BE38" s="206"/>
-      <c r="BF38" s="206"/>
-      <c r="BG38" s="206"/>
-      <c r="BH38" s="206"/>
-      <c r="BI38" s="207"/>
+      <c r="BC38" s="208"/>
+      <c r="BD38" s="209"/>
+      <c r="BE38" s="209"/>
+      <c r="BF38" s="209"/>
+      <c r="BG38" s="209"/>
+      <c r="BH38" s="209"/>
+      <c r="BI38" s="210"/>
       <c r="BJ38" s="16"/>
       <c r="BK38" s="16"/>
       <c r="BL38" s="16"/>
@@ -37541,29 +37541,29 @@
       <c r="BQ38" s="16"/>
       <c r="BR38" s="108"/>
       <c r="BS38" s="16"/>
-      <c r="BT38" s="208"/>
-      <c r="BU38" s="209"/>
-      <c r="BV38" s="209"/>
-      <c r="BW38" s="209"/>
-      <c r="BX38" s="210"/>
+      <c r="BT38" s="211"/>
+      <c r="BU38" s="212"/>
+      <c r="BV38" s="212"/>
+      <c r="BW38" s="212"/>
+      <c r="BX38" s="213"/>
       <c r="BY38" s="16"/>
       <c r="BZ38" s="108"/>
       <c r="CA38" s="16"/>
       <c r="CB38" s="73"/>
       <c r="CC38" s="73"/>
-      <c r="CD38" s="205"/>
-      <c r="CE38" s="206"/>
-      <c r="CF38" s="206"/>
-      <c r="CG38" s="206"/>
-      <c r="CH38" s="207"/>
+      <c r="CD38" s="208"/>
+      <c r="CE38" s="209"/>
+      <c r="CF38" s="209"/>
+      <c r="CG38" s="209"/>
+      <c r="CH38" s="210"/>
       <c r="CI38" s="16"/>
       <c r="CJ38" s="108"/>
       <c r="CK38" s="16"/>
-      <c r="CL38" s="205"/>
-      <c r="CM38" s="206"/>
-      <c r="CN38" s="206"/>
-      <c r="CO38" s="206"/>
-      <c r="CP38" s="207"/>
+      <c r="CL38" s="208"/>
+      <c r="CM38" s="209"/>
+      <c r="CN38" s="209"/>
+      <c r="CO38" s="209"/>
+      <c r="CP38" s="210"/>
       <c r="CQ38" s="16"/>
       <c r="CR38" s="108"/>
       <c r="CS38" s="16"/>
@@ -37635,13 +37635,13 @@
       <c r="AZ39" s="60"/>
       <c r="BA39" s="60"/>
       <c r="BB39" s="16"/>
-      <c r="BC39" s="208"/>
-      <c r="BD39" s="209"/>
-      <c r="BE39" s="209"/>
-      <c r="BF39" s="209"/>
-      <c r="BG39" s="209"/>
-      <c r="BH39" s="209"/>
-      <c r="BI39" s="210"/>
+      <c r="BC39" s="211"/>
+      <c r="BD39" s="212"/>
+      <c r="BE39" s="212"/>
+      <c r="BF39" s="212"/>
+      <c r="BG39" s="212"/>
+      <c r="BH39" s="212"/>
+      <c r="BI39" s="213"/>
       <c r="BJ39" s="16"/>
       <c r="BK39" s="16"/>
       <c r="BL39" s="16"/>
@@ -37662,19 +37662,19 @@
       <c r="CA39" s="16"/>
       <c r="CB39" s="73"/>
       <c r="CC39" s="16"/>
-      <c r="CD39" s="208"/>
-      <c r="CE39" s="209"/>
-      <c r="CF39" s="209"/>
-      <c r="CG39" s="209"/>
-      <c r="CH39" s="210"/>
+      <c r="CD39" s="211"/>
+      <c r="CE39" s="212"/>
+      <c r="CF39" s="212"/>
+      <c r="CG39" s="212"/>
+      <c r="CH39" s="213"/>
       <c r="CI39" s="16"/>
       <c r="CJ39" s="108"/>
       <c r="CK39" s="16"/>
-      <c r="CL39" s="208"/>
-      <c r="CM39" s="209"/>
-      <c r="CN39" s="209"/>
-      <c r="CO39" s="209"/>
-      <c r="CP39" s="210"/>
+      <c r="CL39" s="211"/>
+      <c r="CM39" s="212"/>
+      <c r="CN39" s="212"/>
+      <c r="CO39" s="212"/>
+      <c r="CP39" s="213"/>
       <c r="CQ39" s="16"/>
       <c r="CR39" s="108"/>
       <c r="CS39" s="16"/>
@@ -37733,14 +37733,14 @@
       <c r="AQ40" s="16"/>
       <c r="AR40" s="16"/>
       <c r="AS40" s="16"/>
-      <c r="AT40" s="202" t="s">
+      <c r="AT40" s="205" t="s">
         <v>25</v>
       </c>
-      <c r="AU40" s="203"/>
-      <c r="AV40" s="203"/>
-      <c r="AW40" s="203"/>
-      <c r="AX40" s="203"/>
-      <c r="AY40" s="204"/>
+      <c r="AU40" s="206"/>
+      <c r="AV40" s="206"/>
+      <c r="AW40" s="206"/>
+      <c r="AX40" s="206"/>
+      <c r="AY40" s="207"/>
       <c r="AZ40" s="16"/>
       <c r="BA40" s="16"/>
       <c r="BB40" s="16"/>
@@ -37844,12 +37844,12 @@
       <c r="AQ41" s="16"/>
       <c r="AR41" s="16"/>
       <c r="AS41" s="16"/>
-      <c r="AT41" s="205"/>
-      <c r="AU41" s="206"/>
-      <c r="AV41" s="206"/>
-      <c r="AW41" s="206"/>
-      <c r="AX41" s="206"/>
-      <c r="AY41" s="207"/>
+      <c r="AT41" s="208"/>
+      <c r="AU41" s="209"/>
+      <c r="AV41" s="209"/>
+      <c r="AW41" s="209"/>
+      <c r="AX41" s="209"/>
+      <c r="AY41" s="210"/>
       <c r="AZ41" s="16"/>
       <c r="BA41" s="16"/>
       <c r="BB41" s="16"/>
@@ -37953,12 +37953,12 @@
       <c r="AQ42" s="73"/>
       <c r="AR42" s="73"/>
       <c r="AS42" s="73"/>
-      <c r="AT42" s="205"/>
-      <c r="AU42" s="206"/>
-      <c r="AV42" s="206"/>
-      <c r="AW42" s="206"/>
-      <c r="AX42" s="206"/>
-      <c r="AY42" s="207"/>
+      <c r="AT42" s="208"/>
+      <c r="AU42" s="209"/>
+      <c r="AV42" s="209"/>
+      <c r="AW42" s="209"/>
+      <c r="AX42" s="209"/>
+      <c r="AY42" s="210"/>
       <c r="AZ42" s="73"/>
       <c r="BA42" s="73"/>
       <c r="BB42" s="73"/>
@@ -38062,12 +38062,12 @@
       <c r="AQ43" s="16"/>
       <c r="AR43" s="73"/>
       <c r="AS43" s="16"/>
-      <c r="AT43" s="205"/>
-      <c r="AU43" s="206"/>
-      <c r="AV43" s="206"/>
-      <c r="AW43" s="206"/>
-      <c r="AX43" s="206"/>
-      <c r="AY43" s="207"/>
+      <c r="AT43" s="208"/>
+      <c r="AU43" s="209"/>
+      <c r="AV43" s="209"/>
+      <c r="AW43" s="209"/>
+      <c r="AX43" s="209"/>
+      <c r="AY43" s="210"/>
       <c r="AZ43" s="16"/>
       <c r="BA43" s="16"/>
       <c r="BB43" s="16"/>
@@ -38169,12 +38169,12 @@
       <c r="AQ44" s="16"/>
       <c r="AR44" s="73"/>
       <c r="AS44" s="16"/>
-      <c r="AT44" s="208"/>
-      <c r="AU44" s="209"/>
-      <c r="AV44" s="209"/>
-      <c r="AW44" s="209"/>
-      <c r="AX44" s="209"/>
-      <c r="AY44" s="210"/>
+      <c r="AT44" s="211"/>
+      <c r="AU44" s="212"/>
+      <c r="AV44" s="212"/>
+      <c r="AW44" s="212"/>
+      <c r="AX44" s="212"/>
+      <c r="AY44" s="213"/>
       <c r="AZ44" s="16"/>
       <c r="BA44" s="16"/>
       <c r="BB44" s="16"/>
@@ -39222,12 +39222,12 @@
       <c r="I54" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="J54" s="222" t="s">
+      <c r="J54" s="216" t="s">
         <v>5</v>
       </c>
-      <c r="K54" s="223"/>
-      <c r="L54" s="223"/>
-      <c r="M54" s="224"/>
+      <c r="K54" s="217"/>
+      <c r="L54" s="217"/>
+      <c r="M54" s="218"/>
       <c r="N54" s="16"/>
       <c r="O54" s="108"/>
       <c r="P54" s="4"/>
@@ -39335,10 +39335,10 @@
       <c r="G55" s="60"/>
       <c r="H55" s="60"/>
       <c r="I55" s="60"/>
-      <c r="J55" s="225"/>
-      <c r="K55" s="187"/>
-      <c r="L55" s="187"/>
-      <c r="M55" s="226"/>
+      <c r="J55" s="219"/>
+      <c r="K55" s="197"/>
+      <c r="L55" s="197"/>
+      <c r="M55" s="220"/>
       <c r="N55" s="16"/>
       <c r="O55" s="108"/>
       <c r="P55" s="4"/>
@@ -39444,10 +39444,10 @@
       <c r="G56" s="16"/>
       <c r="H56" s="54"/>
       <c r="I56" s="16"/>
-      <c r="J56" s="225"/>
-      <c r="K56" s="187"/>
-      <c r="L56" s="187"/>
-      <c r="M56" s="226"/>
+      <c r="J56" s="219"/>
+      <c r="K56" s="197"/>
+      <c r="L56" s="197"/>
+      <c r="M56" s="220"/>
       <c r="N56" s="60"/>
       <c r="O56" s="108"/>
       <c r="P56" s="60"/>
@@ -39553,10 +39553,10 @@
       <c r="G57" s="79"/>
       <c r="H57" s="79"/>
       <c r="I57" s="79"/>
-      <c r="J57" s="225"/>
-      <c r="K57" s="187"/>
-      <c r="L57" s="187"/>
-      <c r="M57" s="226"/>
+      <c r="J57" s="219"/>
+      <c r="K57" s="197"/>
+      <c r="L57" s="197"/>
+      <c r="M57" s="220"/>
       <c r="N57" s="16"/>
       <c r="O57" s="108"/>
       <c r="P57" s="4"/>
@@ -39660,10 +39660,10 @@
       <c r="G58" s="16"/>
       <c r="H58" s="54"/>
       <c r="I58" s="16"/>
-      <c r="J58" s="227"/>
-      <c r="K58" s="228"/>
-      <c r="L58" s="228"/>
-      <c r="M58" s="229"/>
+      <c r="J58" s="221"/>
+      <c r="K58" s="222"/>
+      <c r="L58" s="222"/>
+      <c r="M58" s="223"/>
       <c r="N58" s="16"/>
       <c r="O58" s="108"/>
       <c r="P58" s="4"/>
@@ -39778,14 +39778,14 @@
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
-      <c r="U59" s="230" t="s">
+      <c r="U59" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="V59" s="231"/>
-      <c r="W59" s="231"/>
-      <c r="X59" s="231"/>
-      <c r="Y59" s="231"/>
-      <c r="Z59" s="232"/>
+      <c r="V59" s="225"/>
+      <c r="W59" s="225"/>
+      <c r="X59" s="225"/>
+      <c r="Y59" s="225"/>
+      <c r="Z59" s="226"/>
       <c r="AA59" s="4"/>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
@@ -39887,12 +39887,12 @@
       <c r="R60" s="60"/>
       <c r="S60" s="60"/>
       <c r="T60" s="60"/>
-      <c r="U60" s="233"/>
-      <c r="V60" s="234"/>
-      <c r="W60" s="234"/>
-      <c r="X60" s="234"/>
-      <c r="Y60" s="234"/>
-      <c r="Z60" s="235"/>
+      <c r="U60" s="227"/>
+      <c r="V60" s="228"/>
+      <c r="W60" s="228"/>
+      <c r="X60" s="228"/>
+      <c r="Y60" s="228"/>
+      <c r="Z60" s="229"/>
       <c r="AA60" s="4" t="s">
         <v>0</v>
       </c>
@@ -39998,12 +39998,12 @@
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
       <c r="T61" s="4"/>
-      <c r="U61" s="233"/>
-      <c r="V61" s="234"/>
-      <c r="W61" s="234"/>
-      <c r="X61" s="234"/>
-      <c r="Y61" s="234"/>
-      <c r="Z61" s="235"/>
+      <c r="U61" s="227"/>
+      <c r="V61" s="228"/>
+      <c r="W61" s="228"/>
+      <c r="X61" s="228"/>
+      <c r="Y61" s="228"/>
+      <c r="Z61" s="229"/>
       <c r="AA61" s="74"/>
       <c r="AB61" s="74"/>
       <c r="AC61" s="74"/>
@@ -40109,12 +40109,12 @@
       <c r="R62" s="55"/>
       <c r="S62" s="55"/>
       <c r="T62" s="55"/>
-      <c r="U62" s="233"/>
-      <c r="V62" s="234"/>
-      <c r="W62" s="234"/>
-      <c r="X62" s="234"/>
-      <c r="Y62" s="234"/>
-      <c r="Z62" s="235"/>
+      <c r="U62" s="227"/>
+      <c r="V62" s="228"/>
+      <c r="W62" s="228"/>
+      <c r="X62" s="228"/>
+      <c r="Y62" s="228"/>
+      <c r="Z62" s="229"/>
       <c r="AA62" s="4" t="s">
         <v>0</v>
       </c>
@@ -40220,12 +40220,12 @@
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
-      <c r="U63" s="236"/>
-      <c r="V63" s="237"/>
-      <c r="W63" s="237"/>
-      <c r="X63" s="237"/>
-      <c r="Y63" s="237"/>
-      <c r="Z63" s="238"/>
+      <c r="U63" s="230"/>
+      <c r="V63" s="231"/>
+      <c r="W63" s="231"/>
+      <c r="X63" s="231"/>
+      <c r="Y63" s="231"/>
+      <c r="Z63" s="232"/>
       <c r="AA63" s="4"/>
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
@@ -40884,19 +40884,19 @@
       <c r="M72" s="44"/>
       <c r="N72" s="106"/>
       <c r="O72" s="113"/>
-      <c r="P72" s="163" t="s">
+      <c r="P72" s="204" t="s">
         <v>38</v>
       </c>
-      <c r="Q72" s="163"/>
-      <c r="R72" s="163"/>
-      <c r="S72" s="163"/>
-      <c r="T72" s="163"/>
-      <c r="U72" s="163"/>
-      <c r="V72" s="163"/>
-      <c r="W72" s="163"/>
-      <c r="X72" s="163"/>
-      <c r="Y72" s="163"/>
-      <c r="Z72" s="163"/>
+      <c r="Q72" s="204"/>
+      <c r="R72" s="204"/>
+      <c r="S72" s="204"/>
+      <c r="T72" s="204"/>
+      <c r="U72" s="204"/>
+      <c r="V72" s="204"/>
+      <c r="W72" s="204"/>
+      <c r="X72" s="204"/>
+      <c r="Y72" s="204"/>
+      <c r="Z72" s="204"/>
       <c r="AA72" s="44"/>
       <c r="AB72" s="105"/>
       <c r="AC72" s="105"/>
@@ -40913,19 +40913,19 @@
       <c r="M73" s="17"/>
       <c r="N73" s="13"/>
       <c r="O73" s="8"/>
-      <c r="P73" s="168" t="s">
+      <c r="P73" s="170" t="s">
         <v>112</v>
       </c>
-      <c r="Q73" s="168"/>
-      <c r="R73" s="168"/>
-      <c r="S73" s="168"/>
-      <c r="T73" s="168"/>
-      <c r="U73" s="168"/>
-      <c r="V73" s="168"/>
-      <c r="W73" s="168"/>
-      <c r="X73" s="168"/>
-      <c r="Y73" s="168"/>
-      <c r="Z73" s="168"/>
+      <c r="Q73" s="170"/>
+      <c r="R73" s="170"/>
+      <c r="S73" s="170"/>
+      <c r="T73" s="170"/>
+      <c r="U73" s="170"/>
+      <c r="V73" s="170"/>
+      <c r="W73" s="170"/>
+      <c r="X73" s="170"/>
+      <c r="Y73" s="170"/>
+      <c r="Z73" s="170"/>
       <c r="AA73" s="17"/>
       <c r="AB73" s="9"/>
       <c r="AC73" s="9"/>
@@ -40968,7 +40968,7 @@
       <c r="L75" s="16"/>
       <c r="M75" s="16"/>
       <c r="N75" s="4"/>
-      <c r="O75" s="171"/>
+      <c r="O75" s="172"/>
       <c r="P75" s="4"/>
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
@@ -40993,17 +40993,17 @@
       <c r="L76" s="16"/>
       <c r="M76" s="16"/>
       <c r="N76" s="4"/>
-      <c r="O76" s="172"/>
+      <c r="O76" s="173"/>
       <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
-      <c r="S76" s="183" t="s">
+      <c r="S76" s="175" t="s">
         <v>43</v>
       </c>
-      <c r="T76" s="239"/>
-      <c r="U76" s="239"/>
-      <c r="V76" s="239"/>
-      <c r="W76" s="240"/>
+      <c r="T76" s="176"/>
+      <c r="U76" s="176"/>
+      <c r="V76" s="176"/>
+      <c r="W76" s="177"/>
       <c r="X76" s="16"/>
       <c r="Y76" s="16"/>
       <c r="Z76" s="16"/>
@@ -41029,15 +41029,15 @@
       <c r="N77" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="O77" s="172"/>
+      <c r="O77" s="173"/>
       <c r="P77" s="55"/>
       <c r="Q77" s="55"/>
       <c r="R77" s="55"/>
-      <c r="S77" s="241"/>
-      <c r="T77" s="242"/>
-      <c r="U77" s="242"/>
-      <c r="V77" s="242"/>
-      <c r="W77" s="243"/>
+      <c r="S77" s="178"/>
+      <c r="T77" s="179"/>
+      <c r="U77" s="179"/>
+      <c r="V77" s="179"/>
+      <c r="W77" s="180"/>
       <c r="X77" s="87"/>
       <c r="Y77" s="87"/>
       <c r="Z77" s="87"/>
@@ -41054,15 +41054,15 @@
       <c r="L78" s="16"/>
       <c r="M78" s="16"/>
       <c r="N78" s="16"/>
-      <c r="O78" s="172"/>
+      <c r="O78" s="173"/>
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
-      <c r="S78" s="244"/>
-      <c r="T78" s="245"/>
-      <c r="U78" s="245"/>
-      <c r="V78" s="245"/>
-      <c r="W78" s="246"/>
+      <c r="S78" s="181"/>
+      <c r="T78" s="182"/>
+      <c r="U78" s="182"/>
+      <c r="V78" s="182"/>
+      <c r="W78" s="183"/>
       <c r="X78" s="16"/>
       <c r="Y78" s="16"/>
       <c r="Z78" s="16"/>
@@ -41079,7 +41079,7 @@
       <c r="L79" s="16"/>
       <c r="M79" s="16"/>
       <c r="N79" s="16"/>
-      <c r="O79" s="172"/>
+      <c r="O79" s="173"/>
       <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
@@ -41104,7 +41104,7 @@
       <c r="L80" s="16"/>
       <c r="M80" s="16"/>
       <c r="N80" s="16"/>
-      <c r="O80" s="172"/>
+      <c r="O80" s="173"/>
       <c r="P80" s="4"/>
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
@@ -41135,7 +41135,7 @@
       <c r="L81" s="16"/>
       <c r="M81" s="16"/>
       <c r="N81" s="4"/>
-      <c r="O81" s="172"/>
+      <c r="O81" s="173"/>
       <c r="P81" s="4"/>
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
@@ -41160,17 +41160,17 @@
       <c r="L82" s="16"/>
       <c r="M82" s="16"/>
       <c r="N82" s="16"/>
-      <c r="O82" s="172"/>
+      <c r="O82" s="173"/>
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
-      <c r="S82" s="183" t="s">
+      <c r="S82" s="175" t="s">
         <v>44</v>
       </c>
-      <c r="T82" s="184"/>
-      <c r="U82" s="184"/>
-      <c r="V82" s="184"/>
-      <c r="W82" s="185"/>
+      <c r="T82" s="194"/>
+      <c r="U82" s="194"/>
+      <c r="V82" s="194"/>
+      <c r="W82" s="195"/>
       <c r="X82" s="16"/>
       <c r="Y82" s="16"/>
       <c r="Z82" s="16"/>
@@ -41193,15 +41193,15 @@
       <c r="N83" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="O83" s="172"/>
+      <c r="O83" s="173"/>
       <c r="P83" s="55"/>
       <c r="Q83" s="55"/>
       <c r="R83" s="55"/>
-      <c r="S83" s="186"/>
-      <c r="T83" s="187"/>
-      <c r="U83" s="187"/>
-      <c r="V83" s="187"/>
-      <c r="W83" s="188"/>
+      <c r="S83" s="196"/>
+      <c r="T83" s="197"/>
+      <c r="U83" s="197"/>
+      <c r="V83" s="197"/>
+      <c r="W83" s="198"/>
       <c r="X83" s="71"/>
       <c r="Y83" s="71"/>
       <c r="Z83" s="71"/>
@@ -41220,15 +41220,15 @@
       <c r="N84" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="O84" s="172"/>
+      <c r="O84" s="173"/>
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
-      <c r="S84" s="189"/>
-      <c r="T84" s="190"/>
-      <c r="U84" s="190"/>
-      <c r="V84" s="190"/>
-      <c r="W84" s="191"/>
+      <c r="S84" s="199"/>
+      <c r="T84" s="200"/>
+      <c r="U84" s="200"/>
+      <c r="V84" s="200"/>
+      <c r="W84" s="201"/>
       <c r="X84" s="16"/>
       <c r="Y84" s="16"/>
       <c r="Z84" s="16"/>
@@ -41249,7 +41249,7 @@
       <c r="N85" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="O85" s="172"/>
+      <c r="O85" s="173"/>
       <c r="P85" s="4"/>
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
@@ -41276,7 +41276,7 @@
       <c r="L86" s="16"/>
       <c r="M86" s="16"/>
       <c r="N86" s="16"/>
-      <c r="O86" s="172"/>
+      <c r="O86" s="173"/>
       <c r="P86" s="4"/>
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
@@ -41307,7 +41307,7 @@
       <c r="N87" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="O87" s="173"/>
+      <c r="O87" s="193"/>
       <c r="P87" s="9"/>
       <c r="Q87" s="9"/>
       <c r="R87" s="9"/>
@@ -41354,19 +41354,19 @@
         <v>0</v>
       </c>
       <c r="O89" s="113"/>
-      <c r="P89" s="163" t="s">
+      <c r="P89" s="204" t="s">
         <v>38</v>
       </c>
-      <c r="Q89" s="163"/>
-      <c r="R89" s="163"/>
-      <c r="S89" s="163"/>
-      <c r="T89" s="163"/>
-      <c r="U89" s="163"/>
-      <c r="V89" s="163"/>
-      <c r="W89" s="163"/>
-      <c r="X89" s="163"/>
-      <c r="Y89" s="163"/>
-      <c r="Z89" s="163"/>
+      <c r="Q89" s="204"/>
+      <c r="R89" s="204"/>
+      <c r="S89" s="204"/>
+      <c r="T89" s="204"/>
+      <c r="U89" s="204"/>
+      <c r="V89" s="204"/>
+      <c r="W89" s="204"/>
+      <c r="X89" s="204"/>
+      <c r="Y89" s="204"/>
+      <c r="Z89" s="204"/>
       <c r="AA89" s="105"/>
       <c r="AB89" s="105"/>
       <c r="AC89" s="105"/>
@@ -41385,19 +41385,19 @@
       <c r="M90" s="17"/>
       <c r="N90" s="13"/>
       <c r="O90" s="8"/>
-      <c r="P90" s="168" t="s">
+      <c r="P90" s="170" t="s">
         <v>113</v>
       </c>
-      <c r="Q90" s="168"/>
-      <c r="R90" s="168"/>
-      <c r="S90" s="168"/>
-      <c r="T90" s="168"/>
-      <c r="U90" s="168"/>
-      <c r="V90" s="168"/>
-      <c r="W90" s="168"/>
-      <c r="X90" s="168"/>
-      <c r="Y90" s="168"/>
-      <c r="Z90" s="168"/>
+      <c r="Q90" s="170"/>
+      <c r="R90" s="170"/>
+      <c r="S90" s="170"/>
+      <c r="T90" s="170"/>
+      <c r="U90" s="170"/>
+      <c r="V90" s="170"/>
+      <c r="W90" s="170"/>
+      <c r="X90" s="170"/>
+      <c r="Y90" s="170"/>
+      <c r="Z90" s="170"/>
       <c r="AA90" s="9"/>
       <c r="AB90" s="9"/>
       <c r="AC90" s="9"/>
@@ -41436,7 +41436,7 @@
       <c r="L92" s="16"/>
       <c r="M92" s="16"/>
       <c r="N92" s="4"/>
-      <c r="O92" s="171"/>
+      <c r="O92" s="172"/>
       <c r="P92" s="4"/>
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
@@ -41460,17 +41460,17 @@
       <c r="L93" s="16"/>
       <c r="M93" s="16"/>
       <c r="N93" s="4"/>
-      <c r="O93" s="172"/>
+      <c r="O93" s="173"/>
       <c r="P93" s="4"/>
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
-      <c r="S93" s="183" t="s">
+      <c r="S93" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="T93" s="239"/>
-      <c r="U93" s="239"/>
-      <c r="V93" s="239"/>
-      <c r="W93" s="240"/>
+      <c r="T93" s="176"/>
+      <c r="U93" s="176"/>
+      <c r="V93" s="176"/>
+      <c r="W93" s="177"/>
       <c r="X93" s="16"/>
       <c r="Y93" s="16"/>
       <c r="Z93" s="16"/>
@@ -41492,15 +41492,15 @@
       <c r="N94" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="O94" s="172"/>
+      <c r="O94" s="173"/>
       <c r="P94" s="55"/>
       <c r="Q94" s="55"/>
       <c r="R94" s="55"/>
-      <c r="S94" s="241"/>
-      <c r="T94" s="242"/>
-      <c r="U94" s="242"/>
-      <c r="V94" s="242"/>
-      <c r="W94" s="243"/>
+      <c r="S94" s="178"/>
+      <c r="T94" s="179"/>
+      <c r="U94" s="179"/>
+      <c r="V94" s="179"/>
+      <c r="W94" s="180"/>
       <c r="X94" s="87"/>
       <c r="Y94" s="87"/>
       <c r="Z94" s="87"/>
@@ -41516,15 +41516,15 @@
       <c r="L95" s="16"/>
       <c r="M95" s="16"/>
       <c r="N95" s="16"/>
-      <c r="O95" s="172"/>
+      <c r="O95" s="173"/>
       <c r="P95" s="4"/>
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
-      <c r="S95" s="244"/>
-      <c r="T95" s="245"/>
-      <c r="U95" s="245"/>
-      <c r="V95" s="245"/>
-      <c r="W95" s="246"/>
+      <c r="S95" s="181"/>
+      <c r="T95" s="182"/>
+      <c r="U95" s="182"/>
+      <c r="V95" s="182"/>
+      <c r="W95" s="183"/>
       <c r="X95" s="16"/>
       <c r="Y95" s="16"/>
       <c r="Z95" s="16"/>
@@ -41540,7 +41540,7 @@
       <c r="L96" s="16"/>
       <c r="M96" s="16"/>
       <c r="N96" s="16"/>
-      <c r="O96" s="172"/>
+      <c r="O96" s="173"/>
       <c r="P96" s="4"/>
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
@@ -41564,7 +41564,7 @@
       <c r="L97" s="16"/>
       <c r="M97" s="16"/>
       <c r="N97" s="16"/>
-      <c r="O97" s="172"/>
+      <c r="O97" s="173"/>
       <c r="P97" s="4"/>
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
@@ -41594,7 +41594,7 @@
       <c r="L98" s="16"/>
       <c r="M98" s="16"/>
       <c r="N98" s="4"/>
-      <c r="O98" s="172"/>
+      <c r="O98" s="173"/>
       <c r="P98" s="4"/>
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
@@ -41618,17 +41618,17 @@
       <c r="L99" s="16"/>
       <c r="M99" s="16"/>
       <c r="N99" s="16"/>
-      <c r="O99" s="172"/>
+      <c r="O99" s="173"/>
       <c r="P99" s="4"/>
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
-      <c r="S99" s="183" t="s">
+      <c r="S99" s="175" t="s">
         <v>62</v>
       </c>
-      <c r="T99" s="184"/>
-      <c r="U99" s="184"/>
-      <c r="V99" s="184"/>
-      <c r="W99" s="185"/>
+      <c r="T99" s="194"/>
+      <c r="U99" s="194"/>
+      <c r="V99" s="194"/>
+      <c r="W99" s="195"/>
       <c r="X99" s="16"/>
       <c r="Y99" s="16"/>
       <c r="Z99" s="16"/>
@@ -41650,15 +41650,15 @@
       <c r="N100" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="O100" s="172"/>
+      <c r="O100" s="173"/>
       <c r="P100" s="55"/>
       <c r="Q100" s="55"/>
       <c r="R100" s="55"/>
-      <c r="S100" s="186"/>
-      <c r="T100" s="187"/>
-      <c r="U100" s="187"/>
-      <c r="V100" s="187"/>
-      <c r="W100" s="188"/>
+      <c r="S100" s="196"/>
+      <c r="T100" s="197"/>
+      <c r="U100" s="197"/>
+      <c r="V100" s="197"/>
+      <c r="W100" s="198"/>
       <c r="X100" s="71"/>
       <c r="Y100" s="71"/>
       <c r="Z100" s="71"/>
@@ -41676,15 +41676,15 @@
       <c r="N101" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="O101" s="172"/>
+      <c r="O101" s="173"/>
       <c r="P101" s="4"/>
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
-      <c r="S101" s="189"/>
-      <c r="T101" s="190"/>
-      <c r="U101" s="190"/>
-      <c r="V101" s="190"/>
-      <c r="W101" s="191"/>
+      <c r="S101" s="199"/>
+      <c r="T101" s="200"/>
+      <c r="U101" s="200"/>
+      <c r="V101" s="200"/>
+      <c r="W101" s="201"/>
       <c r="X101" s="16"/>
       <c r="Y101" s="16"/>
       <c r="Z101" s="16"/>
@@ -41704,7 +41704,7 @@
       <c r="N102" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="O102" s="172"/>
+      <c r="O102" s="173"/>
       <c r="P102" s="4"/>
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
@@ -41730,7 +41730,7 @@
       <c r="L103" s="16"/>
       <c r="M103" s="16"/>
       <c r="N103" s="16"/>
-      <c r="O103" s="172"/>
+      <c r="O103" s="173"/>
       <c r="P103" s="4"/>
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
@@ -41760,7 +41760,7 @@
       <c r="N104" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="O104" s="173"/>
+      <c r="O104" s="193"/>
       <c r="P104" s="9"/>
       <c r="Q104" s="9"/>
       <c r="R104" s="9"/>
@@ -41785,19 +41785,19 @@
       <c r="N111" t="s">
         <v>0</v>
       </c>
-      <c r="P111" s="264" t="s">
+      <c r="P111" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="Q111" s="264"/>
-      <c r="R111" s="264"/>
-      <c r="S111" s="264"/>
-      <c r="T111" s="264"/>
-      <c r="U111" s="264"/>
-      <c r="V111" s="264"/>
-      <c r="W111" s="264"/>
-      <c r="X111" s="264"/>
-      <c r="Y111" s="264"/>
-      <c r="Z111" s="264"/>
+      <c r="Q111" s="202"/>
+      <c r="R111" s="202"/>
+      <c r="S111" s="202"/>
+      <c r="T111" s="202"/>
+      <c r="U111" s="202"/>
+      <c r="V111" s="202"/>
+      <c r="W111" s="202"/>
+      <c r="X111" s="202"/>
+      <c r="Y111" s="202"/>
+      <c r="Z111" s="202"/>
       <c r="AA111" s="110"/>
       <c r="AB111" s="110"/>
       <c r="AC111" s="110"/>
@@ -41806,19 +41806,19 @@
       <c r="AF111" s="110"/>
     </row>
     <row r="112" spans="10:33">
-      <c r="P112" s="265" t="s">
+      <c r="P112" s="203" t="s">
         <v>113</v>
       </c>
-      <c r="Q112" s="265"/>
-      <c r="R112" s="265"/>
-      <c r="S112" s="265"/>
-      <c r="T112" s="265"/>
-      <c r="U112" s="265"/>
-      <c r="V112" s="265"/>
-      <c r="W112" s="265"/>
-      <c r="X112" s="265"/>
-      <c r="Y112" s="265"/>
-      <c r="Z112" s="265"/>
+      <c r="Q112" s="203"/>
+      <c r="R112" s="203"/>
+      <c r="S112" s="203"/>
+      <c r="T112" s="203"/>
+      <c r="U112" s="203"/>
+      <c r="V112" s="203"/>
+      <c r="W112" s="203"/>
+      <c r="X112" s="203"/>
+      <c r="Y112" s="203"/>
+      <c r="Z112" s="203"/>
       <c r="AA112" s="110"/>
       <c r="AB112" s="110"/>
       <c r="AC112" s="110"/>
@@ -41827,19 +41827,19 @@
       <c r="AF112" s="110"/>
     </row>
     <row r="113" spans="10:33">
-      <c r="O113" s="171"/>
+      <c r="O113" s="172"/>
       <c r="W113" s="110"/>
       <c r="AA113" s="107"/>
     </row>
     <row r="114" spans="10:33">
-      <c r="O114" s="172"/>
-      <c r="S114" s="183" t="s">
+      <c r="O114" s="173"/>
+      <c r="S114" s="175" t="s">
         <v>114</v>
       </c>
-      <c r="T114" s="239"/>
-      <c r="U114" s="239"/>
-      <c r="V114" s="239"/>
-      <c r="W114" s="240"/>
+      <c r="T114" s="176"/>
+      <c r="U114" s="176"/>
+      <c r="V114" s="176"/>
+      <c r="W114" s="177"/>
       <c r="AA114" s="108"/>
     </row>
     <row r="115" spans="10:33">
@@ -41854,15 +41854,15 @@
       <c r="N115" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="O115" s="172"/>
+      <c r="O115" s="173"/>
       <c r="P115" s="3"/>
       <c r="Q115" s="3"/>
       <c r="R115" s="3"/>
-      <c r="S115" s="241"/>
-      <c r="T115" s="242"/>
-      <c r="U115" s="242"/>
-      <c r="V115" s="242"/>
-      <c r="W115" s="243"/>
+      <c r="S115" s="178"/>
+      <c r="T115" s="179"/>
+      <c r="U115" s="179"/>
+      <c r="V115" s="179"/>
+      <c r="W115" s="180"/>
       <c r="X115" s="26"/>
       <c r="Y115" s="26"/>
       <c r="Z115" s="26"/>
@@ -41872,25 +41872,25 @@
     </row>
     <row r="116" spans="10:33">
       <c r="N116"/>
-      <c r="O116" s="172"/>
-      <c r="S116" s="244"/>
-      <c r="T116" s="245"/>
-      <c r="U116" s="245"/>
-      <c r="V116" s="245"/>
-      <c r="W116" s="246"/>
+      <c r="O116" s="173"/>
+      <c r="S116" s="181"/>
+      <c r="T116" s="182"/>
+      <c r="U116" s="182"/>
+      <c r="V116" s="182"/>
+      <c r="W116" s="183"/>
       <c r="AA116" s="108"/>
       <c r="AC116" s="21"/>
     </row>
     <row r="117" spans="10:33">
       <c r="N117"/>
-      <c r="O117" s="172"/>
+      <c r="O117" s="173"/>
       <c r="W117" s="110"/>
       <c r="AA117" s="108"/>
       <c r="AC117" s="23"/>
     </row>
     <row r="118" spans="10:33">
       <c r="N118"/>
-      <c r="O118" s="172"/>
+      <c r="O118" s="173"/>
       <c r="W118" s="110"/>
       <c r="AA118" s="108"/>
       <c r="AC118" s="27" t="s">
@@ -41905,21 +41905,21 @@
       <c r="J119" t="s">
         <v>0</v>
       </c>
-      <c r="O119" s="172"/>
+      <c r="O119" s="173"/>
       <c r="W119" s="110"/>
       <c r="AA119" s="108"/>
       <c r="AC119" s="23"/>
     </row>
     <row r="120" spans="10:33">
       <c r="N120"/>
-      <c r="O120" s="172"/>
-      <c r="S120" s="255" t="s">
+      <c r="O120" s="173"/>
+      <c r="S120" s="184" t="s">
         <v>62</v>
       </c>
-      <c r="T120" s="256"/>
-      <c r="U120" s="256"/>
-      <c r="V120" s="256"/>
-      <c r="W120" s="257"/>
+      <c r="T120" s="185"/>
+      <c r="U120" s="185"/>
+      <c r="V120" s="185"/>
+      <c r="W120" s="186"/>
       <c r="AA120" s="108"/>
       <c r="AC120" s="19"/>
     </row>
@@ -41935,15 +41935,15 @@
       <c r="N121" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="O121" s="172"/>
+      <c r="O121" s="173"/>
       <c r="P121" s="3"/>
       <c r="Q121" s="3"/>
       <c r="R121" s="3"/>
-      <c r="S121" s="258"/>
-      <c r="T121" s="259"/>
-      <c r="U121" s="259"/>
-      <c r="V121" s="259"/>
-      <c r="W121" s="260"/>
+      <c r="S121" s="187"/>
+      <c r="T121" s="188"/>
+      <c r="U121" s="188"/>
+      <c r="V121" s="188"/>
+      <c r="W121" s="189"/>
       <c r="X121" s="24"/>
       <c r="Y121" s="24"/>
       <c r="Z121" s="24"/>
@@ -41955,12 +41955,12 @@
       <c r="N122" t="s">
         <v>0</v>
       </c>
-      <c r="O122" s="172"/>
-      <c r="S122" s="261"/>
-      <c r="T122" s="262"/>
-      <c r="U122" s="262"/>
-      <c r="V122" s="262"/>
-      <c r="W122" s="263"/>
+      <c r="O122" s="173"/>
+      <c r="S122" s="190"/>
+      <c r="T122" s="191"/>
+      <c r="U122" s="191"/>
+      <c r="V122" s="191"/>
+      <c r="W122" s="192"/>
       <c r="AA122" s="108"/>
     </row>
     <row r="123" spans="10:33">
@@ -41970,7 +41970,7 @@
       <c r="N123" t="s">
         <v>0</v>
       </c>
-      <c r="O123" s="172"/>
+      <c r="O123" s="173"/>
       <c r="W123" s="110"/>
       <c r="AA123" s="108"/>
     </row>
@@ -41979,7 +41979,7 @@
         <v>0</v>
       </c>
       <c r="N124"/>
-      <c r="O124" s="172"/>
+      <c r="O124" s="173"/>
       <c r="S124" s="110" t="s">
         <v>0</v>
       </c>
@@ -41993,7 +41993,7 @@
       <c r="N125" t="s">
         <v>0</v>
       </c>
-      <c r="O125" s="254"/>
+      <c r="O125" s="174"/>
       <c r="W125" s="110"/>
       <c r="X125" s="110"/>
       <c r="Y125" s="110"/>
@@ -42004,6 +42004,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="P2:Z2"/>
+    <mergeCell ref="AB2:AM2"/>
+    <mergeCell ref="AO2:AX2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="P3:Z3"/>
+    <mergeCell ref="AB3:AM3"/>
+    <mergeCell ref="AO3:AX3"/>
+    <mergeCell ref="O4:O16"/>
+    <mergeCell ref="S5:W7"/>
+    <mergeCell ref="AR5:AV9"/>
+    <mergeCell ref="S9:W11"/>
+    <mergeCell ref="AD9:AK15"/>
+    <mergeCell ref="S13:W15"/>
+    <mergeCell ref="CA19:CI19"/>
+    <mergeCell ref="CK19:CQ19"/>
+    <mergeCell ref="P18:AM18"/>
+    <mergeCell ref="AO18:BQ18"/>
+    <mergeCell ref="BS18:BY18"/>
+    <mergeCell ref="CA18:CI18"/>
+    <mergeCell ref="CK18:CQ18"/>
+    <mergeCell ref="BC33:BI39"/>
+    <mergeCell ref="AR34:AR36"/>
+    <mergeCell ref="BT34:BX38"/>
+    <mergeCell ref="AT35:AY37"/>
+    <mergeCell ref="E19:N19"/>
+    <mergeCell ref="P19:AM19"/>
+    <mergeCell ref="AO19:BQ19"/>
+    <mergeCell ref="BS19:BY19"/>
+    <mergeCell ref="J54:M58"/>
+    <mergeCell ref="U59:Z63"/>
+    <mergeCell ref="P72:Z72"/>
+    <mergeCell ref="P73:Z73"/>
+    <mergeCell ref="O75:O87"/>
+    <mergeCell ref="S76:W78"/>
+    <mergeCell ref="S82:W84"/>
     <mergeCell ref="CR18:DE20"/>
     <mergeCell ref="O113:O125"/>
     <mergeCell ref="S114:W116"/>
@@ -42020,41 +42055,6 @@
     <mergeCell ref="AT40:AY44"/>
     <mergeCell ref="U21:Y23"/>
     <mergeCell ref="AE23:AE27"/>
-    <mergeCell ref="J54:M58"/>
-    <mergeCell ref="U59:Z63"/>
-    <mergeCell ref="P72:Z72"/>
-    <mergeCell ref="P73:Z73"/>
-    <mergeCell ref="O75:O87"/>
-    <mergeCell ref="S76:W78"/>
-    <mergeCell ref="S82:W84"/>
-    <mergeCell ref="BC33:BI39"/>
-    <mergeCell ref="AR34:AR36"/>
-    <mergeCell ref="BT34:BX38"/>
-    <mergeCell ref="AT35:AY37"/>
-    <mergeCell ref="E19:N19"/>
-    <mergeCell ref="P19:AM19"/>
-    <mergeCell ref="AO19:BQ19"/>
-    <mergeCell ref="BS19:BY19"/>
-    <mergeCell ref="CA19:CI19"/>
-    <mergeCell ref="CK19:CQ19"/>
-    <mergeCell ref="P18:AM18"/>
-    <mergeCell ref="AO18:BQ18"/>
-    <mergeCell ref="BS18:BY18"/>
-    <mergeCell ref="CA18:CI18"/>
-    <mergeCell ref="CK18:CQ18"/>
-    <mergeCell ref="O4:O16"/>
-    <mergeCell ref="S5:W7"/>
-    <mergeCell ref="AR5:AV9"/>
-    <mergeCell ref="S9:W11"/>
-    <mergeCell ref="AD9:AK15"/>
-    <mergeCell ref="S13:W15"/>
-    <mergeCell ref="P2:Z2"/>
-    <mergeCell ref="AB2:AM2"/>
-    <mergeCell ref="AO2:AX2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="P3:Z3"/>
-    <mergeCell ref="AB3:AM3"/>
-    <mergeCell ref="AO3:AX3"/>
   </mergeCells>
   <conditionalFormatting sqref="O20">
     <cfRule type="colorScale" priority="140">
@@ -43811,6 +43811,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="O24:R24"/>
     <mergeCell ref="O18:R18"/>
     <mergeCell ref="O7:R7"/>
     <mergeCell ref="O8:R8"/>
@@ -43823,13 +43830,6 @@
     <mergeCell ref="O15:R15"/>
     <mergeCell ref="O16:R16"/>
     <mergeCell ref="O17:R17"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="O24:R24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -44086,7 +44086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H16:AJ40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="25" zoomScaleNormal="25" zoomScalePageLayoutView="25" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="25" zoomScaleNormal="25" zoomScalePageLayoutView="25" workbookViewId="0">
       <selection activeCell="AB79" sqref="AB79"/>
     </sheetView>
   </sheetViews>
@@ -44268,51 +44268,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="15" customHeight="1">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="268" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="282"/>
-      <c r="C1" s="282"/>
-      <c r="D1" s="282"/>
-      <c r="E1" s="282"/>
-      <c r="F1" s="282"/>
-      <c r="G1" s="282"/>
-      <c r="H1" s="282"/>
-      <c r="I1" s="282"/>
-      <c r="J1" s="282"/>
-      <c r="K1" s="282"/>
-      <c r="L1" s="282"/>
-      <c r="M1" s="282"/>
-      <c r="N1" s="282"/>
-      <c r="O1" s="282"/>
-      <c r="P1" s="282"/>
-      <c r="Q1" s="282"/>
-      <c r="R1" s="282"/>
-      <c r="S1" s="282"/>
-      <c r="T1" s="282"/>
-      <c r="U1" s="282"/>
-      <c r="V1" s="282"/>
-      <c r="W1" s="282"/>
-      <c r="X1" s="282"/>
-      <c r="Y1" s="282"/>
-      <c r="Z1" s="282"/>
-      <c r="AA1" s="282"/>
-      <c r="AB1" s="282"/>
-      <c r="AC1" s="282"/>
-      <c r="AD1" s="282"/>
-      <c r="AE1" s="282"/>
-      <c r="AF1" s="282"/>
-      <c r="AG1" s="282"/>
-      <c r="AH1" s="282"/>
-      <c r="AI1" s="282"/>
-      <c r="AJ1" s="282"/>
-      <c r="AK1" s="282"/>
-      <c r="AL1" s="282"/>
-      <c r="AM1" s="282"/>
-      <c r="AN1" s="282"/>
-      <c r="AO1" s="282"/>
-      <c r="AP1" s="282"/>
-      <c r="AQ1" s="282"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="268"/>
+      <c r="G1" s="268"/>
+      <c r="H1" s="268"/>
+      <c r="I1" s="268"/>
+      <c r="J1" s="268"/>
+      <c r="K1" s="268"/>
+      <c r="L1" s="268"/>
+      <c r="M1" s="268"/>
+      <c r="N1" s="268"/>
+      <c r="O1" s="268"/>
+      <c r="P1" s="268"/>
+      <c r="Q1" s="268"/>
+      <c r="R1" s="268"/>
+      <c r="S1" s="268"/>
+      <c r="T1" s="268"/>
+      <c r="U1" s="268"/>
+      <c r="V1" s="268"/>
+      <c r="W1" s="268"/>
+      <c r="X1" s="268"/>
+      <c r="Y1" s="268"/>
+      <c r="Z1" s="268"/>
+      <c r="AA1" s="268"/>
+      <c r="AB1" s="268"/>
+      <c r="AC1" s="268"/>
+      <c r="AD1" s="268"/>
+      <c r="AE1" s="268"/>
+      <c r="AF1" s="268"/>
+      <c r="AG1" s="268"/>
+      <c r="AH1" s="268"/>
+      <c r="AI1" s="268"/>
+      <c r="AJ1" s="268"/>
+      <c r="AK1" s="268"/>
+      <c r="AL1" s="268"/>
+      <c r="AM1" s="268"/>
+      <c r="AN1" s="268"/>
+      <c r="AO1" s="268"/>
+      <c r="AP1" s="268"/>
+      <c r="AQ1" s="268"/>
     </row>
     <row r="2" spans="1:54" ht="15" customHeight="1"/>
     <row r="3" spans="1:54" ht="15" customHeight="1">
@@ -44343,52 +44343,52 @@
       <c r="Q3" s="270" t="s">
         <v>64</v>
       </c>
-      <c r="R3" s="274" t="s">
+      <c r="R3" s="271" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="275" t="s">
+      <c r="S3" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="T3" s="275" t="s">
+      <c r="T3" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="U3" s="275" t="s">
+      <c r="U3" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="V3" s="275" t="s">
+      <c r="V3" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="W3" s="275" t="s">
+      <c r="W3" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="X3" s="275" t="s">
+      <c r="X3" s="274" t="s">
         <v>63</v>
       </c>
       <c r="Y3" s="269" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="275" t="s">
+      <c r="Z3" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="AA3" s="275" t="s">
+      <c r="AA3" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="AB3" s="275" t="s">
+      <c r="AB3" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="AC3" s="275" t="s">
+      <c r="AC3" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="AD3" s="275" t="s">
+      <c r="AD3" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="AE3" s="275" t="s">
+      <c r="AE3" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="AF3" s="276" t="s">
+      <c r="AF3" s="275" t="s">
         <v>66</v>
       </c>
-      <c r="AG3" s="271" t="s">
+      <c r="AG3" s="276" t="s">
         <v>74</v>
       </c>
       <c r="AQ3" s="28" t="s">
@@ -44434,30 +44434,30 @@
       <c r="Q4" s="270" t="s">
         <v>64</v>
       </c>
-      <c r="R4" s="278"/>
-      <c r="S4" s="275"/>
-      <c r="T4" s="275"/>
-      <c r="U4" s="275" t="s">
+      <c r="R4" s="272"/>
+      <c r="S4" s="274"/>
+      <c r="T4" s="274"/>
+      <c r="U4" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="V4" s="275" t="s">
+      <c r="V4" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="W4" s="275" t="s">
+      <c r="W4" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="X4" s="275" t="s">
+      <c r="X4" s="274" t="s">
         <v>63</v>
       </c>
       <c r="Y4" s="269"/>
-      <c r="Z4" s="275"/>
-      <c r="AA4" s="275"/>
-      <c r="AB4" s="275"/>
-      <c r="AC4" s="275"/>
-      <c r="AD4" s="275"/>
-      <c r="AE4" s="275"/>
-      <c r="AF4" s="276"/>
-      <c r="AG4" s="271"/>
+      <c r="Z4" s="274"/>
+      <c r="AA4" s="274"/>
+      <c r="AB4" s="274"/>
+      <c r="AC4" s="274"/>
+      <c r="AD4" s="274"/>
+      <c r="AE4" s="274"/>
+      <c r="AF4" s="275"/>
+      <c r="AG4" s="276"/>
       <c r="AQ4" s="38" t="s">
         <v>0</v>
       </c>
@@ -44518,30 +44518,30 @@
       <c r="Q5" s="270" t="s">
         <v>65</v>
       </c>
-      <c r="R5" s="278"/>
-      <c r="S5" s="275"/>
-      <c r="T5" s="275"/>
-      <c r="U5" s="275" t="s">
+      <c r="R5" s="272"/>
+      <c r="S5" s="274"/>
+      <c r="T5" s="274"/>
+      <c r="U5" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="V5" s="275" t="s">
+      <c r="V5" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="W5" s="275" t="s">
+      <c r="W5" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="X5" s="275" t="s">
+      <c r="X5" s="274" t="s">
         <v>63</v>
       </c>
       <c r="Y5" s="269"/>
-      <c r="Z5" s="275"/>
-      <c r="AA5" s="275"/>
-      <c r="AB5" s="275"/>
-      <c r="AC5" s="275"/>
-      <c r="AD5" s="275"/>
-      <c r="AE5" s="275"/>
-      <c r="AF5" s="276"/>
-      <c r="AG5" s="271"/>
+      <c r="Z5" s="274"/>
+      <c r="AA5" s="274"/>
+      <c r="AB5" s="274"/>
+      <c r="AC5" s="274"/>
+      <c r="AD5" s="274"/>
+      <c r="AE5" s="274"/>
+      <c r="AF5" s="275"/>
+      <c r="AG5" s="276"/>
       <c r="AQ5" s="39"/>
       <c r="AR5" s="103" t="s">
         <v>0</v>
@@ -44580,30 +44580,30 @@
       <c r="Q6" s="270" t="s">
         <v>65</v>
       </c>
-      <c r="R6" s="278"/>
-      <c r="S6" s="275"/>
-      <c r="T6" s="275"/>
-      <c r="U6" s="275" t="s">
+      <c r="R6" s="272"/>
+      <c r="S6" s="274"/>
+      <c r="T6" s="274"/>
+      <c r="U6" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="V6" s="275" t="s">
+      <c r="V6" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="W6" s="275" t="s">
+      <c r="W6" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="X6" s="275" t="s">
+      <c r="X6" s="274" t="s">
         <v>63</v>
       </c>
       <c r="Y6" s="269"/>
-      <c r="Z6" s="275"/>
-      <c r="AA6" s="275"/>
-      <c r="AB6" s="275"/>
-      <c r="AC6" s="275"/>
-      <c r="AD6" s="275"/>
-      <c r="AE6" s="275"/>
-      <c r="AF6" s="276"/>
-      <c r="AG6" s="271"/>
+      <c r="Z6" s="274"/>
+      <c r="AA6" s="274"/>
+      <c r="AB6" s="274"/>
+      <c r="AC6" s="274"/>
+      <c r="AD6" s="274"/>
+      <c r="AE6" s="274"/>
+      <c r="AF6" s="275"/>
+      <c r="AG6" s="276"/>
       <c r="AQ6" s="39"/>
       <c r="AR6" s="103" t="s">
         <v>0</v>
@@ -44629,34 +44629,34 @@
       <c r="Q7" s="270" t="s">
         <v>71</v>
       </c>
-      <c r="R7" s="278"/>
-      <c r="S7" s="272" t="s">
+      <c r="R7" s="272"/>
+      <c r="S7" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="T7" s="272" t="s">
+      <c r="T7" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="U7" s="272" t="s">
+      <c r="U7" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="V7" s="272" t="s">
+      <c r="V7" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="W7" s="272" t="s">
+      <c r="W7" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="X7" s="272" t="s">
+      <c r="X7" s="277" t="s">
         <v>72</v>
       </c>
       <c r="Y7" s="269"/>
-      <c r="Z7" s="275"/>
-      <c r="AA7" s="275"/>
-      <c r="AB7" s="275"/>
-      <c r="AC7" s="275"/>
-      <c r="AD7" s="275"/>
-      <c r="AE7" s="275"/>
-      <c r="AF7" s="276"/>
-      <c r="AG7" s="271"/>
+      <c r="Z7" s="274"/>
+      <c r="AA7" s="274"/>
+      <c r="AB7" s="274"/>
+      <c r="AC7" s="274"/>
+      <c r="AD7" s="274"/>
+      <c r="AE7" s="274"/>
+      <c r="AF7" s="275"/>
+      <c r="AG7" s="276"/>
       <c r="AP7" s="39"/>
       <c r="AQ7" s="103" t="s">
         <v>0</v>
@@ -44679,22 +44679,22 @@
       <c r="O8" s="270"/>
       <c r="P8" s="270"/>
       <c r="Q8" s="270"/>
-      <c r="R8" s="279"/>
-      <c r="S8" s="272"/>
-      <c r="T8" s="272"/>
-      <c r="U8" s="272"/>
-      <c r="V8" s="272"/>
-      <c r="W8" s="272"/>
-      <c r="X8" s="272"/>
+      <c r="R8" s="273"/>
+      <c r="S8" s="277"/>
+      <c r="T8" s="277"/>
+      <c r="U8" s="277"/>
+      <c r="V8" s="277"/>
+      <c r="W8" s="277"/>
+      <c r="X8" s="277"/>
       <c r="Y8" s="269"/>
-      <c r="Z8" s="275"/>
-      <c r="AA8" s="275"/>
-      <c r="AB8" s="275"/>
-      <c r="AC8" s="275"/>
-      <c r="AD8" s="275"/>
-      <c r="AE8" s="275"/>
-      <c r="AF8" s="276"/>
-      <c r="AG8" s="271"/>
+      <c r="Z8" s="274"/>
+      <c r="AA8" s="274"/>
+      <c r="AB8" s="274"/>
+      <c r="AC8" s="274"/>
+      <c r="AD8" s="274"/>
+      <c r="AE8" s="274"/>
+      <c r="AF8" s="275"/>
+      <c r="AG8" s="276"/>
       <c r="AP8" s="39"/>
       <c r="AQ8" s="103" t="s">
         <v>0</v>
@@ -44715,11 +44715,11 @@
       <c r="G9" s="103"/>
       <c r="H9" s="103"/>
       <c r="I9" s="103"/>
-      <c r="J9" s="268" t="s">
+      <c r="J9" s="278" t="s">
         <v>121</v>
       </c>
-      <c r="K9" s="268"/>
-      <c r="L9" s="268"/>
+      <c r="K9" s="278"/>
+      <c r="L9" s="278"/>
       <c r="M9" s="31">
         <v>0</v>
       </c>
@@ -44889,25 +44889,25 @@
       <c r="Z11" s="269" t="s">
         <v>12</v>
       </c>
-      <c r="AA11" s="275" t="s">
+      <c r="AA11" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AB11" s="275" t="s">
+      <c r="AB11" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AC11" s="275" t="s">
+      <c r="AC11" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AD11" s="275" t="s">
+      <c r="AD11" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AE11" s="275" t="s">
+      <c r="AE11" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AF11" s="275" t="s">
+      <c r="AF11" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AG11" s="271" t="s">
+      <c r="AG11" s="276" t="s">
         <v>77</v>
       </c>
       <c r="AQ11" s="39" t="s">
@@ -44956,13 +44956,13 @@
       <c r="X12" s="270"/>
       <c r="Y12" s="270"/>
       <c r="Z12" s="269"/>
-      <c r="AA12" s="275"/>
-      <c r="AB12" s="275"/>
-      <c r="AC12" s="275"/>
-      <c r="AD12" s="275"/>
-      <c r="AE12" s="275"/>
-      <c r="AF12" s="275"/>
-      <c r="AG12" s="271"/>
+      <c r="AA12" s="274"/>
+      <c r="AB12" s="274"/>
+      <c r="AC12" s="274"/>
+      <c r="AD12" s="274"/>
+      <c r="AE12" s="274"/>
+      <c r="AF12" s="274"/>
+      <c r="AG12" s="276"/>
       <c r="AQ12" s="39" t="s">
         <v>0</v>
       </c>
@@ -45015,13 +45015,13 @@
         <v>65</v>
       </c>
       <c r="Z13" s="269"/>
-      <c r="AA13" s="275"/>
-      <c r="AB13" s="275"/>
-      <c r="AC13" s="275"/>
-      <c r="AD13" s="275"/>
-      <c r="AE13" s="275"/>
-      <c r="AF13" s="275"/>
-      <c r="AG13" s="271"/>
+      <c r="AA13" s="274"/>
+      <c r="AB13" s="274"/>
+      <c r="AC13" s="274"/>
+      <c r="AD13" s="274"/>
+      <c r="AE13" s="274"/>
+      <c r="AF13" s="274"/>
+      <c r="AG13" s="276"/>
       <c r="AH13" s="29"/>
       <c r="AP13" s="39" t="s">
         <v>0</v>
@@ -45062,13 +45062,13 @@
       <c r="X14" s="270"/>
       <c r="Y14" s="270"/>
       <c r="Z14" s="269"/>
-      <c r="AA14" s="275"/>
-      <c r="AB14" s="275"/>
-      <c r="AC14" s="275"/>
-      <c r="AD14" s="275"/>
-      <c r="AE14" s="275"/>
-      <c r="AF14" s="275"/>
-      <c r="AG14" s="271"/>
+      <c r="AA14" s="274"/>
+      <c r="AB14" s="274"/>
+      <c r="AC14" s="274"/>
+      <c r="AD14" s="274"/>
+      <c r="AE14" s="274"/>
+      <c r="AF14" s="274"/>
+      <c r="AG14" s="276"/>
       <c r="AH14" s="103"/>
       <c r="AP14" s="39" t="s">
         <v>109</v>
@@ -45111,11 +45111,11 @@
       <c r="Q15" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="R15" s="268" t="s">
+      <c r="R15" s="278" t="s">
         <v>121</v>
       </c>
-      <c r="S15" s="268"/>
-      <c r="T15" s="268"/>
+      <c r="S15" s="278"/>
+      <c r="T15" s="278"/>
       <c r="U15" s="31">
         <v>0</v>
       </c>
@@ -45215,25 +45215,25 @@
       <c r="Z16" s="269" t="s">
         <v>12</v>
       </c>
-      <c r="AA16" s="275" t="s">
+      <c r="AA16" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AB16" s="275" t="s">
+      <c r="AB16" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AC16" s="275" t="s">
+      <c r="AC16" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AD16" s="275" t="s">
+      <c r="AD16" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AE16" s="275" t="s">
+      <c r="AE16" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AF16" s="275" t="s">
+      <c r="AF16" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AG16" s="271" t="s">
+      <c r="AG16" s="276" t="s">
         <v>77</v>
       </c>
       <c r="AH16" s="29"/>
@@ -45284,13 +45284,13 @@
         <v>68</v>
       </c>
       <c r="Z17" s="269"/>
-      <c r="AA17" s="275"/>
-      <c r="AB17" s="275"/>
-      <c r="AC17" s="275"/>
-      <c r="AD17" s="275"/>
-      <c r="AE17" s="275"/>
-      <c r="AF17" s="275"/>
-      <c r="AG17" s="271"/>
+      <c r="AA17" s="274"/>
+      <c r="AB17" s="274"/>
+      <c r="AC17" s="274"/>
+      <c r="AD17" s="274"/>
+      <c r="AE17" s="274"/>
+      <c r="AF17" s="274"/>
+      <c r="AG17" s="276"/>
       <c r="AP17" s="39" t="s">
         <v>111</v>
       </c>
@@ -45350,11 +45350,11 @@
       <c r="U18" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="V18" s="268" t="s">
+      <c r="V18" s="278" t="s">
         <v>121</v>
       </c>
-      <c r="W18" s="268"/>
-      <c r="X18" s="268"/>
+      <c r="W18" s="278"/>
+      <c r="X18" s="278"/>
       <c r="Y18" s="31">
         <v>0</v>
       </c>
@@ -45530,49 +45530,49 @@
       <c r="R22" s="270" t="s">
         <v>64</v>
       </c>
-      <c r="S22" s="274" t="s">
+      <c r="S22" s="271" t="s">
         <v>12</v>
       </c>
-      <c r="T22" s="275" t="s">
+      <c r="T22" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="U22" s="275" t="s">
+      <c r="U22" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="V22" s="275" t="s">
+      <c r="V22" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="W22" s="275" t="s">
+      <c r="W22" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="X22" s="275" t="s">
+      <c r="X22" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="Y22" s="275" t="s">
+      <c r="Y22" s="274" t="s">
         <v>63</v>
       </c>
       <c r="Z22" s="269" t="s">
         <v>12</v>
       </c>
-      <c r="AA22" s="275" t="s">
+      <c r="AA22" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="AB22" s="275" t="s">
+      <c r="AB22" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="AC22" s="275" t="s">
+      <c r="AC22" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="AD22" s="275" t="s">
+      <c r="AD22" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="AE22" s="275" t="s">
+      <c r="AE22" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="AF22" s="275" t="s">
+      <c r="AF22" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="AG22" s="271" t="s">
+      <c r="AG22" s="276" t="s">
         <v>78</v>
       </c>
       <c r="AP22" s="28"/>
@@ -45600,29 +45600,29 @@
       <c r="P23" s="270"/>
       <c r="Q23" s="270"/>
       <c r="R23" s="270"/>
-      <c r="S23" s="278"/>
-      <c r="T23" s="275"/>
-      <c r="U23" s="275"/>
-      <c r="V23" s="275" t="s">
+      <c r="S23" s="272"/>
+      <c r="T23" s="274"/>
+      <c r="U23" s="274"/>
+      <c r="V23" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="W23" s="275" t="s">
+      <c r="W23" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="X23" s="275" t="s">
+      <c r="X23" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="Y23" s="275" t="s">
+      <c r="Y23" s="274" t="s">
         <v>63</v>
       </c>
       <c r="Z23" s="269"/>
-      <c r="AA23" s="275"/>
-      <c r="AB23" s="275"/>
-      <c r="AC23" s="275"/>
-      <c r="AD23" s="275"/>
-      <c r="AE23" s="275"/>
-      <c r="AF23" s="275"/>
-      <c r="AG23" s="271"/>
+      <c r="AA23" s="274"/>
+      <c r="AB23" s="274"/>
+      <c r="AC23" s="274"/>
+      <c r="AD23" s="274"/>
+      <c r="AE23" s="274"/>
+      <c r="AF23" s="274"/>
+      <c r="AG23" s="276"/>
       <c r="AP23" s="28"/>
       <c r="AU23" s="112"/>
       <c r="AV23" s="112"/>
@@ -45654,29 +45654,29 @@
       <c r="R24" s="270" t="s">
         <v>65</v>
       </c>
-      <c r="S24" s="278"/>
-      <c r="T24" s="275"/>
-      <c r="U24" s="275"/>
-      <c r="V24" s="275" t="s">
+      <c r="S24" s="272"/>
+      <c r="T24" s="274"/>
+      <c r="U24" s="274"/>
+      <c r="V24" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="W24" s="275" t="s">
+      <c r="W24" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="X24" s="275" t="s">
+      <c r="X24" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="Y24" s="275" t="s">
+      <c r="Y24" s="274" t="s">
         <v>63</v>
       </c>
       <c r="Z24" s="269"/>
-      <c r="AA24" s="275"/>
-      <c r="AB24" s="275"/>
-      <c r="AC24" s="275"/>
-      <c r="AD24" s="275"/>
-      <c r="AE24" s="275"/>
-      <c r="AF24" s="275"/>
-      <c r="AG24" s="271"/>
+      <c r="AA24" s="274"/>
+      <c r="AB24" s="274"/>
+      <c r="AC24" s="274"/>
+      <c r="AD24" s="274"/>
+      <c r="AE24" s="274"/>
+      <c r="AF24" s="274"/>
+      <c r="AG24" s="276"/>
       <c r="AP24" s="28"/>
       <c r="AU24" s="112"/>
       <c r="AV24" s="112"/>
@@ -45693,29 +45693,29 @@
       <c r="P25" s="270"/>
       <c r="Q25" s="270"/>
       <c r="R25" s="270"/>
-      <c r="S25" s="278"/>
-      <c r="T25" s="275"/>
-      <c r="U25" s="275"/>
-      <c r="V25" s="275" t="s">
+      <c r="S25" s="272"/>
+      <c r="T25" s="274"/>
+      <c r="U25" s="274"/>
+      <c r="V25" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="W25" s="275" t="s">
+      <c r="W25" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="X25" s="275" t="s">
+      <c r="X25" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="Y25" s="275" t="s">
+      <c r="Y25" s="274" t="s">
         <v>63</v>
       </c>
       <c r="Z25" s="269"/>
-      <c r="AA25" s="275"/>
-      <c r="AB25" s="275"/>
-      <c r="AC25" s="275"/>
-      <c r="AD25" s="275"/>
-      <c r="AE25" s="275"/>
-      <c r="AF25" s="275"/>
-      <c r="AG25" s="271"/>
+      <c r="AA25" s="274"/>
+      <c r="AB25" s="274"/>
+      <c r="AC25" s="274"/>
+      <c r="AD25" s="274"/>
+      <c r="AE25" s="274"/>
+      <c r="AF25" s="274"/>
+      <c r="AG25" s="276"/>
       <c r="AH25" s="29"/>
       <c r="AP25" s="28"/>
       <c r="AU25" s="112"/>
@@ -45739,33 +45739,33 @@
       <c r="R26" s="270" t="s">
         <v>71</v>
       </c>
-      <c r="S26" s="278"/>
-      <c r="T26" s="272" t="s">
+      <c r="S26" s="272"/>
+      <c r="T26" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="U26" s="272" t="s">
+      <c r="U26" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="V26" s="272" t="s">
+      <c r="V26" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="W26" s="272" t="s">
+      <c r="W26" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="X26" s="272" t="s">
+      <c r="X26" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="Y26" s="272" t="s">
+      <c r="Y26" s="277" t="s">
         <v>72</v>
       </c>
       <c r="Z26" s="269"/>
-      <c r="AA26" s="275"/>
-      <c r="AB26" s="275"/>
-      <c r="AC26" s="275"/>
-      <c r="AD26" s="275"/>
-      <c r="AE26" s="275"/>
-      <c r="AF26" s="275"/>
-      <c r="AG26" s="271"/>
+      <c r="AA26" s="274"/>
+      <c r="AB26" s="274"/>
+      <c r="AC26" s="274"/>
+      <c r="AD26" s="274"/>
+      <c r="AE26" s="274"/>
+      <c r="AF26" s="274"/>
+      <c r="AG26" s="276"/>
       <c r="AH26" s="103" t="s">
         <v>0</v>
       </c>
@@ -45796,21 +45796,21 @@
       <c r="P27" s="270"/>
       <c r="Q27" s="270"/>
       <c r="R27" s="270"/>
-      <c r="S27" s="279"/>
-      <c r="T27" s="272"/>
-      <c r="U27" s="272"/>
-      <c r="V27" s="272"/>
-      <c r="W27" s="272"/>
-      <c r="X27" s="272"/>
-      <c r="Y27" s="272"/>
+      <c r="S27" s="273"/>
+      <c r="T27" s="277"/>
+      <c r="U27" s="277"/>
+      <c r="V27" s="277"/>
+      <c r="W27" s="277"/>
+      <c r="X27" s="277"/>
+      <c r="Y27" s="277"/>
       <c r="Z27" s="269"/>
-      <c r="AA27" s="275"/>
-      <c r="AB27" s="275"/>
-      <c r="AC27" s="275"/>
-      <c r="AD27" s="275"/>
-      <c r="AE27" s="275"/>
-      <c r="AF27" s="275"/>
-      <c r="AG27" s="271"/>
+      <c r="AA27" s="274"/>
+      <c r="AB27" s="274"/>
+      <c r="AC27" s="274"/>
+      <c r="AD27" s="274"/>
+      <c r="AE27" s="274"/>
+      <c r="AF27" s="274"/>
+      <c r="AG27" s="276"/>
       <c r="AH27" s="103"/>
       <c r="AP27" s="28"/>
       <c r="AQ27" s="103"/>
@@ -45822,11 +45822,11 @@
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
-      <c r="K28" s="268" t="s">
+      <c r="K28" s="278" t="s">
         <v>121</v>
       </c>
-      <c r="L28" s="268"/>
-      <c r="M28" s="268"/>
+      <c r="L28" s="278"/>
+      <c r="M28" s="278"/>
       <c r="N28" s="31">
         <v>0</v>
       </c>
@@ -45934,25 +45934,25 @@
       <c r="Z29" s="269" t="s">
         <v>12</v>
       </c>
-      <c r="AA29" s="275" t="s">
+      <c r="AA29" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="AB29" s="275" t="s">
+      <c r="AB29" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="AC29" s="275" t="s">
+      <c r="AC29" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="AD29" s="275" t="s">
+      <c r="AD29" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="AE29" s="275" t="s">
+      <c r="AE29" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="AF29" s="275" t="s">
+      <c r="AF29" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="AG29" s="271" t="s">
+      <c r="AG29" s="276" t="s">
         <v>78</v>
       </c>
       <c r="AQ29" s="28"/>
@@ -45991,13 +45991,13 @@
       <c r="X30" s="270"/>
       <c r="Y30" s="270"/>
       <c r="Z30" s="269"/>
-      <c r="AA30" s="275"/>
-      <c r="AB30" s="275"/>
-      <c r="AC30" s="275"/>
-      <c r="AD30" s="275"/>
-      <c r="AE30" s="275"/>
-      <c r="AF30" s="275"/>
-      <c r="AG30" s="271"/>
+      <c r="AA30" s="274"/>
+      <c r="AB30" s="274"/>
+      <c r="AC30" s="274"/>
+      <c r="AD30" s="274"/>
+      <c r="AE30" s="274"/>
+      <c r="AF30" s="274"/>
+      <c r="AG30" s="276"/>
       <c r="AH30" s="29"/>
       <c r="AQ30" s="28"/>
       <c r="AU30" s="112"/>
@@ -46038,13 +46038,13 @@
         <v>79</v>
       </c>
       <c r="Z31" s="269"/>
-      <c r="AA31" s="275"/>
-      <c r="AB31" s="275"/>
-      <c r="AC31" s="275"/>
-      <c r="AD31" s="275"/>
-      <c r="AE31" s="275"/>
-      <c r="AF31" s="275"/>
-      <c r="AG31" s="271"/>
+      <c r="AA31" s="274"/>
+      <c r="AB31" s="274"/>
+      <c r="AC31" s="274"/>
+      <c r="AD31" s="274"/>
+      <c r="AE31" s="274"/>
+      <c r="AF31" s="274"/>
+      <c r="AG31" s="276"/>
       <c r="AQ31" s="28"/>
       <c r="AU31" s="112"/>
       <c r="AV31" s="112"/>
@@ -46073,13 +46073,13 @@
       <c r="X32" s="270"/>
       <c r="Y32" s="270"/>
       <c r="Z32" s="269"/>
-      <c r="AA32" s="275"/>
-      <c r="AB32" s="275"/>
-      <c r="AC32" s="275"/>
-      <c r="AD32" s="275"/>
-      <c r="AE32" s="275"/>
-      <c r="AF32" s="275"/>
-      <c r="AG32" s="271"/>
+      <c r="AA32" s="274"/>
+      <c r="AB32" s="274"/>
+      <c r="AC32" s="274"/>
+      <c r="AD32" s="274"/>
+      <c r="AE32" s="274"/>
+      <c r="AF32" s="274"/>
+      <c r="AG32" s="276"/>
       <c r="AH32" s="103"/>
       <c r="AQ32" s="28"/>
       <c r="AR32" s="103"/>
@@ -46106,11 +46106,11 @@
       <c r="Q33" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="R33" s="268" t="s">
+      <c r="R33" s="278" t="s">
         <v>121</v>
       </c>
-      <c r="S33" s="268"/>
-      <c r="T33" s="268"/>
+      <c r="S33" s="278"/>
+      <c r="T33" s="278"/>
       <c r="U33" s="31">
         <v>0</v>
       </c>
@@ -46193,25 +46193,25 @@
       <c r="Z34" s="269" t="s">
         <v>12</v>
       </c>
-      <c r="AA34" s="275" t="s">
+      <c r="AA34" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="AB34" s="275" t="s">
+      <c r="AB34" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="AC34" s="275" t="s">
+      <c r="AC34" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="AD34" s="275" t="s">
+      <c r="AD34" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="AE34" s="275" t="s">
+      <c r="AE34" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="AF34" s="275" t="s">
+      <c r="AF34" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="AG34" s="271" t="s">
+      <c r="AG34" s="276" t="s">
         <v>78</v>
       </c>
       <c r="AQ34" s="28"/>
@@ -46248,13 +46248,13 @@
         <v>75</v>
       </c>
       <c r="Z35" s="269"/>
-      <c r="AA35" s="275"/>
-      <c r="AB35" s="275"/>
-      <c r="AC35" s="275"/>
-      <c r="AD35" s="275"/>
-      <c r="AE35" s="275"/>
-      <c r="AF35" s="275"/>
-      <c r="AG35" s="271"/>
+      <c r="AA35" s="274"/>
+      <c r="AB35" s="274"/>
+      <c r="AC35" s="274"/>
+      <c r="AD35" s="274"/>
+      <c r="AE35" s="274"/>
+      <c r="AF35" s="274"/>
+      <c r="AG35" s="276"/>
       <c r="AH35" s="29"/>
       <c r="AQ35" s="28"/>
     </row>
@@ -46284,11 +46284,11 @@
       <c r="U36" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="V36" s="268" t="s">
+      <c r="V36" s="278" t="s">
         <v>121</v>
       </c>
-      <c r="W36" s="268"/>
-      <c r="X36" s="268"/>
+      <c r="W36" s="278"/>
+      <c r="X36" s="278"/>
       <c r="Y36" s="29">
         <v>0</v>
       </c>
@@ -46421,25 +46421,25 @@
       <c r="Z40" s="269" t="s">
         <v>12</v>
       </c>
-      <c r="AA40" s="275" t="s">
+      <c r="AA40" s="274" t="s">
         <v>83</v>
       </c>
-      <c r="AB40" s="275" t="s">
+      <c r="AB40" s="274" t="s">
         <v>83</v>
       </c>
-      <c r="AC40" s="275" t="s">
+      <c r="AC40" s="274" t="s">
         <v>83</v>
       </c>
-      <c r="AD40" s="275" t="s">
+      <c r="AD40" s="274" t="s">
         <v>83</v>
       </c>
-      <c r="AE40" s="275" t="s">
+      <c r="AE40" s="274" t="s">
         <v>83</v>
       </c>
-      <c r="AF40" s="275" t="s">
+      <c r="AF40" s="274" t="s">
         <v>83</v>
       </c>
-      <c r="AG40" s="271" t="s">
+      <c r="AG40" s="276" t="s">
         <v>80</v>
       </c>
       <c r="AQ40" s="28"/>
@@ -46465,13 +46465,13 @@
       <c r="X41" s="270"/>
       <c r="Y41" s="270"/>
       <c r="Z41" s="269"/>
-      <c r="AA41" s="275"/>
-      <c r="AB41" s="275"/>
-      <c r="AC41" s="275"/>
-      <c r="AD41" s="275"/>
-      <c r="AE41" s="275"/>
-      <c r="AF41" s="275"/>
-      <c r="AG41" s="271"/>
+      <c r="AA41" s="274"/>
+      <c r="AB41" s="274"/>
+      <c r="AC41" s="274"/>
+      <c r="AD41" s="274"/>
+      <c r="AE41" s="274"/>
+      <c r="AF41" s="274"/>
+      <c r="AG41" s="276"/>
       <c r="AQ41" s="28"/>
     </row>
     <row r="42" spans="2:44" s="103" customFormat="1">
@@ -46498,13 +46498,13 @@
         <v>82</v>
       </c>
       <c r="Z42" s="269"/>
-      <c r="AA42" s="275"/>
-      <c r="AB42" s="275"/>
-      <c r="AC42" s="275"/>
-      <c r="AD42" s="275"/>
-      <c r="AE42" s="275"/>
-      <c r="AF42" s="275"/>
-      <c r="AG42" s="271"/>
+      <c r="AA42" s="274"/>
+      <c r="AB42" s="274"/>
+      <c r="AC42" s="274"/>
+      <c r="AD42" s="274"/>
+      <c r="AE42" s="274"/>
+      <c r="AF42" s="274"/>
+      <c r="AG42" s="276"/>
       <c r="AQ42" s="28"/>
     </row>
     <row r="43" spans="2:44" s="103" customFormat="1">
@@ -46516,13 +46516,13 @@
       <c r="X43" s="270"/>
       <c r="Y43" s="270"/>
       <c r="Z43" s="269"/>
-      <c r="AA43" s="275"/>
-      <c r="AB43" s="275"/>
-      <c r="AC43" s="275"/>
-      <c r="AD43" s="275"/>
-      <c r="AE43" s="275"/>
-      <c r="AF43" s="275"/>
-      <c r="AG43" s="271"/>
+      <c r="AA43" s="274"/>
+      <c r="AB43" s="274"/>
+      <c r="AC43" s="274"/>
+      <c r="AD43" s="274"/>
+      <c r="AE43" s="274"/>
+      <c r="AF43" s="274"/>
+      <c r="AG43" s="276"/>
       <c r="AQ43" s="28"/>
     </row>
     <row r="44" spans="2:44" s="103" customFormat="1">
@@ -46538,11 +46538,11 @@
       <c r="Q44" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="R44" s="268" t="s">
+      <c r="R44" s="278" t="s">
         <v>121</v>
       </c>
-      <c r="S44" s="268"/>
-      <c r="T44" s="268"/>
+      <c r="S44" s="278"/>
+      <c r="T44" s="278"/>
       <c r="U44" s="31">
         <v>0</v>
       </c>
@@ -46638,25 +46638,25 @@
       <c r="Z46" s="269" t="s">
         <v>12</v>
       </c>
-      <c r="AA46" s="280" t="s">
+      <c r="AA46" s="279" t="s">
         <v>83</v>
       </c>
-      <c r="AB46" s="280" t="s">
+      <c r="AB46" s="279" t="s">
         <v>83</v>
       </c>
-      <c r="AC46" s="280" t="s">
+      <c r="AC46" s="279" t="s">
         <v>83</v>
       </c>
-      <c r="AD46" s="280" t="s">
+      <c r="AD46" s="279" t="s">
         <v>83</v>
       </c>
-      <c r="AE46" s="280" t="s">
+      <c r="AE46" s="279" t="s">
         <v>83</v>
       </c>
-      <c r="AF46" s="280" t="s">
+      <c r="AF46" s="279" t="s">
         <v>83</v>
       </c>
-      <c r="AG46" s="271" t="s">
+      <c r="AG46" s="276" t="s">
         <v>80</v>
       </c>
       <c r="AQ46" s="28"/>
@@ -46689,13 +46689,13 @@
         <v>76</v>
       </c>
       <c r="Z47" s="269"/>
-      <c r="AA47" s="281"/>
-      <c r="AB47" s="281"/>
-      <c r="AC47" s="281"/>
-      <c r="AD47" s="281"/>
-      <c r="AE47" s="281"/>
-      <c r="AF47" s="281"/>
-      <c r="AG47" s="271"/>
+      <c r="AA47" s="280"/>
+      <c r="AB47" s="280"/>
+      <c r="AC47" s="280"/>
+      <c r="AD47" s="280"/>
+      <c r="AE47" s="280"/>
+      <c r="AF47" s="280"/>
+      <c r="AG47" s="276"/>
       <c r="AQ47" s="28"/>
     </row>
     <row r="48" spans="2:44" s="103" customFormat="1">
@@ -46724,11 +46724,11 @@
       <c r="U48" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="V48" s="268" t="s">
+      <c r="V48" s="278" t="s">
         <v>121</v>
       </c>
-      <c r="W48" s="268"/>
-      <c r="X48" s="268"/>
+      <c r="W48" s="278"/>
+      <c r="X48" s="278"/>
       <c r="Y48" s="31">
         <v>0</v>
       </c>
@@ -46866,43 +46866,43 @@
       <c r="T52" s="269" t="s">
         <v>12</v>
       </c>
-      <c r="U52" s="272" t="s">
+      <c r="U52" s="277" t="s">
         <v>84</v>
       </c>
-      <c r="V52" s="272" t="s">
+      <c r="V52" s="277" t="s">
         <v>84</v>
       </c>
-      <c r="W52" s="272" t="s">
+      <c r="W52" s="277" t="s">
         <v>84</v>
       </c>
-      <c r="X52" s="272" t="s">
+      <c r="X52" s="277" t="s">
         <v>84</v>
       </c>
-      <c r="Y52" s="272" t="s">
+      <c r="Y52" s="277" t="s">
         <v>84</v>
       </c>
-      <c r="Z52" s="272" t="s">
+      <c r="Z52" s="277" t="s">
         <v>84</v>
       </c>
-      <c r="AA52" s="280" t="s">
+      <c r="AA52" s="279" t="s">
         <v>85</v>
       </c>
-      <c r="AB52" s="280" t="s">
+      <c r="AB52" s="279" t="s">
         <v>85</v>
       </c>
-      <c r="AC52" s="280" t="s">
+      <c r="AC52" s="279" t="s">
         <v>85</v>
       </c>
-      <c r="AD52" s="280" t="s">
+      <c r="AD52" s="279" t="s">
         <v>85</v>
       </c>
-      <c r="AE52" s="280" t="s">
+      <c r="AE52" s="279" t="s">
         <v>85</v>
       </c>
-      <c r="AF52" s="280" t="s">
+      <c r="AF52" s="279" t="s">
         <v>85</v>
       </c>
-      <c r="AG52" s="271" t="s">
+      <c r="AG52" s="276" t="s">
         <v>86</v>
       </c>
       <c r="AP52" s="28"/>
@@ -46928,19 +46928,19 @@
       <c r="R53" s="270"/>
       <c r="S53" s="270"/>
       <c r="T53" s="269"/>
-      <c r="U53" s="272"/>
-      <c r="V53" s="272"/>
-      <c r="W53" s="272"/>
-      <c r="X53" s="272"/>
-      <c r="Y53" s="272"/>
-      <c r="Z53" s="272"/>
-      <c r="AA53" s="275"/>
-      <c r="AB53" s="275"/>
-      <c r="AC53" s="275"/>
-      <c r="AD53" s="275"/>
-      <c r="AE53" s="275"/>
-      <c r="AF53" s="275"/>
-      <c r="AG53" s="271"/>
+      <c r="U53" s="277"/>
+      <c r="V53" s="277"/>
+      <c r="W53" s="277"/>
+      <c r="X53" s="277"/>
+      <c r="Y53" s="277"/>
+      <c r="Z53" s="277"/>
+      <c r="AA53" s="274"/>
+      <c r="AB53" s="274"/>
+      <c r="AC53" s="274"/>
+      <c r="AD53" s="274"/>
+      <c r="AE53" s="274"/>
+      <c r="AF53" s="274"/>
+      <c r="AG53" s="276"/>
       <c r="AQ53" s="28"/>
     </row>
     <row r="54" spans="2:54">
@@ -46968,31 +46968,31 @@
         <v>81</v>
       </c>
       <c r="T54" s="269"/>
-      <c r="U54" s="275" t="s">
+      <c r="U54" s="274" t="s">
         <v>83</v>
       </c>
-      <c r="V54" s="275" t="s">
+      <c r="V54" s="274" t="s">
         <v>83</v>
       </c>
-      <c r="W54" s="275" t="s">
+      <c r="W54" s="274" t="s">
         <v>83</v>
       </c>
-      <c r="X54" s="275" t="s">
+      <c r="X54" s="274" t="s">
         <v>83</v>
       </c>
-      <c r="Y54" s="275" t="s">
+      <c r="Y54" s="274" t="s">
         <v>83</v>
       </c>
-      <c r="Z54" s="275" t="s">
+      <c r="Z54" s="274" t="s">
         <v>83</v>
       </c>
-      <c r="AA54" s="275"/>
-      <c r="AB54" s="275"/>
-      <c r="AC54" s="275"/>
-      <c r="AD54" s="275"/>
-      <c r="AE54" s="275"/>
-      <c r="AF54" s="275"/>
-      <c r="AG54" s="271"/>
+      <c r="AA54" s="274"/>
+      <c r="AB54" s="274"/>
+      <c r="AC54" s="274"/>
+      <c r="AD54" s="274"/>
+      <c r="AE54" s="274"/>
+      <c r="AF54" s="274"/>
+      <c r="AG54" s="276"/>
       <c r="AQ54" s="28"/>
     </row>
     <row r="55" spans="2:54">
@@ -47005,19 +47005,19 @@
       <c r="R55" s="270"/>
       <c r="S55" s="270"/>
       <c r="T55" s="269"/>
-      <c r="U55" s="275"/>
-      <c r="V55" s="275"/>
-      <c r="W55" s="275"/>
-      <c r="X55" s="275"/>
-      <c r="Y55" s="275"/>
-      <c r="Z55" s="275"/>
-      <c r="AA55" s="275"/>
-      <c r="AB55" s="275"/>
-      <c r="AC55" s="275"/>
-      <c r="AD55" s="275"/>
-      <c r="AE55" s="275"/>
-      <c r="AF55" s="275"/>
-      <c r="AG55" s="271"/>
+      <c r="U55" s="274"/>
+      <c r="V55" s="274"/>
+      <c r="W55" s="274"/>
+      <c r="X55" s="274"/>
+      <c r="Y55" s="274"/>
+      <c r="Z55" s="274"/>
+      <c r="AA55" s="274"/>
+      <c r="AB55" s="274"/>
+      <c r="AC55" s="274"/>
+      <c r="AD55" s="274"/>
+      <c r="AE55" s="274"/>
+      <c r="AF55" s="274"/>
+      <c r="AG55" s="276"/>
       <c r="AQ55" s="28"/>
     </row>
     <row r="56" spans="2:54">
@@ -47036,29 +47036,29 @@
         <v>82</v>
       </c>
       <c r="T56" s="269"/>
-      <c r="U56" s="275"/>
-      <c r="V56" s="275" t="s">
+      <c r="U56" s="274"/>
+      <c r="V56" s="274" t="s">
         <v>83</v>
       </c>
-      <c r="W56" s="275" t="s">
+      <c r="W56" s="274" t="s">
         <v>83</v>
       </c>
-      <c r="X56" s="275" t="s">
+      <c r="X56" s="274" t="s">
         <v>83</v>
       </c>
-      <c r="Y56" s="275" t="s">
+      <c r="Y56" s="274" t="s">
         <v>83</v>
       </c>
-      <c r="Z56" s="275" t="s">
+      <c r="Z56" s="274" t="s">
         <v>83</v>
       </c>
-      <c r="AA56" s="275"/>
-      <c r="AB56" s="275"/>
-      <c r="AC56" s="275"/>
-      <c r="AD56" s="275"/>
-      <c r="AE56" s="275"/>
-      <c r="AF56" s="275"/>
-      <c r="AG56" s="271"/>
+      <c r="AA56" s="274"/>
+      <c r="AB56" s="274"/>
+      <c r="AC56" s="274"/>
+      <c r="AD56" s="274"/>
+      <c r="AE56" s="274"/>
+      <c r="AF56" s="274"/>
+      <c r="AG56" s="276"/>
       <c r="AQ56" s="28"/>
     </row>
     <row r="57" spans="2:54">
@@ -47067,32 +47067,32 @@
         <v>92</v>
       </c>
       <c r="P57" s="269"/>
-      <c r="Q57" s="277"/>
-      <c r="R57" s="277"/>
-      <c r="S57" s="277"/>
+      <c r="Q57" s="281"/>
+      <c r="R57" s="281"/>
+      <c r="S57" s="281"/>
       <c r="T57" s="269"/>
-      <c r="U57" s="281"/>
-      <c r="V57" s="281"/>
-      <c r="W57" s="281"/>
-      <c r="X57" s="281"/>
-      <c r="Y57" s="281"/>
-      <c r="Z57" s="281"/>
-      <c r="AA57" s="281"/>
-      <c r="AB57" s="281"/>
-      <c r="AC57" s="281"/>
-      <c r="AD57" s="281"/>
-      <c r="AE57" s="281"/>
-      <c r="AF57" s="281"/>
-      <c r="AG57" s="271"/>
+      <c r="U57" s="280"/>
+      <c r="V57" s="280"/>
+      <c r="W57" s="280"/>
+      <c r="X57" s="280"/>
+      <c r="Y57" s="280"/>
+      <c r="Z57" s="280"/>
+      <c r="AA57" s="280"/>
+      <c r="AB57" s="280"/>
+      <c r="AC57" s="280"/>
+      <c r="AD57" s="280"/>
+      <c r="AE57" s="280"/>
+      <c r="AF57" s="280"/>
+      <c r="AG57" s="276"/>
       <c r="AQ57" s="28"/>
     </row>
     <row r="58" spans="2:54">
       <c r="J58" s="112"/>
-      <c r="L58" s="268" t="s">
+      <c r="L58" s="278" t="s">
         <v>121</v>
       </c>
-      <c r="M58" s="268"/>
-      <c r="N58" s="268"/>
+      <c r="M58" s="278"/>
+      <c r="N58" s="278"/>
       <c r="O58" s="31">
         <v>0</v>
       </c>
@@ -47265,7 +47265,7 @@
       <c r="H60" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I60" s="274" t="s">
+      <c r="I60" s="271" t="s">
         <v>12</v>
       </c>
       <c r="J60" s="270" t="s">
@@ -47277,52 +47277,52 @@
       <c r="L60" s="270" t="s">
         <v>64</v>
       </c>
-      <c r="M60" s="274" t="s">
+      <c r="M60" s="271" t="s">
         <v>12</v>
       </c>
-      <c r="N60" s="275" t="s">
+      <c r="N60" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="O60" s="275" t="s">
+      <c r="O60" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="P60" s="275" t="s">
+      <c r="P60" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="Q60" s="275" t="s">
+      <c r="Q60" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="R60" s="275" t="s">
+      <c r="R60" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="S60" s="275" t="s">
+      <c r="S60" s="274" t="s">
         <v>63</v>
       </c>
       <c r="T60" s="269" t="s">
         <v>12</v>
       </c>
-      <c r="U60" s="275" t="s">
+      <c r="U60" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="V60" s="275" t="s">
+      <c r="V60" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="W60" s="275" t="s">
+      <c r="W60" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="X60" s="275" t="s">
+      <c r="X60" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="Y60" s="275" t="s">
+      <c r="Y60" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="Z60" s="275" t="s">
+      <c r="Z60" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="AA60" s="276" t="s">
+      <c r="AA60" s="275" t="s">
         <v>66</v>
       </c>
-      <c r="AB60" s="273" t="s">
+      <c r="AB60" s="282" t="s">
         <v>94</v>
       </c>
       <c r="AC60" s="269" t="s">
@@ -47337,7 +47337,7 @@
       <c r="AF60" s="270" t="s">
         <v>79</v>
       </c>
-      <c r="AG60" s="271" t="s">
+      <c r="AG60" s="276" t="s">
         <v>93</v>
       </c>
       <c r="AN60" s="28"/>
@@ -47356,31 +47356,31 @@
       <c r="H61" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I61" s="278"/>
+      <c r="I61" s="272"/>
       <c r="J61" s="270"/>
       <c r="K61" s="270"/>
       <c r="L61" s="270"/>
-      <c r="M61" s="278"/>
-      <c r="N61" s="275"/>
-      <c r="O61" s="275"/>
-      <c r="P61" s="275"/>
-      <c r="Q61" s="275"/>
-      <c r="R61" s="275"/>
-      <c r="S61" s="275"/>
+      <c r="M61" s="272"/>
+      <c r="N61" s="274"/>
+      <c r="O61" s="274"/>
+      <c r="P61" s="274"/>
+      <c r="Q61" s="274"/>
+      <c r="R61" s="274"/>
+      <c r="S61" s="274"/>
       <c r="T61" s="269"/>
-      <c r="U61" s="275"/>
-      <c r="V61" s="275"/>
-      <c r="W61" s="275"/>
-      <c r="X61" s="275"/>
-      <c r="Y61" s="275"/>
-      <c r="Z61" s="275"/>
-      <c r="AA61" s="276"/>
-      <c r="AB61" s="273"/>
+      <c r="U61" s="274"/>
+      <c r="V61" s="274"/>
+      <c r="W61" s="274"/>
+      <c r="X61" s="274"/>
+      <c r="Y61" s="274"/>
+      <c r="Z61" s="274"/>
+      <c r="AA61" s="275"/>
+      <c r="AB61" s="282"/>
       <c r="AC61" s="269"/>
       <c r="AD61" s="270"/>
       <c r="AE61" s="270"/>
       <c r="AF61" s="270"/>
-      <c r="AG61" s="271"/>
+      <c r="AG61" s="276"/>
       <c r="AN61" s="28"/>
       <c r="AQ61" s="103" t="s">
         <v>0</v>
@@ -47399,7 +47399,7 @@
       <c r="H62" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I62" s="278"/>
+      <c r="I62" s="272"/>
       <c r="J62" s="270" t="s">
         <v>65</v>
       </c>
@@ -47409,27 +47409,27 @@
       <c r="L62" s="270" t="s">
         <v>65</v>
       </c>
-      <c r="M62" s="278"/>
-      <c r="N62" s="275"/>
-      <c r="O62" s="275"/>
-      <c r="P62" s="275"/>
-      <c r="Q62" s="275"/>
-      <c r="R62" s="275"/>
-      <c r="S62" s="275"/>
+      <c r="M62" s="272"/>
+      <c r="N62" s="274"/>
+      <c r="O62" s="274"/>
+      <c r="P62" s="274"/>
+      <c r="Q62" s="274"/>
+      <c r="R62" s="274"/>
+      <c r="S62" s="274"/>
       <c r="T62" s="269"/>
-      <c r="U62" s="275"/>
-      <c r="V62" s="275"/>
-      <c r="W62" s="275"/>
-      <c r="X62" s="275"/>
-      <c r="Y62" s="275"/>
-      <c r="Z62" s="275"/>
-      <c r="AA62" s="276"/>
-      <c r="AB62" s="273"/>
+      <c r="U62" s="274"/>
+      <c r="V62" s="274"/>
+      <c r="W62" s="274"/>
+      <c r="X62" s="274"/>
+      <c r="Y62" s="274"/>
+      <c r="Z62" s="274"/>
+      <c r="AA62" s="275"/>
+      <c r="AB62" s="282"/>
       <c r="AC62" s="269"/>
       <c r="AD62" s="270"/>
       <c r="AE62" s="270"/>
       <c r="AF62" s="270"/>
-      <c r="AG62" s="271"/>
+      <c r="AG62" s="276"/>
       <c r="AN62" s="28"/>
     </row>
     <row r="63" spans="2:54">
@@ -47445,7 +47445,7 @@
       <c r="H63" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I63" s="278"/>
+      <c r="I63" s="272"/>
       <c r="J63" s="270" t="s">
         <v>79</v>
       </c>
@@ -47455,34 +47455,34 @@
       <c r="L63" s="270" t="s">
         <v>79</v>
       </c>
-      <c r="M63" s="278"/>
-      <c r="N63" s="275"/>
-      <c r="O63" s="275"/>
-      <c r="P63" s="275"/>
-      <c r="Q63" s="275"/>
-      <c r="R63" s="275"/>
-      <c r="S63" s="275"/>
+      <c r="M63" s="272"/>
+      <c r="N63" s="274"/>
+      <c r="O63" s="274"/>
+      <c r="P63" s="274"/>
+      <c r="Q63" s="274"/>
+      <c r="R63" s="274"/>
+      <c r="S63" s="274"/>
       <c r="T63" s="269"/>
-      <c r="U63" s="275"/>
-      <c r="V63" s="275"/>
-      <c r="W63" s="275"/>
-      <c r="X63" s="275"/>
-      <c r="Y63" s="275"/>
-      <c r="Z63" s="275"/>
-      <c r="AA63" s="276"/>
-      <c r="AB63" s="273"/>
+      <c r="U63" s="274"/>
+      <c r="V63" s="274"/>
+      <c r="W63" s="274"/>
+      <c r="X63" s="274"/>
+      <c r="Y63" s="274"/>
+      <c r="Z63" s="274"/>
+      <c r="AA63" s="275"/>
+      <c r="AB63" s="282"/>
       <c r="AC63" s="269"/>
       <c r="AD63" s="270"/>
       <c r="AE63" s="270"/>
       <c r="AF63" s="270"/>
-      <c r="AG63" s="271"/>
+      <c r="AG63" s="276"/>
       <c r="AN63" s="28"/>
     </row>
     <row r="64" spans="2:54">
       <c r="H64" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="I64" s="278"/>
+      <c r="I64" s="272"/>
       <c r="J64" s="270" t="s">
         <v>71</v>
       </c>
@@ -47492,46 +47492,46 @@
       <c r="L64" s="270" t="s">
         <v>71</v>
       </c>
-      <c r="M64" s="278"/>
-      <c r="N64" s="272" t="s">
+      <c r="M64" s="272"/>
+      <c r="N64" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="O64" s="272" t="s">
+      <c r="O64" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="P64" s="272" t="s">
+      <c r="P64" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="Q64" s="272" t="s">
+      <c r="Q64" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="R64" s="272" t="s">
+      <c r="R64" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="S64" s="272" t="s">
+      <c r="S64" s="277" t="s">
         <v>72</v>
       </c>
       <c r="T64" s="269"/>
-      <c r="U64" s="275"/>
-      <c r="V64" s="275"/>
-      <c r="W64" s="275"/>
-      <c r="X64" s="275"/>
-      <c r="Y64" s="275"/>
-      <c r="Z64" s="275"/>
-      <c r="AA64" s="276"/>
-      <c r="AB64" s="273"/>
+      <c r="U64" s="274"/>
+      <c r="V64" s="274"/>
+      <c r="W64" s="274"/>
+      <c r="X64" s="274"/>
+      <c r="Y64" s="274"/>
+      <c r="Z64" s="274"/>
+      <c r="AA64" s="275"/>
+      <c r="AB64" s="282"/>
       <c r="AC64" s="269"/>
       <c r="AD64" s="270"/>
       <c r="AE64" s="270"/>
       <c r="AF64" s="270"/>
-      <c r="AG64" s="271"/>
+      <c r="AG64" s="276"/>
       <c r="AN64" s="28"/>
     </row>
     <row r="65" spans="2:43" s="103" customFormat="1">
       <c r="H65" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="I65" s="278"/>
+      <c r="I65" s="272"/>
       <c r="J65" s="270" t="s">
         <v>82</v>
       </c>
@@ -47541,27 +47541,27 @@
       <c r="L65" s="270" t="s">
         <v>82</v>
       </c>
-      <c r="M65" s="279"/>
-      <c r="N65" s="272"/>
-      <c r="O65" s="272"/>
-      <c r="P65" s="272"/>
-      <c r="Q65" s="272"/>
-      <c r="R65" s="272"/>
-      <c r="S65" s="272"/>
+      <c r="M65" s="273"/>
+      <c r="N65" s="277"/>
+      <c r="O65" s="277"/>
+      <c r="P65" s="277"/>
+      <c r="Q65" s="277"/>
+      <c r="R65" s="277"/>
+      <c r="S65" s="277"/>
       <c r="T65" s="269"/>
-      <c r="U65" s="275"/>
-      <c r="V65" s="275"/>
-      <c r="W65" s="275"/>
-      <c r="X65" s="275"/>
-      <c r="Y65" s="275"/>
-      <c r="Z65" s="275"/>
-      <c r="AA65" s="276"/>
-      <c r="AB65" s="273"/>
+      <c r="U65" s="274"/>
+      <c r="V65" s="274"/>
+      <c r="W65" s="274"/>
+      <c r="X65" s="274"/>
+      <c r="Y65" s="274"/>
+      <c r="Z65" s="274"/>
+      <c r="AA65" s="275"/>
+      <c r="AB65" s="282"/>
       <c r="AC65" s="269"/>
       <c r="AD65" s="270"/>
       <c r="AE65" s="270"/>
       <c r="AF65" s="270"/>
-      <c r="AG65" s="271"/>
+      <c r="AG65" s="276"/>
       <c r="AK65" s="103" t="s">
         <v>0</v>
       </c>
@@ -47576,7 +47576,7 @@
       <c r="H66" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="I66" s="279"/>
+      <c r="I66" s="273"/>
       <c r="J66" s="104" t="s">
         <v>95</v>
       </c>
@@ -47638,15 +47638,15 @@
       <c r="AD66" s="270"/>
       <c r="AE66" s="270"/>
       <c r="AF66" s="270"/>
-      <c r="AG66" s="271"/>
+      <c r="AG66" s="276"/>
       <c r="AN66" s="28"/>
     </row>
     <row r="67" spans="2:43" s="103" customFormat="1">
-      <c r="E67" s="268" t="s">
+      <c r="E67" s="278" t="s">
         <v>121</v>
       </c>
-      <c r="F67" s="268"/>
-      <c r="G67" s="268"/>
+      <c r="F67" s="278"/>
+      <c r="G67" s="278"/>
       <c r="H67" s="31">
         <v>0</v>
       </c>
@@ -47749,7 +47749,7 @@
       <c r="H68" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I68" s="274" t="s">
+      <c r="I68" s="271" t="s">
         <v>12</v>
       </c>
       <c r="J68" s="270" t="s">
@@ -47761,52 +47761,52 @@
       <c r="L68" s="270" t="s">
         <v>64</v>
       </c>
-      <c r="M68" s="274" t="s">
+      <c r="M68" s="271" t="s">
         <v>12</v>
       </c>
-      <c r="N68" s="275" t="s">
+      <c r="N68" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="O68" s="275" t="s">
+      <c r="O68" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="P68" s="275" t="s">
+      <c r="P68" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="Q68" s="275" t="s">
+      <c r="Q68" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="R68" s="275" t="s">
+      <c r="R68" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="S68" s="275" t="s">
+      <c r="S68" s="274" t="s">
         <v>63</v>
       </c>
       <c r="T68" s="269" t="s">
         <v>12</v>
       </c>
-      <c r="U68" s="275" t="s">
+      <c r="U68" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="V68" s="275" t="s">
+      <c r="V68" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="W68" s="275" t="s">
+      <c r="W68" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="X68" s="275" t="s">
+      <c r="X68" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="Y68" s="275" t="s">
+      <c r="Y68" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="Z68" s="275" t="s">
+      <c r="Z68" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="AA68" s="276" t="s">
+      <c r="AA68" s="275" t="s">
         <v>66</v>
       </c>
-      <c r="AB68" s="273" t="s">
+      <c r="AB68" s="282" t="s">
         <v>94</v>
       </c>
       <c r="AC68" s="269" t="s">
@@ -47821,7 +47821,7 @@
       <c r="AF68" s="270" t="s">
         <v>81</v>
       </c>
-      <c r="AG68" s="271" t="s">
+      <c r="AG68" s="276" t="s">
         <v>100</v>
       </c>
       <c r="AP68" s="28"/>
@@ -47840,31 +47840,31 @@
       <c r="H69" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I69" s="278"/>
+      <c r="I69" s="272"/>
       <c r="J69" s="270"/>
       <c r="K69" s="270"/>
       <c r="L69" s="270"/>
-      <c r="M69" s="278"/>
-      <c r="N69" s="275"/>
-      <c r="O69" s="275"/>
-      <c r="P69" s="275"/>
-      <c r="Q69" s="275"/>
-      <c r="R69" s="275"/>
-      <c r="S69" s="275"/>
+      <c r="M69" s="272"/>
+      <c r="N69" s="274"/>
+      <c r="O69" s="274"/>
+      <c r="P69" s="274"/>
+      <c r="Q69" s="274"/>
+      <c r="R69" s="274"/>
+      <c r="S69" s="274"/>
       <c r="T69" s="269"/>
-      <c r="U69" s="275"/>
-      <c r="V69" s="275"/>
-      <c r="W69" s="275"/>
-      <c r="X69" s="275"/>
-      <c r="Y69" s="275"/>
-      <c r="Z69" s="275"/>
-      <c r="AA69" s="276"/>
-      <c r="AB69" s="273"/>
+      <c r="U69" s="274"/>
+      <c r="V69" s="274"/>
+      <c r="W69" s="274"/>
+      <c r="X69" s="274"/>
+      <c r="Y69" s="274"/>
+      <c r="Z69" s="274"/>
+      <c r="AA69" s="275"/>
+      <c r="AB69" s="282"/>
       <c r="AC69" s="269"/>
       <c r="AD69" s="270"/>
       <c r="AE69" s="270"/>
       <c r="AF69" s="270"/>
-      <c r="AG69" s="271"/>
+      <c r="AG69" s="276"/>
       <c r="AP69" s="28"/>
     </row>
     <row r="70" spans="2:43" s="103" customFormat="1">
@@ -47880,7 +47880,7 @@
       <c r="H70" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I70" s="278"/>
+      <c r="I70" s="272"/>
       <c r="J70" s="270" t="s">
         <v>65</v>
       </c>
@@ -47890,27 +47890,27 @@
       <c r="L70" s="270" t="s">
         <v>65</v>
       </c>
-      <c r="M70" s="278"/>
-      <c r="N70" s="275"/>
-      <c r="O70" s="275"/>
-      <c r="P70" s="275"/>
-      <c r="Q70" s="275"/>
-      <c r="R70" s="275"/>
-      <c r="S70" s="275"/>
+      <c r="M70" s="272"/>
+      <c r="N70" s="274"/>
+      <c r="O70" s="274"/>
+      <c r="P70" s="274"/>
+      <c r="Q70" s="274"/>
+      <c r="R70" s="274"/>
+      <c r="S70" s="274"/>
       <c r="T70" s="269"/>
-      <c r="U70" s="275"/>
-      <c r="V70" s="275"/>
-      <c r="W70" s="275"/>
-      <c r="X70" s="275"/>
-      <c r="Y70" s="275"/>
-      <c r="Z70" s="275"/>
-      <c r="AA70" s="276"/>
-      <c r="AB70" s="273"/>
+      <c r="U70" s="274"/>
+      <c r="V70" s="274"/>
+      <c r="W70" s="274"/>
+      <c r="X70" s="274"/>
+      <c r="Y70" s="274"/>
+      <c r="Z70" s="274"/>
+      <c r="AA70" s="275"/>
+      <c r="AB70" s="282"/>
       <c r="AC70" s="269"/>
       <c r="AD70" s="270"/>
       <c r="AE70" s="270"/>
       <c r="AF70" s="270"/>
-      <c r="AG70" s="271"/>
+      <c r="AG70" s="276"/>
       <c r="AP70" s="28"/>
     </row>
     <row r="71" spans="2:43" s="103" customFormat="1">
@@ -47926,7 +47926,7 @@
       <c r="H71" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I71" s="278"/>
+      <c r="I71" s="272"/>
       <c r="J71" s="270" t="s">
         <v>79</v>
       </c>
@@ -47936,34 +47936,34 @@
       <c r="L71" s="270" t="s">
         <v>79</v>
       </c>
-      <c r="M71" s="278"/>
-      <c r="N71" s="275"/>
-      <c r="O71" s="275"/>
-      <c r="P71" s="275"/>
-      <c r="Q71" s="275"/>
-      <c r="R71" s="275"/>
-      <c r="S71" s="275"/>
+      <c r="M71" s="272"/>
+      <c r="N71" s="274"/>
+      <c r="O71" s="274"/>
+      <c r="P71" s="274"/>
+      <c r="Q71" s="274"/>
+      <c r="R71" s="274"/>
+      <c r="S71" s="274"/>
       <c r="T71" s="269"/>
-      <c r="U71" s="275"/>
-      <c r="V71" s="275"/>
-      <c r="W71" s="275"/>
-      <c r="X71" s="275"/>
-      <c r="Y71" s="275"/>
-      <c r="Z71" s="275"/>
-      <c r="AA71" s="276"/>
-      <c r="AB71" s="273"/>
+      <c r="U71" s="274"/>
+      <c r="V71" s="274"/>
+      <c r="W71" s="274"/>
+      <c r="X71" s="274"/>
+      <c r="Y71" s="274"/>
+      <c r="Z71" s="274"/>
+      <c r="AA71" s="275"/>
+      <c r="AB71" s="282"/>
       <c r="AC71" s="269"/>
       <c r="AD71" s="270"/>
       <c r="AE71" s="270"/>
       <c r="AF71" s="270"/>
-      <c r="AG71" s="271"/>
+      <c r="AG71" s="276"/>
       <c r="AP71" s="28"/>
     </row>
     <row r="72" spans="2:43" s="103" customFormat="1">
       <c r="H72" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="I72" s="278"/>
+      <c r="I72" s="272"/>
       <c r="J72" s="270" t="s">
         <v>71</v>
       </c>
@@ -47973,46 +47973,46 @@
       <c r="L72" s="270" t="s">
         <v>71</v>
       </c>
-      <c r="M72" s="278"/>
-      <c r="N72" s="272" t="s">
+      <c r="M72" s="272"/>
+      <c r="N72" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="O72" s="272" t="s">
+      <c r="O72" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="P72" s="272" t="s">
+      <c r="P72" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="Q72" s="272" t="s">
+      <c r="Q72" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="R72" s="272" t="s">
+      <c r="R72" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="S72" s="272" t="s">
+      <c r="S72" s="277" t="s">
         <v>72</v>
       </c>
       <c r="T72" s="269"/>
-      <c r="U72" s="275"/>
-      <c r="V72" s="275"/>
-      <c r="W72" s="275"/>
-      <c r="X72" s="275"/>
-      <c r="Y72" s="275"/>
-      <c r="Z72" s="275"/>
-      <c r="AA72" s="276"/>
-      <c r="AB72" s="273"/>
+      <c r="U72" s="274"/>
+      <c r="V72" s="274"/>
+      <c r="W72" s="274"/>
+      <c r="X72" s="274"/>
+      <c r="Y72" s="274"/>
+      <c r="Z72" s="274"/>
+      <c r="AA72" s="275"/>
+      <c r="AB72" s="282"/>
       <c r="AC72" s="269"/>
       <c r="AD72" s="270"/>
       <c r="AE72" s="270"/>
       <c r="AF72" s="270"/>
-      <c r="AG72" s="271"/>
+      <c r="AG72" s="276"/>
       <c r="AP72" s="28"/>
     </row>
     <row r="73" spans="2:43" s="103" customFormat="1">
       <c r="H73" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="I73" s="278"/>
+      <c r="I73" s="272"/>
       <c r="J73" s="270" t="s">
         <v>82</v>
       </c>
@@ -48022,34 +48022,34 @@
       <c r="L73" s="270" t="s">
         <v>82</v>
       </c>
-      <c r="M73" s="279"/>
-      <c r="N73" s="272"/>
-      <c r="O73" s="272"/>
-      <c r="P73" s="272"/>
-      <c r="Q73" s="272"/>
-      <c r="R73" s="272"/>
-      <c r="S73" s="272"/>
+      <c r="M73" s="273"/>
+      <c r="N73" s="277"/>
+      <c r="O73" s="277"/>
+      <c r="P73" s="277"/>
+      <c r="Q73" s="277"/>
+      <c r="R73" s="277"/>
+      <c r="S73" s="277"/>
       <c r="T73" s="269"/>
-      <c r="U73" s="275"/>
-      <c r="V73" s="275"/>
-      <c r="W73" s="275"/>
-      <c r="X73" s="275"/>
-      <c r="Y73" s="275"/>
-      <c r="Z73" s="275"/>
-      <c r="AA73" s="276"/>
-      <c r="AB73" s="273"/>
+      <c r="U73" s="274"/>
+      <c r="V73" s="274"/>
+      <c r="W73" s="274"/>
+      <c r="X73" s="274"/>
+      <c r="Y73" s="274"/>
+      <c r="Z73" s="274"/>
+      <c r="AA73" s="275"/>
+      <c r="AB73" s="282"/>
       <c r="AC73" s="269"/>
       <c r="AD73" s="270"/>
       <c r="AE73" s="270"/>
       <c r="AF73" s="270"/>
-      <c r="AG73" s="271"/>
+      <c r="AG73" s="276"/>
       <c r="AP73" s="28"/>
     </row>
     <row r="74" spans="2:43" s="103" customFormat="1">
       <c r="H74" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I74" s="279"/>
+      <c r="I74" s="273"/>
       <c r="J74" s="104" t="s">
         <v>99</v>
       </c>
@@ -48111,15 +48111,15 @@
       <c r="AD74" s="270"/>
       <c r="AE74" s="270"/>
       <c r="AF74" s="270"/>
-      <c r="AG74" s="271"/>
+      <c r="AG74" s="276"/>
       <c r="AP74" s="28"/>
     </row>
     <row r="75" spans="2:43" s="103" customFormat="1">
-      <c r="E75" s="268" t="s">
+      <c r="E75" s="278" t="s">
         <v>121</v>
       </c>
-      <c r="F75" s="268"/>
-      <c r="G75" s="268"/>
+      <c r="F75" s="278"/>
+      <c r="G75" s="278"/>
       <c r="H75" s="31">
         <v>0</v>
       </c>
@@ -48222,7 +48222,7 @@
       <c r="H76" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I76" s="274" t="s">
+      <c r="I76" s="271" t="s">
         <v>12</v>
       </c>
       <c r="J76" s="270" t="s">
@@ -48234,52 +48234,52 @@
       <c r="L76" s="270" t="s">
         <v>64</v>
       </c>
-      <c r="M76" s="274" t="s">
+      <c r="M76" s="271" t="s">
         <v>12</v>
       </c>
-      <c r="N76" s="275" t="s">
+      <c r="N76" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="O76" s="275" t="s">
+      <c r="O76" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="P76" s="275" t="s">
+      <c r="P76" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="Q76" s="275" t="s">
+      <c r="Q76" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="R76" s="275" t="s">
+      <c r="R76" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="S76" s="275" t="s">
+      <c r="S76" s="274" t="s">
         <v>63</v>
       </c>
       <c r="T76" s="269" t="s">
         <v>12</v>
       </c>
-      <c r="U76" s="275" t="s">
+      <c r="U76" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="V76" s="275" t="s">
+      <c r="V76" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="W76" s="275" t="s">
+      <c r="W76" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="X76" s="275" t="s">
+      <c r="X76" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="Y76" s="275" t="s">
+      <c r="Y76" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="Z76" s="275" t="s">
+      <c r="Z76" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="AA76" s="276" t="s">
+      <c r="AA76" s="275" t="s">
         <v>66</v>
       </c>
-      <c r="AB76" s="273" t="s">
+      <c r="AB76" s="282" t="s">
         <v>94</v>
       </c>
       <c r="AC76" s="269" t="s">
@@ -48294,7 +48294,7 @@
       <c r="AF76" s="270" t="s">
         <v>82</v>
       </c>
-      <c r="AG76" s="271" t="s">
+      <c r="AG76" s="276" t="s">
         <v>101</v>
       </c>
       <c r="AO76" s="28"/>
@@ -48313,31 +48313,31 @@
       <c r="H77" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I77" s="278"/>
+      <c r="I77" s="272"/>
       <c r="J77" s="270"/>
       <c r="K77" s="270"/>
       <c r="L77" s="270"/>
-      <c r="M77" s="278"/>
-      <c r="N77" s="275"/>
-      <c r="O77" s="275"/>
-      <c r="P77" s="275"/>
-      <c r="Q77" s="275"/>
-      <c r="R77" s="275"/>
-      <c r="S77" s="275"/>
+      <c r="M77" s="272"/>
+      <c r="N77" s="274"/>
+      <c r="O77" s="274"/>
+      <c r="P77" s="274"/>
+      <c r="Q77" s="274"/>
+      <c r="R77" s="274"/>
+      <c r="S77" s="274"/>
       <c r="T77" s="269"/>
-      <c r="U77" s="275"/>
-      <c r="V77" s="275"/>
-      <c r="W77" s="275"/>
-      <c r="X77" s="275"/>
-      <c r="Y77" s="275"/>
-      <c r="Z77" s="275"/>
-      <c r="AA77" s="276"/>
-      <c r="AB77" s="273"/>
+      <c r="U77" s="274"/>
+      <c r="V77" s="274"/>
+      <c r="W77" s="274"/>
+      <c r="X77" s="274"/>
+      <c r="Y77" s="274"/>
+      <c r="Z77" s="274"/>
+      <c r="AA77" s="275"/>
+      <c r="AB77" s="282"/>
       <c r="AC77" s="269"/>
       <c r="AD77" s="270"/>
       <c r="AE77" s="270"/>
       <c r="AF77" s="270"/>
-      <c r="AG77" s="271"/>
+      <c r="AG77" s="276"/>
       <c r="AO77" s="28"/>
     </row>
     <row r="78" spans="2:43" s="103" customFormat="1">
@@ -48353,7 +48353,7 @@
       <c r="H78" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I78" s="278"/>
+      <c r="I78" s="272"/>
       <c r="J78" s="270" t="s">
         <v>65</v>
       </c>
@@ -48363,27 +48363,27 @@
       <c r="L78" s="270" t="s">
         <v>65</v>
       </c>
-      <c r="M78" s="278"/>
-      <c r="N78" s="275"/>
-      <c r="O78" s="275"/>
-      <c r="P78" s="275"/>
-      <c r="Q78" s="275"/>
-      <c r="R78" s="275"/>
-      <c r="S78" s="275"/>
+      <c r="M78" s="272"/>
+      <c r="N78" s="274"/>
+      <c r="O78" s="274"/>
+      <c r="P78" s="274"/>
+      <c r="Q78" s="274"/>
+      <c r="R78" s="274"/>
+      <c r="S78" s="274"/>
       <c r="T78" s="269"/>
-      <c r="U78" s="275"/>
-      <c r="V78" s="275"/>
-      <c r="W78" s="275"/>
-      <c r="X78" s="275"/>
-      <c r="Y78" s="275"/>
-      <c r="Z78" s="275"/>
-      <c r="AA78" s="276"/>
-      <c r="AB78" s="273"/>
+      <c r="U78" s="274"/>
+      <c r="V78" s="274"/>
+      <c r="W78" s="274"/>
+      <c r="X78" s="274"/>
+      <c r="Y78" s="274"/>
+      <c r="Z78" s="274"/>
+      <c r="AA78" s="275"/>
+      <c r="AB78" s="282"/>
       <c r="AC78" s="269"/>
       <c r="AD78" s="270"/>
       <c r="AE78" s="270"/>
       <c r="AF78" s="270"/>
-      <c r="AG78" s="271"/>
+      <c r="AG78" s="276"/>
       <c r="AO78" s="28"/>
     </row>
     <row r="79" spans="2:43" s="103" customFormat="1">
@@ -48399,7 +48399,7 @@
       <c r="H79" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I79" s="278"/>
+      <c r="I79" s="272"/>
       <c r="J79" s="270" t="s">
         <v>79</v>
       </c>
@@ -48409,34 +48409,34 @@
       <c r="L79" s="270" t="s">
         <v>79</v>
       </c>
-      <c r="M79" s="278"/>
-      <c r="N79" s="275"/>
-      <c r="O79" s="275"/>
-      <c r="P79" s="275"/>
-      <c r="Q79" s="275"/>
-      <c r="R79" s="275"/>
-      <c r="S79" s="275"/>
+      <c r="M79" s="272"/>
+      <c r="N79" s="274"/>
+      <c r="O79" s="274"/>
+      <c r="P79" s="274"/>
+      <c r="Q79" s="274"/>
+      <c r="R79" s="274"/>
+      <c r="S79" s="274"/>
       <c r="T79" s="269"/>
-      <c r="U79" s="275"/>
-      <c r="V79" s="275"/>
-      <c r="W79" s="275"/>
-      <c r="X79" s="275"/>
-      <c r="Y79" s="275"/>
-      <c r="Z79" s="275"/>
-      <c r="AA79" s="276"/>
-      <c r="AB79" s="273"/>
+      <c r="U79" s="274"/>
+      <c r="V79" s="274"/>
+      <c r="W79" s="274"/>
+      <c r="X79" s="274"/>
+      <c r="Y79" s="274"/>
+      <c r="Z79" s="274"/>
+      <c r="AA79" s="275"/>
+      <c r="AB79" s="282"/>
       <c r="AC79" s="269"/>
       <c r="AD79" s="270"/>
       <c r="AE79" s="270"/>
       <c r="AF79" s="270"/>
-      <c r="AG79" s="271"/>
+      <c r="AG79" s="276"/>
       <c r="AO79" s="28"/>
     </row>
     <row r="80" spans="2:43" s="103" customFormat="1">
       <c r="H80" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="I80" s="278"/>
+      <c r="I80" s="272"/>
       <c r="J80" s="270" t="s">
         <v>71</v>
       </c>
@@ -48446,46 +48446,46 @@
       <c r="L80" s="270" t="s">
         <v>71</v>
       </c>
-      <c r="M80" s="278"/>
-      <c r="N80" s="272" t="s">
+      <c r="M80" s="272"/>
+      <c r="N80" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="O80" s="272" t="s">
+      <c r="O80" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="P80" s="272" t="s">
+      <c r="P80" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="Q80" s="272" t="s">
+      <c r="Q80" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="R80" s="272" t="s">
+      <c r="R80" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="S80" s="272" t="s">
+      <c r="S80" s="277" t="s">
         <v>72</v>
       </c>
       <c r="T80" s="269"/>
-      <c r="U80" s="275"/>
-      <c r="V80" s="275"/>
-      <c r="W80" s="275"/>
-      <c r="X80" s="275"/>
-      <c r="Y80" s="275"/>
-      <c r="Z80" s="275"/>
-      <c r="AA80" s="276"/>
-      <c r="AB80" s="273"/>
+      <c r="U80" s="274"/>
+      <c r="V80" s="274"/>
+      <c r="W80" s="274"/>
+      <c r="X80" s="274"/>
+      <c r="Y80" s="274"/>
+      <c r="Z80" s="274"/>
+      <c r="AA80" s="275"/>
+      <c r="AB80" s="282"/>
       <c r="AC80" s="269"/>
       <c r="AD80" s="270"/>
       <c r="AE80" s="270"/>
       <c r="AF80" s="270"/>
-      <c r="AG80" s="271"/>
+      <c r="AG80" s="276"/>
       <c r="AO80" s="28"/>
     </row>
     <row r="81" spans="2:43" s="103" customFormat="1">
       <c r="H81" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="I81" s="278"/>
+      <c r="I81" s="272"/>
       <c r="J81" s="270" t="s">
         <v>82</v>
       </c>
@@ -48495,34 +48495,34 @@
       <c r="L81" s="270" t="s">
         <v>82</v>
       </c>
-      <c r="M81" s="279"/>
-      <c r="N81" s="272"/>
-      <c r="O81" s="272"/>
-      <c r="P81" s="272"/>
-      <c r="Q81" s="272"/>
-      <c r="R81" s="272"/>
-      <c r="S81" s="272"/>
+      <c r="M81" s="273"/>
+      <c r="N81" s="277"/>
+      <c r="O81" s="277"/>
+      <c r="P81" s="277"/>
+      <c r="Q81" s="277"/>
+      <c r="R81" s="277"/>
+      <c r="S81" s="277"/>
       <c r="T81" s="269"/>
-      <c r="U81" s="275"/>
-      <c r="V81" s="275"/>
-      <c r="W81" s="275"/>
-      <c r="X81" s="275"/>
-      <c r="Y81" s="275"/>
-      <c r="Z81" s="275"/>
-      <c r="AA81" s="276"/>
-      <c r="AB81" s="273"/>
+      <c r="U81" s="274"/>
+      <c r="V81" s="274"/>
+      <c r="W81" s="274"/>
+      <c r="X81" s="274"/>
+      <c r="Y81" s="274"/>
+      <c r="Z81" s="274"/>
+      <c r="AA81" s="275"/>
+      <c r="AB81" s="282"/>
       <c r="AC81" s="269"/>
       <c r="AD81" s="270"/>
       <c r="AE81" s="270"/>
       <c r="AF81" s="270"/>
-      <c r="AG81" s="271"/>
+      <c r="AG81" s="276"/>
       <c r="AO81" s="28"/>
     </row>
     <row r="82" spans="2:43" s="103" customFormat="1">
       <c r="H82" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="I82" s="279"/>
+      <c r="I82" s="273"/>
       <c r="J82" s="104" t="s">
         <v>102</v>
       </c>
@@ -48580,19 +48580,19 @@
       <c r="AB82" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="AC82" s="274"/>
-      <c r="AD82" s="277"/>
-      <c r="AE82" s="277"/>
+      <c r="AC82" s="271"/>
+      <c r="AD82" s="281"/>
+      <c r="AE82" s="281"/>
       <c r="AF82" s="270"/>
-      <c r="AG82" s="271"/>
+      <c r="AG82" s="276"/>
       <c r="AO82" s="28"/>
     </row>
     <row r="83" spans="2:43" s="103" customFormat="1">
-      <c r="E83" s="268" t="s">
+      <c r="E83" s="278" t="s">
         <v>121</v>
       </c>
-      <c r="F83" s="268"/>
-      <c r="G83" s="268"/>
+      <c r="F83" s="278"/>
+      <c r="G83" s="278"/>
       <c r="H83" s="31">
         <v>0</v>
       </c>
@@ -48721,7 +48721,7 @@
       <c r="AF84" s="270" t="s">
         <v>79</v>
       </c>
-      <c r="AG84" s="271" t="s">
+      <c r="AG84" s="276" t="s">
         <v>93</v>
       </c>
       <c r="AQ84" s="28"/>
@@ -48763,7 +48763,7 @@
       <c r="AD85" s="270"/>
       <c r="AE85" s="270"/>
       <c r="AF85" s="270"/>
-      <c r="AG85" s="271"/>
+      <c r="AG85" s="276"/>
       <c r="AQ85" s="28"/>
     </row>
     <row r="86" spans="2:43" s="103" customFormat="1">
@@ -48784,11 +48784,11 @@
       <c r="V86" s="29"/>
       <c r="W86" s="29"/>
       <c r="X86" s="29"/>
-      <c r="Y86" s="268" t="s">
+      <c r="Y86" s="278" t="s">
         <v>121</v>
       </c>
-      <c r="Z86" s="268"/>
-      <c r="AA86" s="268"/>
+      <c r="Z86" s="278"/>
+      <c r="AA86" s="278"/>
       <c r="AB86" s="30">
         <v>0</v>
       </c>
@@ -48854,7 +48854,7 @@
       <c r="AF87" s="270" t="s">
         <v>81</v>
       </c>
-      <c r="AG87" s="271" t="s">
+      <c r="AG87" s="276" t="s">
         <v>100</v>
       </c>
       <c r="AQ87" s="28"/>
@@ -48896,7 +48896,7 @@
       <c r="AD88" s="270"/>
       <c r="AE88" s="270"/>
       <c r="AF88" s="270"/>
-      <c r="AG88" s="271"/>
+      <c r="AG88" s="276"/>
       <c r="AQ88" s="28"/>
     </row>
     <row r="89" spans="2:43" s="103" customFormat="1">
@@ -48917,11 +48917,11 @@
       <c r="V89" s="29"/>
       <c r="W89" s="29"/>
       <c r="X89" s="29"/>
-      <c r="Y89" s="268" t="s">
+      <c r="Y89" s="278" t="s">
         <v>121</v>
       </c>
-      <c r="Z89" s="268"/>
-      <c r="AA89" s="268"/>
+      <c r="Z89" s="278"/>
+      <c r="AA89" s="278"/>
       <c r="AB89" s="30">
         <v>0</v>
       </c>
@@ -48987,7 +48987,7 @@
       <c r="AF90" s="270" t="s">
         <v>82</v>
       </c>
-      <c r="AG90" s="271" t="s">
+      <c r="AG90" s="276" t="s">
         <v>101</v>
       </c>
       <c r="AQ90" s="28"/>
@@ -49029,7 +49029,7 @@
       <c r="AD91" s="270"/>
       <c r="AE91" s="270"/>
       <c r="AF91" s="270"/>
-      <c r="AG91" s="271"/>
+      <c r="AG91" s="276"/>
       <c r="AQ91" s="28"/>
     </row>
     <row r="92" spans="2:43" s="103" customFormat="1">
@@ -49050,11 +49050,11 @@
       <c r="V92" s="29"/>
       <c r="W92" s="29"/>
       <c r="X92" s="29"/>
-      <c r="Y92" s="268" t="s">
+      <c r="Y92" s="278" t="s">
         <v>121</v>
       </c>
-      <c r="Z92" s="268"/>
-      <c r="AA92" s="268"/>
+      <c r="Z92" s="278"/>
+      <c r="AA92" s="278"/>
       <c r="AB92" s="103">
         <v>0</v>
       </c>
@@ -49596,6 +49596,286 @@
     </row>
   </sheetData>
   <mergeCells count="304">
+    <mergeCell ref="Y92:AA92"/>
+    <mergeCell ref="Y89:AA89"/>
+    <mergeCell ref="AC90:AC91"/>
+    <mergeCell ref="AD90:AD91"/>
+    <mergeCell ref="AE90:AE91"/>
+    <mergeCell ref="AF90:AF91"/>
+    <mergeCell ref="AG90:AG91"/>
+    <mergeCell ref="AD84:AD85"/>
+    <mergeCell ref="AE84:AE85"/>
+    <mergeCell ref="AF84:AF85"/>
+    <mergeCell ref="AG84:AG85"/>
+    <mergeCell ref="Y86:AA86"/>
+    <mergeCell ref="AC87:AC88"/>
+    <mergeCell ref="AD87:AD88"/>
+    <mergeCell ref="AE87:AE88"/>
+    <mergeCell ref="AF87:AF88"/>
+    <mergeCell ref="AG87:AG88"/>
+    <mergeCell ref="R80:R81"/>
+    <mergeCell ref="S80:S81"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="AC84:AC85"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="N80:N81"/>
+    <mergeCell ref="O80:O81"/>
+    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="Q80:Q81"/>
+    <mergeCell ref="AB76:AB81"/>
+    <mergeCell ref="AC76:AC82"/>
+    <mergeCell ref="N76:N79"/>
+    <mergeCell ref="O76:O79"/>
+    <mergeCell ref="P76:P79"/>
+    <mergeCell ref="Q76:Q79"/>
+    <mergeCell ref="R76:R79"/>
+    <mergeCell ref="S76:S79"/>
+    <mergeCell ref="AF76:AF82"/>
+    <mergeCell ref="AG76:AG82"/>
+    <mergeCell ref="X76:X81"/>
+    <mergeCell ref="Y76:Y81"/>
+    <mergeCell ref="Z76:Z81"/>
+    <mergeCell ref="AA76:AA81"/>
+    <mergeCell ref="T76:T81"/>
+    <mergeCell ref="U76:U81"/>
+    <mergeCell ref="V76:V81"/>
+    <mergeCell ref="W76:W81"/>
+    <mergeCell ref="AD76:AD82"/>
+    <mergeCell ref="AE76:AE82"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="I76:I82"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="M76:M81"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="AB68:AB73"/>
+    <mergeCell ref="AC68:AC74"/>
+    <mergeCell ref="AD68:AD74"/>
+    <mergeCell ref="AE68:AE74"/>
+    <mergeCell ref="AF68:AF74"/>
+    <mergeCell ref="AG68:AG74"/>
+    <mergeCell ref="X68:X73"/>
+    <mergeCell ref="Y68:Y73"/>
+    <mergeCell ref="Z68:Z73"/>
+    <mergeCell ref="AA68:AA73"/>
+    <mergeCell ref="T68:T73"/>
+    <mergeCell ref="U68:U73"/>
+    <mergeCell ref="V68:V73"/>
+    <mergeCell ref="W68:W73"/>
+    <mergeCell ref="N68:N71"/>
+    <mergeCell ref="O68:O71"/>
+    <mergeCell ref="P68:P71"/>
+    <mergeCell ref="Q68:Q71"/>
+    <mergeCell ref="R68:R71"/>
+    <mergeCell ref="S68:S71"/>
+    <mergeCell ref="N72:N73"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="P72:P73"/>
+    <mergeCell ref="Q72:Q73"/>
+    <mergeCell ref="R72:R73"/>
+    <mergeCell ref="S72:S73"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="I68:I74"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="M68:M73"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="N64:N65"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="AB60:AB65"/>
+    <mergeCell ref="AC60:AC66"/>
+    <mergeCell ref="AD60:AD66"/>
+    <mergeCell ref="AE60:AE66"/>
+    <mergeCell ref="AF60:AF66"/>
+    <mergeCell ref="AG60:AG66"/>
+    <mergeCell ref="X60:X65"/>
+    <mergeCell ref="Y60:Y65"/>
+    <mergeCell ref="Z60:Z65"/>
+    <mergeCell ref="AA60:AA65"/>
+    <mergeCell ref="T60:T65"/>
+    <mergeCell ref="U60:U65"/>
+    <mergeCell ref="V60:V65"/>
+    <mergeCell ref="W60:W65"/>
+    <mergeCell ref="N60:N63"/>
+    <mergeCell ref="O60:O63"/>
+    <mergeCell ref="P60:P63"/>
+    <mergeCell ref="Q60:Q63"/>
+    <mergeCell ref="R60:R63"/>
+    <mergeCell ref="S60:S63"/>
+    <mergeCell ref="R64:R65"/>
+    <mergeCell ref="S64:S65"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="I60:I66"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="M60:M65"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="AF46:AF47"/>
+    <mergeCell ref="AG46:AG47"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="AD46:AD47"/>
+    <mergeCell ref="AE46:AE47"/>
+    <mergeCell ref="AE52:AE57"/>
+    <mergeCell ref="AF52:AF57"/>
+    <mergeCell ref="AG52:AG57"/>
+    <mergeCell ref="AA52:AA57"/>
+    <mergeCell ref="AB52:AB57"/>
+    <mergeCell ref="AC52:AC57"/>
+    <mergeCell ref="AD52:AD57"/>
+    <mergeCell ref="X54:X57"/>
+    <mergeCell ref="Y54:Y57"/>
+    <mergeCell ref="Z54:Z57"/>
+    <mergeCell ref="V54:V57"/>
+    <mergeCell ref="W54:W57"/>
+    <mergeCell ref="P52:P57"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="S52:S53"/>
+    <mergeCell ref="T52:T57"/>
+    <mergeCell ref="Z46:Z47"/>
+    <mergeCell ref="AA46:AA47"/>
+    <mergeCell ref="AB46:AB47"/>
+    <mergeCell ref="AC46:AC47"/>
+    <mergeCell ref="U52:U53"/>
+    <mergeCell ref="V52:V53"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="X52:X53"/>
+    <mergeCell ref="Y52:Y53"/>
+    <mergeCell ref="Z52:Z53"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="R56:R57"/>
+    <mergeCell ref="S56:S57"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="R54:R55"/>
+    <mergeCell ref="S54:S55"/>
+    <mergeCell ref="U54:U57"/>
+    <mergeCell ref="AG40:AG43"/>
+    <mergeCell ref="W42:W43"/>
+    <mergeCell ref="X42:X43"/>
+    <mergeCell ref="Y42:Y43"/>
+    <mergeCell ref="R44:T44"/>
+    <mergeCell ref="AB40:AB43"/>
+    <mergeCell ref="AC40:AC43"/>
+    <mergeCell ref="AD40:AD43"/>
+    <mergeCell ref="AE40:AE43"/>
+    <mergeCell ref="AF40:AF43"/>
+    <mergeCell ref="V40:V43"/>
+    <mergeCell ref="W40:W41"/>
+    <mergeCell ref="X40:X41"/>
+    <mergeCell ref="Y40:Y41"/>
+    <mergeCell ref="Z40:Z43"/>
+    <mergeCell ref="AA40:AA43"/>
+    <mergeCell ref="AE34:AE35"/>
+    <mergeCell ref="AF34:AF35"/>
+    <mergeCell ref="AG34:AG35"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="Z34:Z35"/>
+    <mergeCell ref="AA34:AA35"/>
+    <mergeCell ref="AB34:AB35"/>
+    <mergeCell ref="AC34:AC35"/>
+    <mergeCell ref="AD34:AD35"/>
+    <mergeCell ref="AG29:AG32"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="Y31:Y32"/>
+    <mergeCell ref="AA29:AA32"/>
+    <mergeCell ref="AB29:AB32"/>
+    <mergeCell ref="AC29:AC32"/>
+    <mergeCell ref="AD29:AD32"/>
+    <mergeCell ref="AE29:AE32"/>
+    <mergeCell ref="AF29:AF32"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="V29:V32"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Z29:Z32"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="O22:O27"/>
+    <mergeCell ref="T22:T25"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="AE22:AE27"/>
+    <mergeCell ref="AF22:AF27"/>
+    <mergeCell ref="AG22:AG27"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="Z22:Z27"/>
+    <mergeCell ref="AA22:AA27"/>
+    <mergeCell ref="AB22:AB27"/>
+    <mergeCell ref="AC22:AC27"/>
+    <mergeCell ref="AD22:AD27"/>
+    <mergeCell ref="U22:U25"/>
+    <mergeCell ref="V22:V25"/>
+    <mergeCell ref="W22:W25"/>
+    <mergeCell ref="X22:X25"/>
+    <mergeCell ref="Y22:Y25"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="S22:S27"/>
+    <mergeCell ref="AE16:AE17"/>
+    <mergeCell ref="AF16:AF17"/>
+    <mergeCell ref="AG16:AG17"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="AC16:AC17"/>
+    <mergeCell ref="AD16:AD17"/>
+    <mergeCell ref="AG11:AG14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="AA11:AA14"/>
+    <mergeCell ref="AB11:AB14"/>
+    <mergeCell ref="AC11:AC14"/>
+    <mergeCell ref="AD11:AD14"/>
+    <mergeCell ref="AE11:AE14"/>
+    <mergeCell ref="AF11:AF14"/>
+    <mergeCell ref="Y3:Y8"/>
+    <mergeCell ref="Z3:Z8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
     <mergeCell ref="A1:AQ1"/>
     <mergeCell ref="N3:N8"/>
     <mergeCell ref="O3:O4"/>
@@ -49620,286 +49900,6 @@
     <mergeCell ref="AE3:AE8"/>
     <mergeCell ref="W3:W6"/>
     <mergeCell ref="X3:X6"/>
-    <mergeCell ref="Y3:Y8"/>
-    <mergeCell ref="Z3:Z8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="AG11:AG14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="AA11:AA14"/>
-    <mergeCell ref="AB11:AB14"/>
-    <mergeCell ref="AC11:AC14"/>
-    <mergeCell ref="AD11:AD14"/>
-    <mergeCell ref="AE11:AE14"/>
-    <mergeCell ref="AF11:AF14"/>
-    <mergeCell ref="AE16:AE17"/>
-    <mergeCell ref="AF16:AF17"/>
-    <mergeCell ref="AG16:AG17"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="AA16:AA17"/>
-    <mergeCell ref="AB16:AB17"/>
-    <mergeCell ref="AC16:AC17"/>
-    <mergeCell ref="AD16:AD17"/>
-    <mergeCell ref="AE22:AE27"/>
-    <mergeCell ref="AF22:AF27"/>
-    <mergeCell ref="AG22:AG27"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="Z22:Z27"/>
-    <mergeCell ref="AA22:AA27"/>
-    <mergeCell ref="AB22:AB27"/>
-    <mergeCell ref="AC22:AC27"/>
-    <mergeCell ref="AD22:AD27"/>
-    <mergeCell ref="U22:U25"/>
-    <mergeCell ref="V22:V25"/>
-    <mergeCell ref="W22:W25"/>
-    <mergeCell ref="X22:X25"/>
-    <mergeCell ref="Y22:Y25"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="S22:S27"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="V29:V32"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="Z29:Z32"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="O22:O27"/>
-    <mergeCell ref="T22:T25"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="AG29:AG32"/>
-    <mergeCell ref="W31:W32"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="Y31:Y32"/>
-    <mergeCell ref="AA29:AA32"/>
-    <mergeCell ref="AB29:AB32"/>
-    <mergeCell ref="AC29:AC32"/>
-    <mergeCell ref="AD29:AD32"/>
-    <mergeCell ref="AE29:AE32"/>
-    <mergeCell ref="AF29:AF32"/>
-    <mergeCell ref="AE34:AE35"/>
-    <mergeCell ref="AF34:AF35"/>
-    <mergeCell ref="AG34:AG35"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="Z34:Z35"/>
-    <mergeCell ref="AA34:AA35"/>
-    <mergeCell ref="AB34:AB35"/>
-    <mergeCell ref="AC34:AC35"/>
-    <mergeCell ref="AD34:AD35"/>
-    <mergeCell ref="AG40:AG43"/>
-    <mergeCell ref="W42:W43"/>
-    <mergeCell ref="X42:X43"/>
-    <mergeCell ref="Y42:Y43"/>
-    <mergeCell ref="R44:T44"/>
-    <mergeCell ref="AB40:AB43"/>
-    <mergeCell ref="AC40:AC43"/>
-    <mergeCell ref="AD40:AD43"/>
-    <mergeCell ref="AE40:AE43"/>
-    <mergeCell ref="AF40:AF43"/>
-    <mergeCell ref="V40:V43"/>
-    <mergeCell ref="W40:W41"/>
-    <mergeCell ref="X40:X41"/>
-    <mergeCell ref="Y40:Y41"/>
-    <mergeCell ref="Z40:Z43"/>
-    <mergeCell ref="AA40:AA43"/>
-    <mergeCell ref="P52:P57"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="R52:R53"/>
-    <mergeCell ref="S52:S53"/>
-    <mergeCell ref="T52:T57"/>
-    <mergeCell ref="Z46:Z47"/>
-    <mergeCell ref="AA46:AA47"/>
-    <mergeCell ref="AB46:AB47"/>
-    <mergeCell ref="AC46:AC47"/>
-    <mergeCell ref="U52:U53"/>
-    <mergeCell ref="V52:V53"/>
-    <mergeCell ref="W52:W53"/>
-    <mergeCell ref="X52:X53"/>
-    <mergeCell ref="Y52:Y53"/>
-    <mergeCell ref="Z52:Z53"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="R56:R57"/>
-    <mergeCell ref="S56:S57"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="R54:R55"/>
-    <mergeCell ref="S54:S55"/>
-    <mergeCell ref="U54:U57"/>
-    <mergeCell ref="AF46:AF47"/>
-    <mergeCell ref="AG46:AG47"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="AD46:AD47"/>
-    <mergeCell ref="AE46:AE47"/>
-    <mergeCell ref="AE52:AE57"/>
-    <mergeCell ref="AF52:AF57"/>
-    <mergeCell ref="AG52:AG57"/>
-    <mergeCell ref="AA52:AA57"/>
-    <mergeCell ref="AB52:AB57"/>
-    <mergeCell ref="AC52:AC57"/>
-    <mergeCell ref="AD52:AD57"/>
-    <mergeCell ref="X54:X57"/>
-    <mergeCell ref="Y54:Y57"/>
-    <mergeCell ref="Z54:Z57"/>
-    <mergeCell ref="V54:V57"/>
-    <mergeCell ref="W54:W57"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="I60:I66"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="M60:M65"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="T60:T65"/>
-    <mergeCell ref="U60:U65"/>
-    <mergeCell ref="V60:V65"/>
-    <mergeCell ref="W60:W65"/>
-    <mergeCell ref="N60:N63"/>
-    <mergeCell ref="O60:O63"/>
-    <mergeCell ref="P60:P63"/>
-    <mergeCell ref="Q60:Q63"/>
-    <mergeCell ref="R60:R63"/>
-    <mergeCell ref="S60:S63"/>
-    <mergeCell ref="R64:R65"/>
-    <mergeCell ref="S64:S65"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="AB60:AB65"/>
-    <mergeCell ref="AC60:AC66"/>
-    <mergeCell ref="AD60:AD66"/>
-    <mergeCell ref="AE60:AE66"/>
-    <mergeCell ref="AF60:AF66"/>
-    <mergeCell ref="AG60:AG66"/>
-    <mergeCell ref="X60:X65"/>
-    <mergeCell ref="Y60:Y65"/>
-    <mergeCell ref="Z60:Z65"/>
-    <mergeCell ref="AA60:AA65"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="I68:I74"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="M68:M73"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="N64:N65"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="T68:T73"/>
-    <mergeCell ref="U68:U73"/>
-    <mergeCell ref="V68:V73"/>
-    <mergeCell ref="W68:W73"/>
-    <mergeCell ref="N68:N71"/>
-    <mergeCell ref="O68:O71"/>
-    <mergeCell ref="P68:P71"/>
-    <mergeCell ref="Q68:Q71"/>
-    <mergeCell ref="R68:R71"/>
-    <mergeCell ref="S68:S71"/>
-    <mergeCell ref="N72:N73"/>
-    <mergeCell ref="O72:O73"/>
-    <mergeCell ref="P72:P73"/>
-    <mergeCell ref="Q72:Q73"/>
-    <mergeCell ref="R72:R73"/>
-    <mergeCell ref="S72:S73"/>
-    <mergeCell ref="AB68:AB73"/>
-    <mergeCell ref="AC68:AC74"/>
-    <mergeCell ref="AD68:AD74"/>
-    <mergeCell ref="AE68:AE74"/>
-    <mergeCell ref="AF68:AF74"/>
-    <mergeCell ref="AG68:AG74"/>
-    <mergeCell ref="X68:X73"/>
-    <mergeCell ref="Y68:Y73"/>
-    <mergeCell ref="Z68:Z73"/>
-    <mergeCell ref="AA68:AA73"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="I76:I82"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="L76:L77"/>
-    <mergeCell ref="M76:M81"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="AF76:AF82"/>
-    <mergeCell ref="AG76:AG82"/>
-    <mergeCell ref="X76:X81"/>
-    <mergeCell ref="Y76:Y81"/>
-    <mergeCell ref="Z76:Z81"/>
-    <mergeCell ref="AA76:AA81"/>
-    <mergeCell ref="T76:T81"/>
-    <mergeCell ref="U76:U81"/>
-    <mergeCell ref="V76:V81"/>
-    <mergeCell ref="W76:W81"/>
-    <mergeCell ref="AD76:AD82"/>
-    <mergeCell ref="AE76:AE82"/>
-    <mergeCell ref="R80:R81"/>
-    <mergeCell ref="S80:S81"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="AC84:AC85"/>
-    <mergeCell ref="K80:K81"/>
-    <mergeCell ref="L80:L81"/>
-    <mergeCell ref="N80:N81"/>
-    <mergeCell ref="O80:O81"/>
-    <mergeCell ref="P80:P81"/>
-    <mergeCell ref="Q80:Q81"/>
-    <mergeCell ref="AB76:AB81"/>
-    <mergeCell ref="AC76:AC82"/>
-    <mergeCell ref="N76:N79"/>
-    <mergeCell ref="O76:O79"/>
-    <mergeCell ref="P76:P79"/>
-    <mergeCell ref="Q76:Q79"/>
-    <mergeCell ref="R76:R79"/>
-    <mergeCell ref="S76:S79"/>
-    <mergeCell ref="Y92:AA92"/>
-    <mergeCell ref="Y89:AA89"/>
-    <mergeCell ref="AC90:AC91"/>
-    <mergeCell ref="AD90:AD91"/>
-    <mergeCell ref="AE90:AE91"/>
-    <mergeCell ref="AF90:AF91"/>
-    <mergeCell ref="AG90:AG91"/>
-    <mergeCell ref="AD84:AD85"/>
-    <mergeCell ref="AE84:AE85"/>
-    <mergeCell ref="AF84:AF85"/>
-    <mergeCell ref="AG84:AG85"/>
-    <mergeCell ref="Y86:AA86"/>
-    <mergeCell ref="AC87:AC88"/>
-    <mergeCell ref="AD87:AD88"/>
-    <mergeCell ref="AE87:AE88"/>
-    <mergeCell ref="AF87:AF88"/>
-    <mergeCell ref="AG87:AG88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -49914,8 +49914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="U1:CF76"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="V16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="AJ52" sqref="AJ52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V28" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="AN63" sqref="AN63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -49949,40 +49949,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="33:78" ht="15" customHeight="1">
-      <c r="AG1" s="282" t="s">
+      <c r="AG1" s="268" t="s">
         <v>103</v>
       </c>
-      <c r="AH1" s="282"/>
-      <c r="AI1" s="282"/>
-      <c r="AJ1" s="282"/>
-      <c r="AK1" s="282"/>
-      <c r="AL1" s="282"/>
-      <c r="AM1" s="282"/>
-      <c r="AN1" s="282"/>
-      <c r="AO1" s="282"/>
-      <c r="AP1" s="282"/>
-      <c r="AQ1" s="282"/>
-      <c r="AR1" s="282"/>
-      <c r="AS1" s="282"/>
-      <c r="AT1" s="282"/>
-      <c r="AU1" s="282"/>
-      <c r="AV1" s="282"/>
-      <c r="AW1" s="282"/>
-      <c r="AX1" s="282"/>
-      <c r="AY1" s="282"/>
-      <c r="AZ1" s="282"/>
-      <c r="BA1" s="282"/>
-      <c r="BB1" s="282"/>
-      <c r="BC1" s="282"/>
-      <c r="BD1" s="282"/>
-      <c r="BE1" s="282"/>
-      <c r="BF1" s="282"/>
-      <c r="BG1" s="282"/>
-      <c r="BH1" s="282"/>
-      <c r="BI1" s="282"/>
-      <c r="BJ1" s="282"/>
-      <c r="BK1" s="282"/>
-      <c r="BL1" s="282"/>
+      <c r="AH1" s="268"/>
+      <c r="AI1" s="268"/>
+      <c r="AJ1" s="268"/>
+      <c r="AK1" s="268"/>
+      <c r="AL1" s="268"/>
+      <c r="AM1" s="268"/>
+      <c r="AN1" s="268"/>
+      <c r="AO1" s="268"/>
+      <c r="AP1" s="268"/>
+      <c r="AQ1" s="268"/>
+      <c r="AR1" s="268"/>
+      <c r="AS1" s="268"/>
+      <c r="AT1" s="268"/>
+      <c r="AU1" s="268"/>
+      <c r="AV1" s="268"/>
+      <c r="AW1" s="268"/>
+      <c r="AX1" s="268"/>
+      <c r="AY1" s="268"/>
+      <c r="AZ1" s="268"/>
+      <c r="BA1" s="268"/>
+      <c r="BB1" s="268"/>
+      <c r="BC1" s="268"/>
+      <c r="BD1" s="268"/>
+      <c r="BE1" s="268"/>
+      <c r="BF1" s="268"/>
+      <c r="BG1" s="268"/>
+      <c r="BH1" s="268"/>
+      <c r="BI1" s="268"/>
+      <c r="BJ1" s="268"/>
+      <c r="BK1" s="268"/>
+      <c r="BL1" s="268"/>
       <c r="BM1" s="117"/>
       <c r="BN1" s="117"/>
       <c r="BO1" s="117"/>
@@ -50010,50 +50010,50 @@
       </c>
       <c r="AR3" s="29"/>
       <c r="AS3" s="29"/>
-      <c r="AT3" s="288" t="s">
+      <c r="AT3" s="283" t="s">
         <v>188</v>
       </c>
-      <c r="AU3" s="288"/>
-      <c r="AV3" s="288"/>
-      <c r="AW3" s="288"/>
-      <c r="AX3" s="289"/>
-      <c r="AY3" s="274" t="s">
+      <c r="AU3" s="283"/>
+      <c r="AV3" s="283"/>
+      <c r="AW3" s="283"/>
+      <c r="AX3" s="284"/>
+      <c r="AY3" s="271" t="s">
         <v>245</v>
       </c>
-      <c r="AZ3" s="277" t="s">
+      <c r="AZ3" s="281" t="s">
         <v>64</v>
       </c>
-      <c r="BA3" s="277" t="s">
+      <c r="BA3" s="281" t="s">
         <v>64</v>
       </c>
-      <c r="BB3" s="277" t="s">
+      <c r="BB3" s="281" t="s">
         <v>64</v>
       </c>
-      <c r="BC3" s="274" t="s">
+      <c r="BC3" s="271" t="s">
         <v>245</v>
       </c>
-      <c r="BD3" s="281" t="s">
+      <c r="BD3" s="280" t="s">
         <v>63</v>
       </c>
-      <c r="BE3" s="281" t="s">
+      <c r="BE3" s="280" t="s">
         <v>63</v>
       </c>
-      <c r="BF3" s="281" t="s">
+      <c r="BF3" s="280" t="s">
         <v>63</v>
       </c>
-      <c r="BG3" s="281" t="s">
+      <c r="BG3" s="280" t="s">
         <v>63</v>
       </c>
-      <c r="BH3" s="281" t="s">
+      <c r="BH3" s="280" t="s">
         <v>63</v>
       </c>
-      <c r="BI3" s="281" t="s">
+      <c r="BI3" s="280" t="s">
         <v>63</v>
       </c>
-      <c r="BJ3" s="281" t="s">
+      <c r="BJ3" s="280" t="s">
         <v>63</v>
       </c>
-      <c r="BK3" s="274" t="s">
+      <c r="BK3" s="271" t="s">
         <v>245</v>
       </c>
       <c r="BL3" s="145"/>
@@ -50098,28 +50098,28 @@
       </c>
       <c r="AR4" s="29"/>
       <c r="AS4" s="29"/>
-      <c r="AT4" s="288" t="s">
+      <c r="AT4" s="283" t="s">
         <v>241</v>
       </c>
-      <c r="AU4" s="288"/>
-      <c r="AV4" s="288"/>
-      <c r="AW4" s="288"/>
-      <c r="AX4" s="289" t="s">
+      <c r="AU4" s="283"/>
+      <c r="AV4" s="283"/>
+      <c r="AW4" s="283"/>
+      <c r="AX4" s="284" t="s">
         <v>231</v>
       </c>
-      <c r="AY4" s="278"/>
-      <c r="AZ4" s="286"/>
-      <c r="BA4" s="286"/>
-      <c r="BB4" s="286"/>
-      <c r="BC4" s="278"/>
-      <c r="BD4" s="287"/>
-      <c r="BE4" s="287"/>
-      <c r="BF4" s="287"/>
-      <c r="BG4" s="287"/>
-      <c r="BH4" s="287"/>
-      <c r="BI4" s="287"/>
-      <c r="BJ4" s="287"/>
-      <c r="BK4" s="278"/>
+      <c r="AY4" s="272"/>
+      <c r="AZ4" s="285"/>
+      <c r="BA4" s="285"/>
+      <c r="BB4" s="285"/>
+      <c r="BC4" s="272"/>
+      <c r="BD4" s="286"/>
+      <c r="BE4" s="286"/>
+      <c r="BF4" s="286"/>
+      <c r="BG4" s="286"/>
+      <c r="BH4" s="286"/>
+      <c r="BI4" s="286"/>
+      <c r="BJ4" s="286"/>
+      <c r="BK4" s="272"/>
       <c r="BL4" s="145"/>
       <c r="BM4" s="145"/>
       <c r="BN4" s="145"/>
@@ -50156,32 +50156,32 @@
       </c>
       <c r="AR5" s="29"/>
       <c r="AS5" s="29"/>
-      <c r="AT5" s="288" t="s">
+      <c r="AT5" s="283" t="s">
         <v>190</v>
       </c>
-      <c r="AU5" s="288"/>
-      <c r="AV5" s="288"/>
-      <c r="AW5" s="288"/>
-      <c r="AX5" s="289"/>
-      <c r="AY5" s="278"/>
-      <c r="AZ5" s="277" t="s">
+      <c r="AU5" s="283"/>
+      <c r="AV5" s="283"/>
+      <c r="AW5" s="283"/>
+      <c r="AX5" s="284"/>
+      <c r="AY5" s="272"/>
+      <c r="AZ5" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="BA5" s="277" t="s">
+      <c r="BA5" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="BB5" s="277" t="s">
+      <c r="BB5" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="BC5" s="278"/>
-      <c r="BD5" s="287"/>
-      <c r="BE5" s="287"/>
-      <c r="BF5" s="287"/>
-      <c r="BG5" s="287"/>
-      <c r="BH5" s="287"/>
-      <c r="BI5" s="287"/>
-      <c r="BJ5" s="287"/>
-      <c r="BK5" s="278"/>
+      <c r="BC5" s="272"/>
+      <c r="BD5" s="286"/>
+      <c r="BE5" s="286"/>
+      <c r="BF5" s="286"/>
+      <c r="BG5" s="286"/>
+      <c r="BH5" s="286"/>
+      <c r="BI5" s="286"/>
+      <c r="BJ5" s="286"/>
+      <c r="BK5" s="272"/>
       <c r="BL5" s="145"/>
       <c r="BM5" s="145"/>
       <c r="BN5" s="145"/>
@@ -50218,28 +50218,28 @@
       <c r="AO6" s="120"/>
       <c r="AP6" s="120"/>
       <c r="AQ6" s="120"/>
-      <c r="AT6" s="288" t="s">
+      <c r="AT6" s="283" t="s">
         <v>240</v>
       </c>
-      <c r="AU6" s="288"/>
-      <c r="AV6" s="288"/>
-      <c r="AW6" s="288"/>
-      <c r="AX6" s="289" t="s">
+      <c r="AU6" s="283"/>
+      <c r="AV6" s="283"/>
+      <c r="AW6" s="283"/>
+      <c r="AX6" s="284" t="s">
         <v>231</v>
       </c>
-      <c r="AY6" s="278"/>
-      <c r="AZ6" s="286"/>
-      <c r="BA6" s="286"/>
-      <c r="BB6" s="286"/>
-      <c r="BC6" s="278"/>
-      <c r="BD6" s="280"/>
-      <c r="BE6" s="280"/>
-      <c r="BF6" s="280"/>
-      <c r="BG6" s="280"/>
-      <c r="BH6" s="280"/>
-      <c r="BI6" s="280"/>
-      <c r="BJ6" s="280"/>
-      <c r="BK6" s="278"/>
+      <c r="AY6" s="272"/>
+      <c r="AZ6" s="285"/>
+      <c r="BA6" s="285"/>
+      <c r="BB6" s="285"/>
+      <c r="BC6" s="272"/>
+      <c r="BD6" s="279"/>
+      <c r="BE6" s="279"/>
+      <c r="BF6" s="279"/>
+      <c r="BG6" s="279"/>
+      <c r="BH6" s="279"/>
+      <c r="BI6" s="279"/>
+      <c r="BJ6" s="279"/>
+      <c r="BK6" s="272"/>
       <c r="BL6" s="146"/>
       <c r="BM6" s="146"/>
       <c r="BN6" s="146"/>
@@ -50267,10 +50267,10 @@
       <c r="AO7" s="120"/>
       <c r="AP7" s="120"/>
       <c r="AQ7" s="120"/>
-      <c r="AY7" s="278"/>
-      <c r="BC7" s="278"/>
+      <c r="AY7" s="272"/>
+      <c r="BC7" s="272"/>
       <c r="BI7" s="146"/>
-      <c r="BK7" s="278"/>
+      <c r="BK7" s="272"/>
       <c r="BL7" s="146"/>
       <c r="BM7" s="146"/>
       <c r="BN7" s="146"/>
@@ -50283,14 +50283,14 @@
       </c>
       <c r="AR8" s="29"/>
       <c r="AS8" s="29"/>
-      <c r="AT8" s="288" t="s">
+      <c r="AT8" s="283" t="s">
         <v>190</v>
       </c>
-      <c r="AU8" s="288"/>
-      <c r="AV8" s="288"/>
-      <c r="AW8" s="288"/>
-      <c r="AX8" s="289"/>
-      <c r="AY8" s="278"/>
+      <c r="AU8" s="283"/>
+      <c r="AV8" s="283"/>
+      <c r="AW8" s="283"/>
+      <c r="AX8" s="284"/>
+      <c r="AY8" s="272"/>
       <c r="AZ8" s="270" t="s">
         <v>71</v>
       </c>
@@ -50300,29 +50300,29 @@
       <c r="BB8" s="270" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="278"/>
-      <c r="BD8" s="275" t="s">
+      <c r="BC8" s="272"/>
+      <c r="BD8" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="BE8" s="275" t="s">
+      <c r="BE8" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="BF8" s="275" t="s">
+      <c r="BF8" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="BG8" s="275" t="s">
+      <c r="BG8" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="BH8" s="275" t="s">
+      <c r="BH8" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="BI8" s="281" t="s">
+      <c r="BI8" s="280" t="s">
         <v>63</v>
       </c>
-      <c r="BJ8" s="275" t="s">
+      <c r="BJ8" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="BK8" s="278"/>
+      <c r="BK8" s="272"/>
       <c r="BL8" s="145"/>
       <c r="BM8" s="145"/>
       <c r="BN8" s="145"/>
@@ -50336,28 +50336,28 @@
       </c>
       <c r="AR9" s="29"/>
       <c r="AS9" s="29"/>
-      <c r="AT9" s="288" t="s">
+      <c r="AT9" s="283" t="s">
         <v>239</v>
       </c>
-      <c r="AU9" s="288"/>
-      <c r="AV9" s="288"/>
-      <c r="AW9" s="288"/>
-      <c r="AX9" s="289" t="s">
+      <c r="AU9" s="283"/>
+      <c r="AV9" s="283"/>
+      <c r="AW9" s="283"/>
+      <c r="AX9" s="284" t="s">
         <v>231</v>
       </c>
-      <c r="AY9" s="278"/>
+      <c r="AY9" s="272"/>
       <c r="AZ9" s="270"/>
       <c r="BA9" s="270"/>
       <c r="BB9" s="270"/>
-      <c r="BC9" s="278"/>
-      <c r="BD9" s="275"/>
-      <c r="BE9" s="275"/>
-      <c r="BF9" s="275"/>
-      <c r="BG9" s="275"/>
-      <c r="BH9" s="275"/>
-      <c r="BI9" s="287"/>
-      <c r="BJ9" s="275"/>
-      <c r="BK9" s="278"/>
+      <c r="BC9" s="272"/>
+      <c r="BD9" s="274"/>
+      <c r="BE9" s="274"/>
+      <c r="BF9" s="274"/>
+      <c r="BG9" s="274"/>
+      <c r="BH9" s="274"/>
+      <c r="BI9" s="286"/>
+      <c r="BJ9" s="274"/>
+      <c r="BK9" s="272"/>
       <c r="BL9" s="145"/>
       <c r="BM9" s="145"/>
       <c r="BN9" s="145"/>
@@ -50368,14 +50368,14 @@
     <row r="10" spans="33:78">
       <c r="AR10" s="29"/>
       <c r="AS10" s="29"/>
-      <c r="AT10" s="288" t="s">
+      <c r="AT10" s="283" t="s">
         <v>189</v>
       </c>
-      <c r="AU10" s="288"/>
-      <c r="AV10" s="288"/>
-      <c r="AW10" s="288"/>
-      <c r="AX10" s="289"/>
-      <c r="AY10" s="278"/>
+      <c r="AU10" s="283"/>
+      <c r="AV10" s="283"/>
+      <c r="AW10" s="283"/>
+      <c r="AX10" s="284"/>
+      <c r="AY10" s="272"/>
       <c r="AZ10" s="270" t="s">
         <v>79</v>
       </c>
@@ -50385,15 +50385,15 @@
       <c r="BB10" s="270" t="s">
         <v>79</v>
       </c>
-      <c r="BC10" s="278"/>
-      <c r="BD10" s="275"/>
-      <c r="BE10" s="275"/>
-      <c r="BF10" s="275"/>
-      <c r="BG10" s="275"/>
-      <c r="BH10" s="275"/>
-      <c r="BI10" s="287"/>
-      <c r="BJ10" s="275"/>
-      <c r="BK10" s="278"/>
+      <c r="BC10" s="272"/>
+      <c r="BD10" s="274"/>
+      <c r="BE10" s="274"/>
+      <c r="BF10" s="274"/>
+      <c r="BG10" s="274"/>
+      <c r="BH10" s="274"/>
+      <c r="BI10" s="286"/>
+      <c r="BJ10" s="274"/>
+      <c r="BK10" s="272"/>
       <c r="BL10" s="145"/>
       <c r="BM10" s="145"/>
       <c r="BN10" s="145"/>
@@ -50413,28 +50413,28 @@
       <c r="AO11" s="120"/>
       <c r="AP11" s="120"/>
       <c r="AQ11" s="120"/>
-      <c r="AT11" s="288" t="s">
+      <c r="AT11" s="283" t="s">
         <v>241</v>
       </c>
-      <c r="AU11" s="288"/>
-      <c r="AV11" s="288"/>
-      <c r="AW11" s="288"/>
-      <c r="AX11" s="289" t="s">
+      <c r="AU11" s="283"/>
+      <c r="AV11" s="283"/>
+      <c r="AW11" s="283"/>
+      <c r="AX11" s="284" t="s">
         <v>231</v>
       </c>
-      <c r="AY11" s="278"/>
+      <c r="AY11" s="272"/>
       <c r="AZ11" s="270"/>
       <c r="BA11" s="270"/>
       <c r="BB11" s="270"/>
-      <c r="BC11" s="278"/>
-      <c r="BD11" s="275"/>
-      <c r="BE11" s="275"/>
-      <c r="BF11" s="275"/>
-      <c r="BG11" s="275"/>
-      <c r="BH11" s="275"/>
-      <c r="BI11" s="280"/>
-      <c r="BJ11" s="275"/>
-      <c r="BK11" s="278"/>
+      <c r="BC11" s="272"/>
+      <c r="BD11" s="274"/>
+      <c r="BE11" s="274"/>
+      <c r="BF11" s="274"/>
+      <c r="BG11" s="274"/>
+      <c r="BH11" s="274"/>
+      <c r="BI11" s="279"/>
+      <c r="BJ11" s="274"/>
+      <c r="BK11" s="272"/>
       <c r="BL11" s="146"/>
       <c r="BM11" s="146"/>
       <c r="BN11" s="146"/>
@@ -50449,10 +50449,10 @@
       <c r="AO12" s="120"/>
       <c r="AP12" s="120"/>
       <c r="AQ12" s="120"/>
-      <c r="AY12" s="278"/>
-      <c r="BC12" s="278"/>
+      <c r="AY12" s="272"/>
+      <c r="BC12" s="272"/>
       <c r="BI12" s="146"/>
-      <c r="BK12" s="278"/>
+      <c r="BK12" s="272"/>
       <c r="BL12" s="146"/>
       <c r="BM12" s="146"/>
       <c r="BN12" s="146"/>
@@ -50463,14 +50463,14 @@
       <c r="AG13" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="AT13" s="288" t="s">
+      <c r="AT13" s="283" t="s">
         <v>189</v>
       </c>
-      <c r="AU13" s="288"/>
-      <c r="AV13" s="288"/>
-      <c r="AW13" s="288"/>
-      <c r="AX13" s="289"/>
-      <c r="AY13" s="278"/>
+      <c r="AU13" s="283"/>
+      <c r="AV13" s="283"/>
+      <c r="AW13" s="283"/>
+      <c r="AX13" s="284"/>
+      <c r="AY13" s="272"/>
       <c r="AZ13" s="270" t="s">
         <v>81</v>
       </c>
@@ -50480,29 +50480,29 @@
       <c r="BB13" s="270" t="s">
         <v>81</v>
       </c>
-      <c r="BC13" s="278"/>
-      <c r="BD13" s="275" t="s">
+      <c r="BC13" s="272"/>
+      <c r="BD13" s="274" t="s">
         <v>83</v>
       </c>
-      <c r="BE13" s="275" t="s">
+      <c r="BE13" s="274" t="s">
         <v>83</v>
       </c>
-      <c r="BF13" s="275" t="s">
+      <c r="BF13" s="274" t="s">
         <v>83</v>
       </c>
-      <c r="BG13" s="275" t="s">
+      <c r="BG13" s="274" t="s">
         <v>83</v>
       </c>
-      <c r="BH13" s="275" t="s">
+      <c r="BH13" s="274" t="s">
         <v>83</v>
       </c>
-      <c r="BI13" s="281" t="s">
+      <c r="BI13" s="280" t="s">
         <v>63</v>
       </c>
-      <c r="BJ13" s="275" t="s">
+      <c r="BJ13" s="274" t="s">
         <v>83</v>
       </c>
-      <c r="BK13" s="278"/>
+      <c r="BK13" s="272"/>
       <c r="BL13" s="145"/>
       <c r="BM13" s="145"/>
       <c r="BN13" s="145"/>
@@ -50514,28 +50514,28 @@
       <c r="AG14" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="AT14" s="288" t="s">
+      <c r="AT14" s="283" t="s">
         <v>240</v>
       </c>
-      <c r="AU14" s="288"/>
-      <c r="AV14" s="288"/>
-      <c r="AW14" s="288"/>
-      <c r="AX14" s="289" t="s">
+      <c r="AU14" s="283"/>
+      <c r="AV14" s="283"/>
+      <c r="AW14" s="283"/>
+      <c r="AX14" s="284" t="s">
         <v>231</v>
       </c>
-      <c r="AY14" s="278"/>
+      <c r="AY14" s="272"/>
       <c r="AZ14" s="270"/>
       <c r="BA14" s="270"/>
       <c r="BB14" s="270"/>
-      <c r="BC14" s="278"/>
-      <c r="BD14" s="275"/>
-      <c r="BE14" s="275"/>
-      <c r="BF14" s="275"/>
-      <c r="BG14" s="275"/>
-      <c r="BH14" s="275"/>
-      <c r="BI14" s="287"/>
-      <c r="BJ14" s="275"/>
-      <c r="BK14" s="278"/>
+      <c r="BC14" s="272"/>
+      <c r="BD14" s="274"/>
+      <c r="BE14" s="274"/>
+      <c r="BF14" s="274"/>
+      <c r="BG14" s="274"/>
+      <c r="BH14" s="274"/>
+      <c r="BI14" s="286"/>
+      <c r="BJ14" s="274"/>
+      <c r="BK14" s="272"/>
       <c r="BL14" s="145"/>
       <c r="BM14" s="145"/>
       <c r="BN14" s="145"/>
@@ -50553,14 +50553,14 @@
       <c r="AL15" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="AT15" s="288" t="s">
+      <c r="AT15" s="283" t="s">
         <v>188</v>
       </c>
-      <c r="AU15" s="288"/>
-      <c r="AV15" s="288"/>
-      <c r="AW15" s="288"/>
-      <c r="AX15" s="289"/>
-      <c r="AY15" s="278"/>
+      <c r="AU15" s="283"/>
+      <c r="AV15" s="283"/>
+      <c r="AW15" s="283"/>
+      <c r="AX15" s="284"/>
+      <c r="AY15" s="272"/>
       <c r="AZ15" s="270" t="s">
         <v>82</v>
       </c>
@@ -50570,15 +50570,15 @@
       <c r="BB15" s="270" t="s">
         <v>82</v>
       </c>
-      <c r="BC15" s="278"/>
-      <c r="BD15" s="275"/>
-      <c r="BE15" s="275"/>
-      <c r="BF15" s="275"/>
-      <c r="BG15" s="275"/>
-      <c r="BH15" s="275"/>
-      <c r="BI15" s="287"/>
-      <c r="BJ15" s="275"/>
-      <c r="BK15" s="278"/>
+      <c r="BC15" s="272"/>
+      <c r="BD15" s="274"/>
+      <c r="BE15" s="274"/>
+      <c r="BF15" s="274"/>
+      <c r="BG15" s="274"/>
+      <c r="BH15" s="274"/>
+      <c r="BI15" s="286"/>
+      <c r="BJ15" s="274"/>
+      <c r="BK15" s="272"/>
       <c r="BL15" s="145"/>
       <c r="BM15" s="145"/>
       <c r="BN15" s="145"/>
@@ -50587,28 +50587,28 @@
       <c r="BU15" s="28"/>
     </row>
     <row r="16" spans="33:78">
-      <c r="AT16" s="288" t="s">
+      <c r="AT16" s="283" t="s">
         <v>239</v>
       </c>
-      <c r="AU16" s="288"/>
-      <c r="AV16" s="288"/>
-      <c r="AW16" s="288"/>
-      <c r="AX16" s="289" t="s">
+      <c r="AU16" s="283"/>
+      <c r="AV16" s="283"/>
+      <c r="AW16" s="283"/>
+      <c r="AX16" s="284" t="s">
         <v>231</v>
       </c>
-      <c r="AY16" s="279"/>
+      <c r="AY16" s="273"/>
       <c r="AZ16" s="270"/>
       <c r="BA16" s="270"/>
       <c r="BB16" s="270"/>
-      <c r="BC16" s="279"/>
-      <c r="BD16" s="275"/>
-      <c r="BE16" s="275"/>
-      <c r="BF16" s="275"/>
-      <c r="BG16" s="275"/>
-      <c r="BH16" s="275"/>
-      <c r="BI16" s="280"/>
-      <c r="BJ16" s="275"/>
-      <c r="BK16" s="279"/>
+      <c r="BC16" s="273"/>
+      <c r="BD16" s="274"/>
+      <c r="BE16" s="274"/>
+      <c r="BF16" s="274"/>
+      <c r="BG16" s="274"/>
+      <c r="BH16" s="274"/>
+      <c r="BI16" s="279"/>
+      <c r="BJ16" s="274"/>
+      <c r="BK16" s="273"/>
       <c r="BL16" s="145"/>
       <c r="BM16" s="145"/>
       <c r="BN16" s="145"/>
@@ -50629,11 +50629,11 @@
       <c r="AT17" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="AU17" s="268" t="s">
+      <c r="AU17" s="278" t="s">
         <v>121</v>
       </c>
-      <c r="AV17" s="268"/>
-      <c r="AW17" s="268"/>
+      <c r="AV17" s="278"/>
+      <c r="AW17" s="278"/>
       <c r="AX17" s="132">
         <v>0</v>
       </c>
@@ -50744,38 +50744,38 @@
       <c r="AU19" s="29"/>
       <c r="AV19" s="29"/>
       <c r="AW19" s="29"/>
-      <c r="AX19" s="288" t="s">
+      <c r="AX19" s="283" t="s">
         <v>189</v>
       </c>
-      <c r="AY19" s="288"/>
-      <c r="AZ19" s="288"/>
-      <c r="BA19" s="288"/>
-      <c r="BB19" s="289"/>
-      <c r="BC19" s="274" t="s">
+      <c r="AY19" s="283"/>
+      <c r="AZ19" s="283"/>
+      <c r="BA19" s="283"/>
+      <c r="BB19" s="284"/>
+      <c r="BC19" s="271" t="s">
         <v>245</v>
       </c>
-      <c r="BD19" s="281" t="s">
+      <c r="BD19" s="280" t="s">
         <v>63</v>
       </c>
-      <c r="BE19" s="281" t="s">
+      <c r="BE19" s="280" t="s">
         <v>63</v>
       </c>
-      <c r="BF19" s="281" t="s">
+      <c r="BF19" s="280" t="s">
         <v>63</v>
       </c>
-      <c r="BG19" s="281" t="s">
+      <c r="BG19" s="280" t="s">
         <v>63</v>
       </c>
-      <c r="BH19" s="281" t="s">
+      <c r="BH19" s="280" t="s">
         <v>63</v>
       </c>
-      <c r="BI19" s="281" t="s">
+      <c r="BI19" s="280" t="s">
         <v>63</v>
       </c>
-      <c r="BJ19" s="281" t="s">
+      <c r="BJ19" s="280" t="s">
         <v>63</v>
       </c>
-      <c r="BK19" s="274" t="s">
+      <c r="BK19" s="271" t="s">
         <v>245</v>
       </c>
       <c r="BL19" s="145"/>
@@ -50817,24 +50817,24 @@
         <v>162</v>
       </c>
       <c r="AW20" s="29"/>
-      <c r="AX20" s="288" t="s">
+      <c r="AX20" s="283" t="s">
         <v>239</v>
       </c>
-      <c r="AY20" s="288"/>
-      <c r="AZ20" s="288"/>
-      <c r="BA20" s="288"/>
-      <c r="BB20" s="289" t="s">
+      <c r="AY20" s="283"/>
+      <c r="AZ20" s="283"/>
+      <c r="BA20" s="283"/>
+      <c r="BB20" s="284" t="s">
         <v>231</v>
       </c>
-      <c r="BC20" s="278"/>
-      <c r="BD20" s="280"/>
-      <c r="BE20" s="280"/>
-      <c r="BF20" s="280"/>
-      <c r="BG20" s="280"/>
-      <c r="BH20" s="280"/>
-      <c r="BI20" s="280"/>
-      <c r="BJ20" s="280"/>
-      <c r="BK20" s="278"/>
+      <c r="BC20" s="272"/>
+      <c r="BD20" s="279"/>
+      <c r="BE20" s="279"/>
+      <c r="BF20" s="279"/>
+      <c r="BG20" s="279"/>
+      <c r="BH20" s="279"/>
+      <c r="BI20" s="279"/>
+      <c r="BJ20" s="279"/>
+      <c r="BK20" s="272"/>
       <c r="BL20" s="145"/>
       <c r="BM20" s="145"/>
       <c r="BN20" s="145"/>
@@ -50860,7 +50860,7 @@
       <c r="AZ21" s="29"/>
       <c r="BA21" s="29"/>
       <c r="BB21" s="29"/>
-      <c r="BC21" s="278"/>
+      <c r="BC21" s="272"/>
       <c r="BD21" s="32"/>
       <c r="BE21" s="32"/>
       <c r="BF21" s="32" t="s">
@@ -50870,7 +50870,7 @@
       <c r="BH21" s="32"/>
       <c r="BI21" s="32"/>
       <c r="BJ21" s="32"/>
-      <c r="BK21" s="278"/>
+      <c r="BK21" s="272"/>
       <c r="BL21" s="146"/>
       <c r="BM21" s="145"/>
       <c r="BN21" s="145"/>
@@ -50902,36 +50902,36 @@
       <c r="AU22" s="29"/>
       <c r="AV22" s="29"/>
       <c r="AW22" s="29"/>
-      <c r="AX22" s="288" t="s">
+      <c r="AX22" s="283" t="s">
         <v>188</v>
       </c>
-      <c r="AY22" s="288"/>
-      <c r="AZ22" s="288"/>
-      <c r="BA22" s="288"/>
-      <c r="BB22" s="289"/>
-      <c r="BC22" s="278"/>
-      <c r="BD22" s="281" t="s">
+      <c r="AY22" s="283"/>
+      <c r="AZ22" s="283"/>
+      <c r="BA22" s="283"/>
+      <c r="BB22" s="284"/>
+      <c r="BC22" s="272"/>
+      <c r="BD22" s="280" t="s">
         <v>73</v>
       </c>
-      <c r="BE22" s="281" t="s">
+      <c r="BE22" s="280" t="s">
         <v>73</v>
       </c>
-      <c r="BF22" s="281" t="s">
+      <c r="BF22" s="280" t="s">
         <v>73</v>
       </c>
-      <c r="BG22" s="281" t="s">
+      <c r="BG22" s="280" t="s">
         <v>73</v>
       </c>
-      <c r="BH22" s="281" t="s">
+      <c r="BH22" s="280" t="s">
         <v>73</v>
       </c>
-      <c r="BI22" s="281" t="s">
+      <c r="BI22" s="280" t="s">
         <v>63</v>
       </c>
-      <c r="BJ22" s="281" t="s">
+      <c r="BJ22" s="280" t="s">
         <v>73</v>
       </c>
-      <c r="BK22" s="278"/>
+      <c r="BK22" s="272"/>
       <c r="BL22" s="145"/>
       <c r="BM22" s="145"/>
       <c r="BN22" s="145"/>
@@ -50952,24 +50952,24 @@
       <c r="AU23" s="29"/>
       <c r="AV23" s="29"/>
       <c r="AW23" s="29"/>
-      <c r="AX23" s="288" t="s">
+      <c r="AX23" s="283" t="s">
         <v>240</v>
       </c>
-      <c r="AY23" s="288"/>
-      <c r="AZ23" s="288"/>
-      <c r="BA23" s="288"/>
-      <c r="BB23" s="289" t="s">
+      <c r="AY23" s="283"/>
+      <c r="AZ23" s="283"/>
+      <c r="BA23" s="283"/>
+      <c r="BB23" s="284" t="s">
         <v>231</v>
       </c>
-      <c r="BC23" s="278"/>
-      <c r="BD23" s="280"/>
-      <c r="BE23" s="280"/>
-      <c r="BF23" s="280"/>
-      <c r="BG23" s="280"/>
-      <c r="BH23" s="280"/>
-      <c r="BI23" s="280"/>
-      <c r="BJ23" s="280"/>
-      <c r="BK23" s="278"/>
+      <c r="BC23" s="272"/>
+      <c r="BD23" s="279"/>
+      <c r="BE23" s="279"/>
+      <c r="BF23" s="279"/>
+      <c r="BG23" s="279"/>
+      <c r="BH23" s="279"/>
+      <c r="BI23" s="279"/>
+      <c r="BJ23" s="279"/>
+      <c r="BK23" s="272"/>
       <c r="BL23" s="145"/>
       <c r="BM23" s="145"/>
       <c r="BN23" s="145"/>
@@ -50983,7 +50983,7 @@
       <c r="AZ24" s="122"/>
       <c r="BA24" s="29"/>
       <c r="BB24" s="29"/>
-      <c r="BC24" s="278"/>
+      <c r="BC24" s="272"/>
       <c r="BD24" s="32"/>
       <c r="BE24" s="32"/>
       <c r="BF24" s="32"/>
@@ -50991,7 +50991,7 @@
       <c r="BH24" s="32"/>
       <c r="BI24" s="32"/>
       <c r="BJ24" s="32"/>
-      <c r="BK24" s="278"/>
+      <c r="BK24" s="272"/>
       <c r="BL24" s="145"/>
       <c r="BM24" s="145"/>
       <c r="BN24" s="145" t="s">
@@ -51021,36 +51021,36 @@
         <v>0</v>
       </c>
       <c r="AU25" s="29"/>
-      <c r="AX25" s="288" t="s">
+      <c r="AX25" s="283" t="s">
         <v>190</v>
       </c>
-      <c r="AY25" s="288"/>
-      <c r="AZ25" s="288"/>
-      <c r="BA25" s="288"/>
-      <c r="BB25" s="289"/>
-      <c r="BC25" s="278"/>
-      <c r="BD25" s="280" t="s">
+      <c r="AY25" s="283"/>
+      <c r="AZ25" s="283"/>
+      <c r="BA25" s="283"/>
+      <c r="BB25" s="284"/>
+      <c r="BC25" s="272"/>
+      <c r="BD25" s="279" t="s">
         <v>83</v>
       </c>
-      <c r="BE25" s="280" t="s">
+      <c r="BE25" s="279" t="s">
         <v>83</v>
       </c>
-      <c r="BF25" s="280" t="s">
+      <c r="BF25" s="279" t="s">
         <v>83</v>
       </c>
-      <c r="BG25" s="280" t="s">
+      <c r="BG25" s="279" t="s">
         <v>83</v>
       </c>
-      <c r="BH25" s="280" t="s">
+      <c r="BH25" s="279" t="s">
         <v>83</v>
       </c>
-      <c r="BI25" s="281" t="s">
+      <c r="BI25" s="280" t="s">
         <v>63</v>
       </c>
-      <c r="BJ25" s="280" t="s">
+      <c r="BJ25" s="279" t="s">
         <v>83</v>
       </c>
-      <c r="BK25" s="278"/>
+      <c r="BK25" s="272"/>
       <c r="BL25" s="145"/>
       <c r="BM25" s="145"/>
       <c r="BN25" s="145"/>
@@ -51069,24 +51069,24 @@
         <v>0</v>
       </c>
       <c r="AU26" s="29"/>
-      <c r="AX26" s="288" t="s">
+      <c r="AX26" s="283" t="s">
         <v>241</v>
       </c>
-      <c r="AY26" s="288"/>
-      <c r="AZ26" s="288"/>
-      <c r="BA26" s="288"/>
-      <c r="BB26" s="289" t="s">
+      <c r="AY26" s="283"/>
+      <c r="AZ26" s="283"/>
+      <c r="BA26" s="283"/>
+      <c r="BB26" s="284" t="s">
         <v>231</v>
       </c>
-      <c r="BC26" s="279"/>
-      <c r="BD26" s="281"/>
-      <c r="BE26" s="281"/>
-      <c r="BF26" s="281"/>
-      <c r="BG26" s="281"/>
-      <c r="BH26" s="281"/>
-      <c r="BI26" s="280"/>
-      <c r="BJ26" s="281"/>
-      <c r="BK26" s="279"/>
+      <c r="BC26" s="273"/>
+      <c r="BD26" s="280"/>
+      <c r="BE26" s="280"/>
+      <c r="BF26" s="280"/>
+      <c r="BG26" s="280"/>
+      <c r="BH26" s="280"/>
+      <c r="BI26" s="279"/>
+      <c r="BJ26" s="280"/>
+      <c r="BK26" s="273"/>
       <c r="BL26" s="145"/>
       <c r="BM26" s="145"/>
       <c r="BN26" s="145"/>
@@ -51117,11 +51117,11 @@
       <c r="AX27" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="AY27" s="268" t="s">
+      <c r="AY27" s="278" t="s">
         <v>121</v>
       </c>
-      <c r="AZ27" s="268"/>
-      <c r="BA27" s="268"/>
+      <c r="AZ27" s="278"/>
+      <c r="BA27" s="278"/>
       <c r="BB27" s="132">
         <v>0</v>
       </c>
@@ -51218,14 +51218,14 @@
       <c r="AG30" s="139"/>
       <c r="AH30" s="139"/>
       <c r="AI30" s="139"/>
-      <c r="AJ30" s="288" t="s">
+      <c r="AJ30" s="283" t="s">
         <v>189</v>
       </c>
-      <c r="AK30" s="288"/>
-      <c r="AL30" s="288"/>
-      <c r="AM30" s="288"/>
-      <c r="AN30" s="289"/>
-      <c r="AO30" s="274" t="s">
+      <c r="AK30" s="283"/>
+      <c r="AL30" s="283"/>
+      <c r="AM30" s="283"/>
+      <c r="AN30" s="284"/>
+      <c r="AO30" s="271" t="s">
         <v>245</v>
       </c>
       <c r="AP30" s="121" t="s">
@@ -51303,14 +51303,14 @@
       <c r="AG31" s="139"/>
       <c r="AH31" s="139"/>
       <c r="AI31" s="139"/>
-      <c r="AJ31" s="288" t="s">
+      <c r="AJ31" s="283" t="s">
         <v>188</v>
       </c>
-      <c r="AK31" s="288"/>
-      <c r="AL31" s="288"/>
-      <c r="AM31" s="288"/>
-      <c r="AN31" s="289"/>
-      <c r="AO31" s="278"/>
+      <c r="AK31" s="283"/>
+      <c r="AL31" s="283"/>
+      <c r="AM31" s="283"/>
+      <c r="AN31" s="284"/>
+      <c r="AO31" s="272"/>
       <c r="AP31" s="121" t="s">
         <v>237</v>
       </c>
@@ -51397,14 +51397,14 @@
       <c r="AG32" s="139"/>
       <c r="AH32" s="139"/>
       <c r="AI32" s="139"/>
-      <c r="AJ32" s="288" t="s">
+      <c r="AJ32" s="283" t="s">
         <v>190</v>
       </c>
-      <c r="AK32" s="288"/>
-      <c r="AL32" s="288"/>
-      <c r="AM32" s="288"/>
-      <c r="AN32" s="289"/>
-      <c r="AO32" s="278"/>
+      <c r="AK32" s="283"/>
+      <c r="AL32" s="283"/>
+      <c r="AM32" s="283"/>
+      <c r="AN32" s="284"/>
+      <c r="AO32" s="272"/>
       <c r="AP32" s="121" t="s">
         <v>238</v>
       </c>
@@ -51500,14 +51500,14 @@
       <c r="AG33" s="133"/>
       <c r="AH33" s="133"/>
       <c r="AI33" s="133"/>
-      <c r="AJ33" s="288" t="s">
+      <c r="AJ33" s="283" t="s">
         <v>189</v>
       </c>
-      <c r="AK33" s="288"/>
-      <c r="AL33" s="288"/>
-      <c r="AM33" s="288"/>
-      <c r="AN33" s="289"/>
-      <c r="AO33" s="278"/>
+      <c r="AK33" s="283"/>
+      <c r="AL33" s="283"/>
+      <c r="AM33" s="283"/>
+      <c r="AN33" s="284"/>
+      <c r="AO33" s="272"/>
       <c r="AP33" s="270" t="s">
         <v>64</v>
       </c>
@@ -51517,55 +51517,55 @@
       <c r="AR33" s="270" t="s">
         <v>64</v>
       </c>
-      <c r="AS33" s="274" t="s">
+      <c r="AS33" s="271" t="s">
         <v>245</v>
       </c>
-      <c r="AT33" s="275" t="s">
+      <c r="AT33" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AU33" s="275" t="s">
+      <c r="AU33" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AV33" s="275" t="s">
+      <c r="AV33" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AW33" s="275" t="s">
+      <c r="AW33" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AX33" s="275" t="s">
+      <c r="AX33" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AY33" s="275" t="s">
+      <c r="AY33" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AZ33" s="275" t="s">
+      <c r="AZ33" s="274" t="s">
         <v>63</v>
       </c>
       <c r="BA33" s="269" t="s">
         <v>245</v>
       </c>
-      <c r="BB33" s="275" t="s">
+      <c r="BB33" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="BC33" s="275" t="s">
+      <c r="BC33" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="BD33" s="275" t="s">
+      <c r="BD33" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="BE33" s="275" t="s">
+      <c r="BE33" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="BF33" s="275" t="s">
+      <c r="BF33" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="BG33" s="275" t="s">
+      <c r="BG33" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="BH33" s="275" t="s">
+      <c r="BH33" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="BI33" s="290" t="s">
+      <c r="BI33" s="287" t="s">
         <v>66</v>
       </c>
       <c r="BJ33" s="140" t="s">
@@ -51605,49 +51605,49 @@
       <c r="AG34" s="133"/>
       <c r="AH34" s="133"/>
       <c r="AI34" s="133"/>
-      <c r="AJ34" s="288" t="s">
+      <c r="AJ34" s="283" t="s">
         <v>239</v>
       </c>
-      <c r="AK34" s="288"/>
-      <c r="AL34" s="288"/>
-      <c r="AM34" s="288"/>
-      <c r="AN34" s="289" t="s">
+      <c r="AK34" s="283"/>
+      <c r="AL34" s="283"/>
+      <c r="AM34" s="283"/>
+      <c r="AN34" s="284" t="s">
         <v>231</v>
       </c>
-      <c r="AO34" s="278"/>
+      <c r="AO34" s="272"/>
       <c r="AP34" s="270"/>
       <c r="AQ34" s="270"/>
       <c r="AR34" s="270"/>
-      <c r="AS34" s="278"/>
-      <c r="AT34" s="275"/>
-      <c r="AU34" s="275"/>
-      <c r="AV34" s="275"/>
-      <c r="AW34" s="275"/>
-      <c r="AX34" s="275"/>
-      <c r="AY34" s="275"/>
-      <c r="AZ34" s="275"/>
+      <c r="AS34" s="272"/>
+      <c r="AT34" s="274"/>
+      <c r="AU34" s="274"/>
+      <c r="AV34" s="274"/>
+      <c r="AW34" s="274"/>
+      <c r="AX34" s="274"/>
+      <c r="AY34" s="274"/>
+      <c r="AZ34" s="274"/>
       <c r="BA34" s="269"/>
-      <c r="BB34" s="275"/>
-      <c r="BC34" s="275"/>
-      <c r="BD34" s="275"/>
-      <c r="BE34" s="275"/>
-      <c r="BF34" s="275"/>
-      <c r="BG34" s="275"/>
-      <c r="BH34" s="275"/>
-      <c r="BI34" s="290"/>
+      <c r="BB34" s="274"/>
+      <c r="BC34" s="274"/>
+      <c r="BD34" s="274"/>
+      <c r="BE34" s="274"/>
+      <c r="BF34" s="274"/>
+      <c r="BG34" s="274"/>
+      <c r="BH34" s="274"/>
+      <c r="BI34" s="287"/>
       <c r="BJ34" s="269" t="s">
         <v>245</v>
       </c>
-      <c r="BK34" s="283" t="s">
+      <c r="BK34" s="288" t="s">
         <v>246</v>
       </c>
-      <c r="BL34" s="283" t="s">
+      <c r="BL34" s="288" t="s">
         <v>246</v>
       </c>
-      <c r="BM34" s="283" t="s">
+      <c r="BM34" s="288" t="s">
         <v>246</v>
       </c>
-      <c r="BN34" s="283" t="s">
+      <c r="BN34" s="288" t="s">
         <v>246</v>
       </c>
       <c r="BO34" s="269" t="s">
@@ -51678,16 +51678,16 @@
       <c r="AG35" s="139"/>
       <c r="AH35" s="139"/>
       <c r="AI35" s="139"/>
-      <c r="AJ35" s="288" t="s">
+      <c r="AJ35" s="283" t="s">
         <v>188</v>
       </c>
-      <c r="AK35" s="288"/>
-      <c r="AL35" s="288"/>
-      <c r="AM35" s="288"/>
-      <c r="AN35" s="289" t="s">
+      <c r="AK35" s="283"/>
+      <c r="AL35" s="283"/>
+      <c r="AM35" s="283"/>
+      <c r="AN35" s="284" t="s">
         <v>232</v>
       </c>
-      <c r="AO35" s="278"/>
+      <c r="AO35" s="272"/>
       <c r="AP35" s="270" t="s">
         <v>65</v>
       </c>
@@ -51697,28 +51697,28 @@
       <c r="AR35" s="270" t="s">
         <v>65</v>
       </c>
-      <c r="AS35" s="278"/>
-      <c r="AT35" s="275"/>
-      <c r="AU35" s="275"/>
-      <c r="AV35" s="275"/>
-      <c r="AW35" s="275"/>
-      <c r="AX35" s="275"/>
-      <c r="AY35" s="275"/>
-      <c r="AZ35" s="275"/>
+      <c r="AS35" s="272"/>
+      <c r="AT35" s="274"/>
+      <c r="AU35" s="274"/>
+      <c r="AV35" s="274"/>
+      <c r="AW35" s="274"/>
+      <c r="AX35" s="274"/>
+      <c r="AY35" s="274"/>
+      <c r="AZ35" s="274"/>
       <c r="BA35" s="269"/>
-      <c r="BB35" s="275"/>
-      <c r="BC35" s="275"/>
-      <c r="BD35" s="275"/>
-      <c r="BE35" s="275"/>
-      <c r="BF35" s="275"/>
-      <c r="BG35" s="275"/>
-      <c r="BH35" s="275"/>
-      <c r="BI35" s="276"/>
+      <c r="BB35" s="274"/>
+      <c r="BC35" s="274"/>
+      <c r="BD35" s="274"/>
+      <c r="BE35" s="274"/>
+      <c r="BF35" s="274"/>
+      <c r="BG35" s="274"/>
+      <c r="BH35" s="274"/>
+      <c r="BI35" s="275"/>
       <c r="BJ35" s="269"/>
-      <c r="BK35" s="284"/>
-      <c r="BL35" s="284"/>
-      <c r="BM35" s="284"/>
-      <c r="BN35" s="284"/>
+      <c r="BK35" s="289"/>
+      <c r="BL35" s="289"/>
+      <c r="BM35" s="289"/>
+      <c r="BN35" s="289"/>
       <c r="BO35" s="269"/>
       <c r="BP35" s="138"/>
       <c r="BW35" s="145"/>
@@ -51742,16 +51742,16 @@
       <c r="AG36" s="139"/>
       <c r="AH36" s="139"/>
       <c r="AI36" s="139"/>
-      <c r="AJ36" s="288" t="s">
+      <c r="AJ36" s="283" t="s">
         <v>240</v>
       </c>
-      <c r="AK36" s="288"/>
-      <c r="AL36" s="288"/>
-      <c r="AM36" s="288"/>
-      <c r="AN36" s="289" t="s">
+      <c r="AK36" s="283"/>
+      <c r="AL36" s="283"/>
+      <c r="AM36" s="283"/>
+      <c r="AN36" s="284" t="s">
         <v>233</v>
       </c>
-      <c r="AO36" s="278"/>
+      <c r="AO36" s="272"/>
       <c r="AP36" s="270" t="s">
         <v>79</v>
       </c>
@@ -51761,28 +51761,28 @@
       <c r="AR36" s="270" t="s">
         <v>79</v>
       </c>
-      <c r="AS36" s="278"/>
-      <c r="AT36" s="275"/>
-      <c r="AU36" s="275"/>
-      <c r="AV36" s="275"/>
-      <c r="AW36" s="275"/>
-      <c r="AX36" s="275"/>
-      <c r="AY36" s="275"/>
-      <c r="AZ36" s="275"/>
+      <c r="AS36" s="272"/>
+      <c r="AT36" s="274"/>
+      <c r="AU36" s="274"/>
+      <c r="AV36" s="274"/>
+      <c r="AW36" s="274"/>
+      <c r="AX36" s="274"/>
+      <c r="AY36" s="274"/>
+      <c r="AZ36" s="274"/>
       <c r="BA36" s="269"/>
-      <c r="BB36" s="275"/>
-      <c r="BC36" s="275"/>
-      <c r="BD36" s="275"/>
-      <c r="BE36" s="275"/>
-      <c r="BF36" s="275"/>
-      <c r="BG36" s="275"/>
-      <c r="BH36" s="275"/>
-      <c r="BI36" s="276"/>
+      <c r="BB36" s="274"/>
+      <c r="BC36" s="274"/>
+      <c r="BD36" s="274"/>
+      <c r="BE36" s="274"/>
+      <c r="BF36" s="274"/>
+      <c r="BG36" s="274"/>
+      <c r="BH36" s="274"/>
+      <c r="BI36" s="275"/>
       <c r="BJ36" s="269"/>
-      <c r="BK36" s="284"/>
-      <c r="BL36" s="284"/>
-      <c r="BM36" s="284"/>
-      <c r="BN36" s="284"/>
+      <c r="BK36" s="289"/>
+      <c r="BL36" s="289"/>
+      <c r="BM36" s="289"/>
+      <c r="BN36" s="289"/>
       <c r="BO36" s="269"/>
       <c r="BP36" s="137"/>
       <c r="BW36" s="145"/>
@@ -51799,16 +51799,16 @@
       <c r="AG37" s="139"/>
       <c r="AH37" s="139"/>
       <c r="AI37" s="139"/>
-      <c r="AJ37" s="288" t="s">
+      <c r="AJ37" s="283" t="s">
         <v>190</v>
       </c>
-      <c r="AK37" s="288"/>
-      <c r="AL37" s="288"/>
-      <c r="AM37" s="288"/>
-      <c r="AN37" s="289" t="s">
+      <c r="AK37" s="283"/>
+      <c r="AL37" s="283"/>
+      <c r="AM37" s="283"/>
+      <c r="AN37" s="284" t="s">
         <v>234</v>
       </c>
-      <c r="AO37" s="278"/>
+      <c r="AO37" s="272"/>
       <c r="AP37" s="270" t="s">
         <v>71</v>
       </c>
@@ -51818,42 +51818,42 @@
       <c r="AR37" s="270" t="s">
         <v>71</v>
       </c>
-      <c r="AS37" s="278"/>
-      <c r="AT37" s="272" t="s">
+      <c r="AS37" s="272"/>
+      <c r="AT37" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="AU37" s="272" t="s">
+      <c r="AU37" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="AV37" s="272" t="s">
+      <c r="AV37" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="AW37" s="272" t="s">
+      <c r="AW37" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="AX37" s="272" t="s">
+      <c r="AX37" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="AY37" s="272" t="s">
+      <c r="AY37" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="AZ37" s="272" t="s">
+      <c r="AZ37" s="277" t="s">
         <v>72</v>
       </c>
       <c r="BA37" s="269"/>
-      <c r="BB37" s="275"/>
-      <c r="BC37" s="275"/>
-      <c r="BD37" s="275"/>
-      <c r="BE37" s="275"/>
-      <c r="BF37" s="275"/>
-      <c r="BG37" s="275"/>
-      <c r="BH37" s="275"/>
-      <c r="BI37" s="276"/>
+      <c r="BB37" s="274"/>
+      <c r="BC37" s="274"/>
+      <c r="BD37" s="274"/>
+      <c r="BE37" s="274"/>
+      <c r="BF37" s="274"/>
+      <c r="BG37" s="274"/>
+      <c r="BH37" s="274"/>
+      <c r="BI37" s="275"/>
       <c r="BJ37" s="269"/>
-      <c r="BK37" s="284"/>
-      <c r="BL37" s="284"/>
-      <c r="BM37" s="284"/>
-      <c r="BN37" s="284"/>
+      <c r="BK37" s="289"/>
+      <c r="BL37" s="289"/>
+      <c r="BM37" s="289"/>
+      <c r="BN37" s="289"/>
       <c r="BO37" s="269"/>
       <c r="BP37" s="137"/>
       <c r="BW37" s="145"/>
@@ -51868,16 +51868,16 @@
       <c r="AG38" s="139"/>
       <c r="AH38" s="139"/>
       <c r="AI38" s="139"/>
-      <c r="AJ38" s="288" t="s">
+      <c r="AJ38" s="283" t="s">
         <v>241</v>
       </c>
-      <c r="AK38" s="288"/>
-      <c r="AL38" s="288"/>
-      <c r="AM38" s="288"/>
-      <c r="AN38" s="289" t="s">
+      <c r="AK38" s="283"/>
+      <c r="AL38" s="283"/>
+      <c r="AM38" s="283"/>
+      <c r="AN38" s="284" t="s">
         <v>235</v>
       </c>
-      <c r="AO38" s="279"/>
+      <c r="AO38" s="273"/>
       <c r="AP38" s="270" t="s">
         <v>82</v>
       </c>
@@ -51887,28 +51887,28 @@
       <c r="AR38" s="270" t="s">
         <v>82</v>
       </c>
-      <c r="AS38" s="279"/>
-      <c r="AT38" s="272"/>
-      <c r="AU38" s="272"/>
-      <c r="AV38" s="272"/>
-      <c r="AW38" s="272"/>
-      <c r="AX38" s="272"/>
-      <c r="AY38" s="272"/>
-      <c r="AZ38" s="272"/>
+      <c r="AS38" s="273"/>
+      <c r="AT38" s="277"/>
+      <c r="AU38" s="277"/>
+      <c r="AV38" s="277"/>
+      <c r="AW38" s="277"/>
+      <c r="AX38" s="277"/>
+      <c r="AY38" s="277"/>
+      <c r="AZ38" s="277"/>
       <c r="BA38" s="269"/>
-      <c r="BB38" s="275"/>
-      <c r="BC38" s="275"/>
-      <c r="BD38" s="275"/>
-      <c r="BE38" s="275"/>
-      <c r="BF38" s="275"/>
-      <c r="BG38" s="275"/>
-      <c r="BH38" s="275"/>
-      <c r="BI38" s="276"/>
+      <c r="BB38" s="274"/>
+      <c r="BC38" s="274"/>
+      <c r="BD38" s="274"/>
+      <c r="BE38" s="274"/>
+      <c r="BF38" s="274"/>
+      <c r="BG38" s="274"/>
+      <c r="BH38" s="274"/>
+      <c r="BI38" s="275"/>
       <c r="BJ38" s="269"/>
-      <c r="BK38" s="285"/>
-      <c r="BL38" s="285"/>
-      <c r="BM38" s="285"/>
-      <c r="BN38" s="285"/>
+      <c r="BK38" s="290"/>
+      <c r="BL38" s="290"/>
+      <c r="BM38" s="290"/>
+      <c r="BN38" s="290"/>
       <c r="BO38" s="269"/>
       <c r="BP38" s="138"/>
       <c r="BW38" s="145"/>
@@ -51946,11 +51946,11 @@
       <c r="AH40" s="141"/>
       <c r="AI40" s="141"/>
       <c r="AJ40" s="141"/>
-      <c r="AK40" s="268" t="s">
+      <c r="AK40" s="278" t="s">
         <v>121</v>
       </c>
-      <c r="AL40" s="268"/>
-      <c r="AM40" s="268"/>
+      <c r="AL40" s="278"/>
+      <c r="AM40" s="278"/>
       <c r="AN40" s="29">
         <v>0</v>
       </c>
@@ -52030,10 +52030,10 @@
         <v>25</v>
       </c>
       <c r="BN40" s="137">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BO40" s="137">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BP40" s="120" t="s">
         <v>106</v>
@@ -52103,19 +52103,19 @@
       <c r="BJ42" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="BK42" s="274" t="s">
+      <c r="BK42" s="271" t="s">
         <v>245</v>
       </c>
-      <c r="BL42" s="277" t="s">
+      <c r="BL42" s="281" t="s">
         <v>79</v>
       </c>
-      <c r="BM42" s="277" t="s">
+      <c r="BM42" s="281" t="s">
         <v>79</v>
       </c>
-      <c r="BN42" s="277" t="s">
+      <c r="BN42" s="281" t="s">
         <v>79</v>
       </c>
-      <c r="BO42" s="274" t="s">
+      <c r="BO42" s="271" t="s">
         <v>245</v>
       </c>
     </row>
@@ -52148,11 +52148,11 @@
       <c r="BJ43" s="135" t="s">
         <v>236</v>
       </c>
-      <c r="BK43" s="279"/>
-      <c r="BL43" s="286"/>
-      <c r="BM43" s="286"/>
-      <c r="BN43" s="286"/>
-      <c r="BO43" s="279"/>
+      <c r="BK43" s="273"/>
+      <c r="BL43" s="285"/>
+      <c r="BM43" s="285"/>
+      <c r="BN43" s="285"/>
+      <c r="BO43" s="273"/>
     </row>
     <row r="44" spans="21:84" s="145" customFormat="1">
       <c r="AK44" s="143"/>
@@ -52216,19 +52216,19 @@
       <c r="BJ45" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="BK45" s="274" t="s">
+      <c r="BK45" s="271" t="s">
         <v>245</v>
       </c>
-      <c r="BL45" s="277" t="s">
+      <c r="BL45" s="281" t="s">
         <v>81</v>
       </c>
-      <c r="BM45" s="277" t="s">
+      <c r="BM45" s="281" t="s">
         <v>81</v>
       </c>
-      <c r="BN45" s="277" t="s">
+      <c r="BN45" s="281" t="s">
         <v>81</v>
       </c>
-      <c r="BO45" s="274" t="s">
+      <c r="BO45" s="271" t="s">
         <v>245</v>
       </c>
     </row>
@@ -52261,11 +52261,11 @@
       <c r="BJ46" s="135" t="s">
         <v>237</v>
       </c>
-      <c r="BK46" s="279"/>
-      <c r="BL46" s="286"/>
-      <c r="BM46" s="286"/>
-      <c r="BN46" s="286"/>
-      <c r="BO46" s="279"/>
+      <c r="BK46" s="273"/>
+      <c r="BL46" s="285"/>
+      <c r="BM46" s="285"/>
+      <c r="BN46" s="285"/>
+      <c r="BO46" s="273"/>
     </row>
     <row r="47" spans="21:84" s="145" customFormat="1">
       <c r="AK47" s="143"/>
@@ -52329,34 +52329,34 @@
       <c r="BJ48" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="BK48" s="274" t="s">
+      <c r="BK48" s="271" t="s">
         <v>245</v>
       </c>
-      <c r="BL48" s="277" t="s">
+      <c r="BL48" s="281" t="s">
         <v>82</v>
       </c>
-      <c r="BM48" s="277" t="s">
+      <c r="BM48" s="281" t="s">
         <v>82</v>
       </c>
-      <c r="BN48" s="277" t="s">
+      <c r="BN48" s="281" t="s">
         <v>82</v>
       </c>
-      <c r="BO48" s="274" t="s">
+      <c r="BO48" s="271" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="26:78">
+    <row r="49" spans="26:77">
       <c r="BJ49" s="135" t="s">
         <v>238</v>
       </c>
-      <c r="BK49" s="279"/>
-      <c r="BL49" s="286"/>
-      <c r="BM49" s="286"/>
-      <c r="BN49" s="286"/>
-      <c r="BO49" s="279"/>
+      <c r="BK49" s="273"/>
+      <c r="BL49" s="285"/>
+      <c r="BM49" s="285"/>
+      <c r="BN49" s="285"/>
+      <c r="BO49" s="273"/>
       <c r="BX49" s="28"/>
     </row>
-    <row r="50" spans="26:78" s="145" customFormat="1">
+    <row r="50" spans="26:77" s="145" customFormat="1">
       <c r="BJ50" s="120"/>
       <c r="BK50" s="120"/>
       <c r="BL50" s="28"/>
@@ -52365,7 +52365,7 @@
       <c r="BO50" s="120"/>
       <c r="BX50" s="28"/>
     </row>
-    <row r="51" spans="26:78" s="145" customFormat="1">
+    <row r="51" spans="26:77" s="145" customFormat="1">
       <c r="BJ51" s="120">
         <v>22</v>
       </c>
@@ -52386,10 +52386,10 @@
       </c>
       <c r="BX51" s="28"/>
     </row>
-    <row r="52" spans="26:78" s="145" customFormat="1">
+    <row r="52" spans="26:77" s="145" customFormat="1">
       <c r="BX52" s="28"/>
     </row>
-    <row r="53" spans="26:78" ht="11" customHeight="1">
+    <row r="53" spans="26:77" ht="11" customHeight="1">
       <c r="Z53" s="120" t="s">
         <v>51</v>
       </c>
@@ -52425,87 +52425,84 @@
       <c r="AR53" s="270" t="s">
         <v>64</v>
       </c>
-      <c r="AS53" s="274" t="s">
+      <c r="AS53" s="271" t="s">
         <v>245</v>
       </c>
-      <c r="AT53" s="275" t="s">
+      <c r="AT53" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AU53" s="275" t="s">
+      <c r="AU53" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AV53" s="275" t="s">
+      <c r="AV53" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AW53" s="275" t="s">
+      <c r="AW53" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AX53" s="275" t="s">
+      <c r="AX53" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AY53" s="275" t="s">
+      <c r="AY53" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AZ53" s="275" t="s">
+      <c r="AZ53" s="274" t="s">
         <v>63</v>
       </c>
       <c r="BA53" s="269" t="s">
         <v>245</v>
       </c>
-      <c r="BB53" s="275" t="s">
+      <c r="BB53" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="BC53" s="275" t="s">
+      <c r="BC53" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="BD53" s="275" t="s">
+      <c r="BD53" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="BE53" s="275" t="s">
+      <c r="BE53" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="BF53" s="275" t="s">
+      <c r="BF53" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="BG53" s="275" t="s">
+      <c r="BG53" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="BH53" s="275" t="s">
+      <c r="BH53" s="274" t="s">
         <v>73</v>
       </c>
       <c r="BI53" s="269" t="s">
         <v>245</v>
       </c>
-      <c r="BJ53" s="283" t="s">
+      <c r="BJ53" s="288" t="s">
         <v>246</v>
       </c>
-      <c r="BK53" s="283" t="s">
+      <c r="BK53" s="288" t="s">
         <v>246</v>
       </c>
-      <c r="BL53" s="283" t="s">
+      <c r="BL53" s="288" t="s">
         <v>246</v>
       </c>
-      <c r="BM53" s="283" t="s">
+      <c r="BM53" s="288" t="s">
         <v>246</v>
       </c>
-      <c r="BN53" s="283" t="s">
+      <c r="BN53" s="288" t="s">
         <v>246</v>
       </c>
-      <c r="BO53" s="283" t="s">
-        <v>246</v>
-      </c>
-      <c r="BP53" s="269" t="s">
+      <c r="BO53" s="269" t="s">
         <v>245</v>
+      </c>
+      <c r="BP53" s="146" t="s">
+        <v>0</v>
       </c>
       <c r="BQ53" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="BR53" s="146" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY53" s="28"/>
+      <c r="BX53" s="28"/>
     </row>
-    <row r="54" spans="26:78">
+    <row r="54" spans="26:77">
       <c r="AB54" s="120">
         <v>1</v>
       </c>
@@ -52534,43 +52531,42 @@
       <c r="AP54" s="270"/>
       <c r="AQ54" s="270"/>
       <c r="AR54" s="270"/>
-      <c r="AS54" s="278"/>
-      <c r="AT54" s="275"/>
-      <c r="AU54" s="275"/>
-      <c r="AV54" s="275"/>
-      <c r="AW54" s="275" t="s">
+      <c r="AS54" s="272"/>
+      <c r="AT54" s="274"/>
+      <c r="AU54" s="274"/>
+      <c r="AV54" s="274"/>
+      <c r="AW54" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AX54" s="275" t="s">
+      <c r="AX54" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AY54" s="275" t="s">
+      <c r="AY54" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AZ54" s="275" t="s">
+      <c r="AZ54" s="274" t="s">
         <v>63</v>
       </c>
       <c r="BA54" s="269"/>
-      <c r="BB54" s="275"/>
-      <c r="BC54" s="275"/>
-      <c r="BD54" s="275"/>
-      <c r="BE54" s="275"/>
-      <c r="BF54" s="275"/>
-      <c r="BG54" s="275"/>
-      <c r="BH54" s="275"/>
+      <c r="BB54" s="274"/>
+      <c r="BC54" s="274"/>
+      <c r="BD54" s="274"/>
+      <c r="BE54" s="274"/>
+      <c r="BF54" s="274"/>
+      <c r="BG54" s="274"/>
+      <c r="BH54" s="274"/>
       <c r="BI54" s="269"/>
-      <c r="BJ54" s="284"/>
-      <c r="BK54" s="284"/>
-      <c r="BL54" s="284"/>
-      <c r="BM54" s="284"/>
-      <c r="BN54" s="284"/>
-      <c r="BO54" s="284"/>
-      <c r="BP54" s="269"/>
+      <c r="BJ54" s="289"/>
+      <c r="BK54" s="289"/>
+      <c r="BL54" s="289"/>
+      <c r="BM54" s="289"/>
+      <c r="BN54" s="289"/>
+      <c r="BO54" s="269"/>
+      <c r="BP54" s="146"/>
       <c r="BQ54" s="146"/>
-      <c r="BR54" s="146"/>
-      <c r="BY54" s="28"/>
+      <c r="BX54" s="28"/>
     </row>
-    <row r="55" spans="26:78">
+    <row r="55" spans="26:77">
       <c r="AB55" s="120" t="s">
         <v>0</v>
       </c>
@@ -52601,43 +52597,42 @@
       <c r="AR55" s="270" t="s">
         <v>65</v>
       </c>
-      <c r="AS55" s="278"/>
-      <c r="AT55" s="275"/>
-      <c r="AU55" s="275"/>
-      <c r="AV55" s="275"/>
-      <c r="AW55" s="275" t="s">
+      <c r="AS55" s="272"/>
+      <c r="AT55" s="274"/>
+      <c r="AU55" s="274"/>
+      <c r="AV55" s="274"/>
+      <c r="AW55" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AX55" s="275" t="s">
+      <c r="AX55" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AY55" s="275" t="s">
+      <c r="AY55" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AZ55" s="275" t="s">
+      <c r="AZ55" s="274" t="s">
         <v>63</v>
       </c>
       <c r="BA55" s="269"/>
-      <c r="BB55" s="275"/>
-      <c r="BC55" s="275"/>
-      <c r="BD55" s="275"/>
-      <c r="BE55" s="275"/>
-      <c r="BF55" s="275"/>
-      <c r="BG55" s="275"/>
-      <c r="BH55" s="275"/>
+      <c r="BB55" s="274"/>
+      <c r="BC55" s="274"/>
+      <c r="BD55" s="274"/>
+      <c r="BE55" s="274"/>
+      <c r="BF55" s="274"/>
+      <c r="BG55" s="274"/>
+      <c r="BH55" s="274"/>
       <c r="BI55" s="269"/>
-      <c r="BJ55" s="284"/>
-      <c r="BK55" s="284"/>
-      <c r="BL55" s="284"/>
-      <c r="BM55" s="284"/>
-      <c r="BN55" s="284"/>
-      <c r="BO55" s="284"/>
-      <c r="BP55" s="269"/>
+      <c r="BJ55" s="289"/>
+      <c r="BK55" s="289"/>
+      <c r="BL55" s="289"/>
+      <c r="BM55" s="289"/>
+      <c r="BN55" s="289"/>
+      <c r="BO55" s="269"/>
+      <c r="BP55" s="146"/>
       <c r="BQ55" s="146"/>
-      <c r="BR55" s="146"/>
-      <c r="BY55" s="28"/>
+      <c r="BX55" s="28"/>
     </row>
-    <row r="56" spans="26:78">
+    <row r="56" spans="26:77">
       <c r="AE56" s="131"/>
       <c r="AF56" s="131"/>
       <c r="AH56" s="131"/>
@@ -52653,44 +52648,43 @@
       <c r="AP56" s="270"/>
       <c r="AQ56" s="270"/>
       <c r="AR56" s="270"/>
-      <c r="AS56" s="278"/>
-      <c r="AT56" s="275"/>
-      <c r="AU56" s="275"/>
-      <c r="AV56" s="275"/>
-      <c r="AW56" s="275" t="s">
+      <c r="AS56" s="272"/>
+      <c r="AT56" s="274"/>
+      <c r="AU56" s="274"/>
+      <c r="AV56" s="274"/>
+      <c r="AW56" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AX56" s="275" t="s">
+      <c r="AX56" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AY56" s="275" t="s">
+      <c r="AY56" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="AZ56" s="275" t="s">
+      <c r="AZ56" s="274" t="s">
         <v>63</v>
       </c>
       <c r="BA56" s="269"/>
-      <c r="BB56" s="275"/>
-      <c r="BC56" s="275"/>
-      <c r="BD56" s="275"/>
-      <c r="BE56" s="275"/>
-      <c r="BF56" s="275"/>
-      <c r="BG56" s="275"/>
-      <c r="BH56" s="275"/>
+      <c r="BB56" s="274"/>
+      <c r="BC56" s="274"/>
+      <c r="BD56" s="274"/>
+      <c r="BE56" s="274"/>
+      <c r="BF56" s="274"/>
+      <c r="BG56" s="274"/>
+      <c r="BH56" s="274"/>
       <c r="BI56" s="269"/>
-      <c r="BJ56" s="284"/>
-      <c r="BK56" s="284"/>
-      <c r="BL56" s="284"/>
-      <c r="BM56" s="284"/>
-      <c r="BN56" s="284"/>
-      <c r="BO56" s="284"/>
-      <c r="BP56" s="269"/>
+      <c r="BJ56" s="289"/>
+      <c r="BK56" s="289"/>
+      <c r="BL56" s="289"/>
+      <c r="BM56" s="289"/>
+      <c r="BN56" s="289"/>
+      <c r="BO56" s="269"/>
+      <c r="BP56" s="146"/>
       <c r="BQ56" s="146"/>
-      <c r="BR56" s="146"/>
-      <c r="BS56" s="29"/>
-      <c r="BY56" s="28"/>
+      <c r="BR56" s="29"/>
+      <c r="BX56" s="28"/>
     </row>
-    <row r="57" spans="26:78">
+    <row r="57" spans="26:77">
       <c r="AE57" s="131"/>
       <c r="AF57" s="131"/>
       <c r="AH57" s="131"/>
@@ -52712,49 +52706,48 @@
       <c r="AR57" s="270" t="s">
         <v>71</v>
       </c>
-      <c r="AS57" s="278"/>
-      <c r="AT57" s="272" t="s">
+      <c r="AS57" s="272"/>
+      <c r="AT57" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="AU57" s="272" t="s">
+      <c r="AU57" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="AV57" s="272" t="s">
+      <c r="AV57" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="AW57" s="272" t="s">
+      <c r="AW57" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="AX57" s="272" t="s">
+      <c r="AX57" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="AY57" s="272" t="s">
+      <c r="AY57" s="277" t="s">
         <v>72</v>
       </c>
-      <c r="AZ57" s="272" t="s">
+      <c r="AZ57" s="277" t="s">
         <v>72</v>
       </c>
       <c r="BA57" s="269"/>
-      <c r="BB57" s="275"/>
-      <c r="BC57" s="275"/>
-      <c r="BD57" s="275"/>
-      <c r="BE57" s="275"/>
-      <c r="BF57" s="275"/>
-      <c r="BG57" s="275"/>
-      <c r="BH57" s="275"/>
+      <c r="BB57" s="274"/>
+      <c r="BC57" s="274"/>
+      <c r="BD57" s="274"/>
+      <c r="BE57" s="274"/>
+      <c r="BF57" s="274"/>
+      <c r="BG57" s="274"/>
+      <c r="BH57" s="274"/>
       <c r="BI57" s="269"/>
-      <c r="BJ57" s="284"/>
-      <c r="BK57" s="284"/>
-      <c r="BL57" s="284"/>
-      <c r="BM57" s="284"/>
-      <c r="BN57" s="284"/>
-      <c r="BO57" s="284"/>
-      <c r="BP57" s="269"/>
+      <c r="BJ57" s="289"/>
+      <c r="BK57" s="289"/>
+      <c r="BL57" s="289"/>
+      <c r="BM57" s="289"/>
+      <c r="BN57" s="289"/>
+      <c r="BO57" s="269"/>
+      <c r="BP57" s="146"/>
       <c r="BQ57" s="146"/>
-      <c r="BR57" s="146"/>
-      <c r="BY57" s="28"/>
+      <c r="BX57" s="28"/>
     </row>
-    <row r="58" spans="26:78" s="29" customFormat="1">
+    <row r="58" spans="26:77" s="29" customFormat="1">
       <c r="Z58" s="120"/>
       <c r="AA58" s="120"/>
       <c r="AB58" s="120"/>
@@ -52776,37 +52769,36 @@
       <c r="AP58" s="270"/>
       <c r="AQ58" s="270"/>
       <c r="AR58" s="270"/>
-      <c r="AS58" s="279"/>
-      <c r="AT58" s="272"/>
-      <c r="AU58" s="272"/>
-      <c r="AV58" s="272"/>
-      <c r="AW58" s="272"/>
-      <c r="AX58" s="272"/>
-      <c r="AY58" s="272"/>
-      <c r="AZ58" s="272"/>
+      <c r="AS58" s="273"/>
+      <c r="AT58" s="277"/>
+      <c r="AU58" s="277"/>
+      <c r="AV58" s="277"/>
+      <c r="AW58" s="277"/>
+      <c r="AX58" s="277"/>
+      <c r="AY58" s="277"/>
+      <c r="AZ58" s="277"/>
       <c r="BA58" s="269"/>
-      <c r="BB58" s="275"/>
-      <c r="BC58" s="275"/>
-      <c r="BD58" s="275"/>
-      <c r="BE58" s="275"/>
-      <c r="BF58" s="275"/>
-      <c r="BG58" s="275"/>
-      <c r="BH58" s="275"/>
+      <c r="BB58" s="274"/>
+      <c r="BC58" s="274"/>
+      <c r="BD58" s="274"/>
+      <c r="BE58" s="274"/>
+      <c r="BF58" s="274"/>
+      <c r="BG58" s="274"/>
+      <c r="BH58" s="274"/>
       <c r="BI58" s="269"/>
-      <c r="BJ58" s="285"/>
-      <c r="BK58" s="285"/>
-      <c r="BL58" s="285"/>
-      <c r="BM58" s="285"/>
-      <c r="BN58" s="285"/>
-      <c r="BO58" s="285"/>
-      <c r="BP58" s="269"/>
+      <c r="BJ58" s="290"/>
+      <c r="BK58" s="290"/>
+      <c r="BL58" s="290"/>
+      <c r="BM58" s="290"/>
+      <c r="BN58" s="290"/>
+      <c r="BO58" s="269"/>
+      <c r="BP58" s="146"/>
       <c r="BQ58" s="146"/>
-      <c r="BR58" s="146"/>
-      <c r="BS58" s="120"/>
-      <c r="BY58" s="28"/>
-      <c r="BZ58" s="120"/>
+      <c r="BR58" s="120"/>
+      <c r="BX58" s="28"/>
+      <c r="BY58" s="120"/>
     </row>
-    <row r="59" spans="26:78">
+    <row r="59" spans="26:77">
       <c r="Z59" s="29"/>
       <c r="AA59" s="29"/>
       <c r="AB59" s="29"/>
@@ -52816,11 +52808,11 @@
       <c r="AH59" s="131"/>
       <c r="AI59" s="145"/>
       <c r="AJ59" s="131"/>
-      <c r="AK59" s="268" t="s">
+      <c r="AK59" s="278" t="s">
         <v>121</v>
       </c>
-      <c r="AL59" s="268"/>
-      <c r="AM59" s="268"/>
+      <c r="AL59" s="278"/>
+      <c r="AM59" s="278"/>
       <c r="AN59" s="132">
         <v>0</v>
       </c>
@@ -52893,7 +52885,7 @@
         <v>19</v>
       </c>
       <c r="BH59" s="31">
-        <f t="shared" ref="BH59:BP59" si="1">BG59+1</f>
+        <f t="shared" ref="BH59:BN59" si="1">BG59+1</f>
         <v>20</v>
       </c>
       <c r="BI59" s="31">
@@ -52921,21 +52913,16 @@
         <v>26</v>
       </c>
       <c r="BO59" s="31">
-        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="BP59" s="31">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="BQ59" s="146" t="s">
+      <c r="BP59" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="BR59" s="146"/>
-      <c r="BV59" s="37"/>
-      <c r="BW59" s="29"/>
+      <c r="BQ59" s="146"/>
+      <c r="BU59" s="37"/>
+      <c r="BV59" s="29"/>
     </row>
-    <row r="60" spans="26:78" s="145" customFormat="1">
+    <row r="60" spans="26:77" s="145" customFormat="1">
       <c r="Z60" s="146"/>
       <c r="AA60" s="146"/>
       <c r="AB60" s="146"/>
@@ -53025,20 +53012,17 @@
         <v>247</v>
       </c>
       <c r="BO60" s="146" t="s">
-        <v>247</v>
+        <v>160</v>
       </c>
       <c r="BP60" s="146" t="s">
-        <v>160</v>
-      </c>
-      <c r="BQ60" s="146" t="s">
         <v>0</v>
       </c>
+      <c r="BQ60" s="146"/>
       <c r="BR60" s="146"/>
-      <c r="BS60" s="146"/>
-      <c r="BW60" s="37"/>
-      <c r="BX60" s="146"/>
+      <c r="BV60" s="37"/>
+      <c r="BW60" s="146"/>
     </row>
-    <row r="61" spans="26:78" s="145" customFormat="1">
+    <row r="61" spans="26:77" s="145" customFormat="1">
       <c r="Z61" s="146"/>
       <c r="AA61" s="146"/>
       <c r="AB61" s="146"/>
@@ -53079,7 +53063,7 @@
       <c r="BU61" s="37"/>
       <c r="BV61" s="146"/>
     </row>
-    <row r="62" spans="26:78" s="145" customFormat="1">
+    <row r="62" spans="26:77" s="145" customFormat="1">
       <c r="Z62" s="146"/>
       <c r="AA62" s="146"/>
       <c r="AB62" s="146"/>
@@ -53120,7 +53104,7 @@
       <c r="BU62" s="37"/>
       <c r="BV62" s="146"/>
     </row>
-    <row r="63" spans="26:78">
+    <row r="63" spans="26:77">
       <c r="AG63" s="29"/>
       <c r="AH63" s="29"/>
       <c r="AI63" s="29"/>
@@ -53153,7 +53137,7 @@
       <c r="BV63" s="37"/>
       <c r="BW63" s="29"/>
     </row>
-    <row r="64" spans="26:78" ht="11" customHeight="1">
+    <row r="64" spans="26:77" ht="11" customHeight="1">
       <c r="Z64" s="133" t="s">
         <v>242</v>
       </c>
@@ -53196,14 +53180,14 @@
       <c r="BC64" s="133"/>
       <c r="BD64" s="133"/>
       <c r="BE64" s="133"/>
-      <c r="BF64" s="288" t="s">
+      <c r="BF64" s="283" t="s">
         <v>189</v>
       </c>
-      <c r="BG64" s="288"/>
-      <c r="BH64" s="288"/>
-      <c r="BI64" s="288"/>
-      <c r="BJ64" s="289"/>
-      <c r="BK64" s="274" t="s">
+      <c r="BG64" s="283"/>
+      <c r="BH64" s="283"/>
+      <c r="BI64" s="283"/>
+      <c r="BJ64" s="284"/>
+      <c r="BK64" s="271" t="s">
         <v>245</v>
       </c>
       <c r="BL64" s="270" t="s">
@@ -53215,7 +53199,7 @@
       <c r="BN64" s="270" t="s">
         <v>79</v>
       </c>
-      <c r="BO64" s="274" t="s">
+      <c r="BO64" s="271" t="s">
         <v>245</v>
       </c>
       <c r="BP64" s="145"/>
@@ -53267,20 +53251,20 @@
       <c r="BC65" s="133"/>
       <c r="BD65" s="133"/>
       <c r="BE65" s="133"/>
-      <c r="BF65" s="288" t="s">
+      <c r="BF65" s="283" t="s">
         <v>239</v>
       </c>
-      <c r="BG65" s="288"/>
-      <c r="BH65" s="288"/>
-      <c r="BI65" s="288"/>
-      <c r="BJ65" s="289" t="s">
+      <c r="BG65" s="283"/>
+      <c r="BH65" s="283"/>
+      <c r="BI65" s="283"/>
+      <c r="BJ65" s="284" t="s">
         <v>231</v>
       </c>
-      <c r="BK65" s="278"/>
+      <c r="BK65" s="272"/>
       <c r="BL65" s="270"/>
       <c r="BM65" s="270"/>
       <c r="BN65" s="270"/>
-      <c r="BO65" s="278"/>
+      <c r="BO65" s="272"/>
       <c r="BP65" s="145"/>
       <c r="BQ65" s="145"/>
       <c r="BR65" s="145"/>
@@ -53328,11 +53312,11 @@
       <c r="BH66" s="138"/>
       <c r="BI66" s="138"/>
       <c r="BJ66" s="138"/>
-      <c r="BK66" s="278"/>
+      <c r="BK66" s="272"/>
       <c r="BL66" s="138"/>
       <c r="BM66" s="138"/>
       <c r="BN66" s="138"/>
-      <c r="BO66" s="278"/>
+      <c r="BO66" s="272"/>
       <c r="BP66" s="145" t="s">
         <v>0</v>
       </c>
@@ -53374,16 +53358,16 @@
       <c r="BC67" s="131"/>
       <c r="BD67" s="131"/>
       <c r="BE67" s="131"/>
-      <c r="BF67" s="288" t="s">
+      <c r="BF67" s="283" t="s">
         <v>188</v>
       </c>
-      <c r="BG67" s="288"/>
-      <c r="BH67" s="288"/>
-      <c r="BI67" s="288"/>
-      <c r="BJ67" s="289" t="s">
+      <c r="BG67" s="283"/>
+      <c r="BH67" s="283"/>
+      <c r="BI67" s="283"/>
+      <c r="BJ67" s="284" t="s">
         <v>232</v>
       </c>
-      <c r="BK67" s="278"/>
+      <c r="BK67" s="272"/>
       <c r="BL67" s="270" t="s">
         <v>81</v>
       </c>
@@ -53393,7 +53377,7 @@
       <c r="BN67" s="270" t="s">
         <v>81</v>
       </c>
-      <c r="BO67" s="278"/>
+      <c r="BO67" s="272"/>
       <c r="BP67" s="145"/>
       <c r="BQ67" s="145"/>
       <c r="BR67" s="145"/>
@@ -53433,16 +53417,16 @@
       <c r="BC68" s="131"/>
       <c r="BD68" s="131"/>
       <c r="BE68" s="131"/>
-      <c r="BF68" s="288" t="s">
+      <c r="BF68" s="283" t="s">
         <v>240</v>
       </c>
-      <c r="BG68" s="288"/>
-      <c r="BH68" s="288"/>
-      <c r="BI68" s="288"/>
-      <c r="BJ68" s="289" t="s">
+      <c r="BG68" s="283"/>
+      <c r="BH68" s="283"/>
+      <c r="BI68" s="283"/>
+      <c r="BJ68" s="284" t="s">
         <v>233</v>
       </c>
-      <c r="BK68" s="278"/>
+      <c r="BK68" s="272"/>
       <c r="BL68" s="270" t="s">
         <v>79</v>
       </c>
@@ -53452,7 +53436,7 @@
       <c r="BN68" s="270" t="s">
         <v>79</v>
       </c>
-      <c r="BO68" s="278"/>
+      <c r="BO68" s="272"/>
       <c r="BP68" s="145"/>
       <c r="BQ68" s="145"/>
       <c r="BR68" s="145"/>
@@ -53497,11 +53481,11 @@
       <c r="BH69" s="138"/>
       <c r="BI69" s="138"/>
       <c r="BJ69" s="138"/>
-      <c r="BK69" s="278"/>
+      <c r="BK69" s="272"/>
       <c r="BL69" s="138"/>
       <c r="BM69" s="138"/>
       <c r="BN69" s="138"/>
-      <c r="BO69" s="278"/>
+      <c r="BO69" s="272"/>
       <c r="BP69" s="145"/>
       <c r="BQ69" s="145"/>
       <c r="BR69" s="145"/>
@@ -53523,16 +53507,16 @@
       <c r="AW70" s="145"/>
       <c r="AX70" s="145"/>
       <c r="AY70" s="145"/>
-      <c r="BF70" s="288" t="s">
+      <c r="BF70" s="283" t="s">
         <v>190</v>
       </c>
-      <c r="BG70" s="288"/>
-      <c r="BH70" s="288"/>
-      <c r="BI70" s="288"/>
-      <c r="BJ70" s="289" t="s">
+      <c r="BG70" s="283"/>
+      <c r="BH70" s="283"/>
+      <c r="BI70" s="283"/>
+      <c r="BJ70" s="284" t="s">
         <v>234</v>
       </c>
-      <c r="BK70" s="278"/>
+      <c r="BK70" s="272"/>
       <c r="BL70" s="270" t="s">
         <v>82</v>
       </c>
@@ -53542,7 +53526,7 @@
       <c r="BN70" s="270" t="s">
         <v>82</v>
       </c>
-      <c r="BO70" s="278"/>
+      <c r="BO70" s="272"/>
       <c r="BP70" s="145"/>
       <c r="BQ70" s="145"/>
       <c r="BR70" s="145"/>
@@ -53554,16 +53538,16 @@
       <c r="AW71" s="145"/>
       <c r="AX71" s="145"/>
       <c r="AY71" s="145"/>
-      <c r="BF71" s="288" t="s">
+      <c r="BF71" s="283" t="s">
         <v>241</v>
       </c>
-      <c r="BG71" s="288"/>
-      <c r="BH71" s="288"/>
-      <c r="BI71" s="288"/>
-      <c r="BJ71" s="289" t="s">
+      <c r="BG71" s="283"/>
+      <c r="BH71" s="283"/>
+      <c r="BI71" s="283"/>
+      <c r="BJ71" s="284" t="s">
         <v>235</v>
       </c>
-      <c r="BK71" s="279"/>
+      <c r="BK71" s="273"/>
       <c r="BL71" s="270" t="s">
         <v>82</v>
       </c>
@@ -53573,7 +53557,7 @@
       <c r="BN71" s="270" t="s">
         <v>82</v>
       </c>
-      <c r="BO71" s="279"/>
+      <c r="BO71" s="273"/>
       <c r="BP71" s="145"/>
       <c r="BQ71" s="145"/>
       <c r="BR71" s="145"/>
@@ -53661,11 +53645,11 @@
       <c r="AX73" s="145"/>
       <c r="AY73" s="145"/>
       <c r="BF73" s="131"/>
-      <c r="BG73" s="268" t="s">
+      <c r="BG73" s="278" t="s">
         <v>121</v>
       </c>
-      <c r="BH73" s="268"/>
-      <c r="BI73" s="268"/>
+      <c r="BH73" s="278"/>
+      <c r="BI73" s="278"/>
       <c r="BJ73" s="132">
         <v>0</v>
       </c>
@@ -53713,7 +53697,193 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="211">
+  <mergeCells count="210">
+    <mergeCell ref="BO53:BO58"/>
+    <mergeCell ref="BK34:BK38"/>
+    <mergeCell ref="BL34:BL38"/>
+    <mergeCell ref="BM34:BM38"/>
+    <mergeCell ref="BN34:BN38"/>
+    <mergeCell ref="BO34:BO38"/>
+    <mergeCell ref="BK64:BK71"/>
+    <mergeCell ref="BO64:BO71"/>
+    <mergeCell ref="BD33:BD38"/>
+    <mergeCell ref="BM53:BM58"/>
+    <mergeCell ref="BJ53:BJ58"/>
+    <mergeCell ref="BK53:BK58"/>
+    <mergeCell ref="BL53:BL58"/>
+    <mergeCell ref="BN53:BN58"/>
+    <mergeCell ref="BO42:BO43"/>
+    <mergeCell ref="BK45:BK46"/>
+    <mergeCell ref="BO45:BO46"/>
+    <mergeCell ref="BK48:BK49"/>
+    <mergeCell ref="BO48:BO49"/>
+    <mergeCell ref="BM45:BM46"/>
+    <mergeCell ref="BN45:BN46"/>
+    <mergeCell ref="BL48:BL49"/>
+    <mergeCell ref="BM48:BM49"/>
+    <mergeCell ref="AV53:AV56"/>
+    <mergeCell ref="AV57:AV58"/>
+    <mergeCell ref="BI8:BI11"/>
+    <mergeCell ref="BI13:BI16"/>
+    <mergeCell ref="BI19:BI20"/>
+    <mergeCell ref="BI22:BI23"/>
+    <mergeCell ref="BI25:BI26"/>
+    <mergeCell ref="BI53:BI58"/>
+    <mergeCell ref="AZ13:AZ14"/>
+    <mergeCell ref="BA13:BA14"/>
+    <mergeCell ref="BB13:BB14"/>
+    <mergeCell ref="BG25:BG26"/>
+    <mergeCell ref="BA10:BA11"/>
+    <mergeCell ref="BB10:BB11"/>
+    <mergeCell ref="BE25:BE26"/>
+    <mergeCell ref="BF25:BF26"/>
+    <mergeCell ref="BC3:BC16"/>
+    <mergeCell ref="BC19:BC26"/>
+    <mergeCell ref="AX26:BB26"/>
+    <mergeCell ref="AZ15:AZ16"/>
+    <mergeCell ref="BA15:BA16"/>
+    <mergeCell ref="BB15:BB16"/>
+    <mergeCell ref="BD3:BD6"/>
+    <mergeCell ref="BE3:BE6"/>
+    <mergeCell ref="BN48:BN49"/>
+    <mergeCell ref="BM42:BM43"/>
+    <mergeCell ref="BL42:BL43"/>
+    <mergeCell ref="BK42:BK43"/>
+    <mergeCell ref="BI3:BI6"/>
+    <mergeCell ref="BJ8:BJ11"/>
+    <mergeCell ref="BH19:BH20"/>
+    <mergeCell ref="BJ19:BJ20"/>
+    <mergeCell ref="BH13:BH16"/>
+    <mergeCell ref="BJ13:BJ16"/>
+    <mergeCell ref="BH22:BH23"/>
+    <mergeCell ref="BJ22:BJ23"/>
+    <mergeCell ref="BH25:BH26"/>
+    <mergeCell ref="BH8:BH11"/>
+    <mergeCell ref="BH3:BH6"/>
+    <mergeCell ref="BJ3:BJ6"/>
+    <mergeCell ref="BK19:BK26"/>
+    <mergeCell ref="BK3:BK16"/>
+    <mergeCell ref="BN42:BN43"/>
+    <mergeCell ref="BG73:BI73"/>
+    <mergeCell ref="AO30:AO38"/>
+    <mergeCell ref="BF65:BJ65"/>
+    <mergeCell ref="BF67:BJ67"/>
+    <mergeCell ref="BL67:BL68"/>
+    <mergeCell ref="BM67:BM68"/>
+    <mergeCell ref="BN67:BN68"/>
+    <mergeCell ref="BF68:BJ68"/>
+    <mergeCell ref="BF70:BJ70"/>
+    <mergeCell ref="BL70:BL71"/>
+    <mergeCell ref="BM70:BM71"/>
+    <mergeCell ref="BN70:BN71"/>
+    <mergeCell ref="BF71:BJ71"/>
+    <mergeCell ref="BF64:BJ64"/>
+    <mergeCell ref="BL64:BL65"/>
+    <mergeCell ref="BM64:BM65"/>
+    <mergeCell ref="BN64:BN65"/>
+    <mergeCell ref="AO53:AO58"/>
+    <mergeCell ref="AP53:AP54"/>
+    <mergeCell ref="AQ53:AQ54"/>
+    <mergeCell ref="AR53:AR54"/>
+    <mergeCell ref="BI33:BI38"/>
+    <mergeCell ref="BB33:BB38"/>
+    <mergeCell ref="BC33:BC38"/>
+    <mergeCell ref="BF3:BF6"/>
+    <mergeCell ref="BG3:BG6"/>
+    <mergeCell ref="BF22:BF23"/>
+    <mergeCell ref="BG22:BG23"/>
+    <mergeCell ref="BD8:BD11"/>
+    <mergeCell ref="BE8:BE11"/>
+    <mergeCell ref="BF8:BF11"/>
+    <mergeCell ref="BG8:BG11"/>
+    <mergeCell ref="BD19:BD20"/>
+    <mergeCell ref="BE19:BE20"/>
+    <mergeCell ref="BF19:BF20"/>
+    <mergeCell ref="BG19:BG20"/>
+    <mergeCell ref="BG13:BG16"/>
+    <mergeCell ref="BD13:BD16"/>
+    <mergeCell ref="BD22:BD23"/>
+    <mergeCell ref="BE22:BE23"/>
+    <mergeCell ref="AJ34:AN34"/>
+    <mergeCell ref="AJ35:AN35"/>
+    <mergeCell ref="AJ36:AN36"/>
+    <mergeCell ref="AJ37:AN37"/>
+    <mergeCell ref="AJ38:AN38"/>
+    <mergeCell ref="BA3:BA4"/>
+    <mergeCell ref="BB3:BB4"/>
+    <mergeCell ref="AX53:AX56"/>
+    <mergeCell ref="AY53:AY56"/>
+    <mergeCell ref="AZ53:AZ56"/>
+    <mergeCell ref="BA53:BA58"/>
+    <mergeCell ref="AZ10:AZ11"/>
+    <mergeCell ref="AS53:AS58"/>
+    <mergeCell ref="AT53:AT56"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="AT14:AX14"/>
+    <mergeCell ref="AT15:AX15"/>
+    <mergeCell ref="AZ3:AZ4"/>
+    <mergeCell ref="AT4:AX4"/>
+    <mergeCell ref="AT5:AX5"/>
+    <mergeCell ref="AT6:AX6"/>
+    <mergeCell ref="AX25:BB25"/>
+    <mergeCell ref="AK59:AM59"/>
+    <mergeCell ref="AZ8:AZ9"/>
+    <mergeCell ref="BA8:BA9"/>
+    <mergeCell ref="BB8:BB9"/>
+    <mergeCell ref="AP55:AP56"/>
+    <mergeCell ref="AQ55:AQ56"/>
+    <mergeCell ref="AR55:AR56"/>
+    <mergeCell ref="AP57:AP58"/>
+    <mergeCell ref="AQ57:AQ58"/>
+    <mergeCell ref="AR57:AR58"/>
+    <mergeCell ref="AT57:AT58"/>
+    <mergeCell ref="AU57:AU58"/>
+    <mergeCell ref="AW57:AW58"/>
+    <mergeCell ref="BB53:BB58"/>
+    <mergeCell ref="AU53:AU56"/>
+    <mergeCell ref="AW53:AW56"/>
+    <mergeCell ref="AK40:AM40"/>
+    <mergeCell ref="AT8:AX8"/>
+    <mergeCell ref="AJ33:AN33"/>
+    <mergeCell ref="AT16:AX16"/>
+    <mergeCell ref="AX19:BB19"/>
+    <mergeCell ref="AX20:BB20"/>
+    <mergeCell ref="AX22:BB22"/>
+    <mergeCell ref="AX23:BB23"/>
+    <mergeCell ref="AU17:AW17"/>
+    <mergeCell ref="AY3:AY16"/>
+    <mergeCell ref="AQ35:AQ36"/>
+    <mergeCell ref="AR35:AR36"/>
+    <mergeCell ref="AP37:AP38"/>
+    <mergeCell ref="AQ37:AQ38"/>
+    <mergeCell ref="AR37:AR38"/>
+    <mergeCell ref="AT37:AT38"/>
+    <mergeCell ref="AU37:AU38"/>
+    <mergeCell ref="AR33:AR34"/>
+    <mergeCell ref="AS33:AS38"/>
+    <mergeCell ref="AT33:AT36"/>
+    <mergeCell ref="AV37:AV38"/>
+    <mergeCell ref="AV33:AV36"/>
+    <mergeCell ref="BE33:BE38"/>
+    <mergeCell ref="BF33:BF38"/>
+    <mergeCell ref="BG33:BG38"/>
+    <mergeCell ref="BH33:BH38"/>
+    <mergeCell ref="AX57:AX58"/>
+    <mergeCell ref="AY57:AY58"/>
+    <mergeCell ref="AZ57:AZ58"/>
+    <mergeCell ref="BJ25:BJ26"/>
+    <mergeCell ref="AY27:BA27"/>
+    <mergeCell ref="BG53:BG58"/>
+    <mergeCell ref="BJ34:BJ38"/>
+    <mergeCell ref="AZ37:AZ38"/>
+    <mergeCell ref="BD25:BD26"/>
+    <mergeCell ref="BC53:BC58"/>
+    <mergeCell ref="BD53:BD58"/>
+    <mergeCell ref="BE53:BE58"/>
+    <mergeCell ref="BF53:BF58"/>
+    <mergeCell ref="BH53:BH58"/>
     <mergeCell ref="AG1:BL1"/>
     <mergeCell ref="AT3:AX3"/>
     <mergeCell ref="BL45:BL46"/>
@@ -53738,193 +53908,6 @@
     <mergeCell ref="BE13:BE16"/>
     <mergeCell ref="BF13:BF16"/>
     <mergeCell ref="AP35:AP36"/>
-    <mergeCell ref="BE33:BE38"/>
-    <mergeCell ref="BF33:BF38"/>
-    <mergeCell ref="BG33:BG38"/>
-    <mergeCell ref="BH33:BH38"/>
-    <mergeCell ref="AX57:AX58"/>
-    <mergeCell ref="AY57:AY58"/>
-    <mergeCell ref="AZ57:AZ58"/>
-    <mergeCell ref="BJ25:BJ26"/>
-    <mergeCell ref="AY27:BA27"/>
-    <mergeCell ref="BG53:BG58"/>
-    <mergeCell ref="BJ34:BJ38"/>
-    <mergeCell ref="AZ37:AZ38"/>
-    <mergeCell ref="BD25:BD26"/>
-    <mergeCell ref="BC53:BC58"/>
-    <mergeCell ref="BD53:BD58"/>
-    <mergeCell ref="BE53:BE58"/>
-    <mergeCell ref="BF53:BF58"/>
-    <mergeCell ref="BH53:BH58"/>
-    <mergeCell ref="AU17:AW17"/>
-    <mergeCell ref="AY3:AY16"/>
-    <mergeCell ref="AQ35:AQ36"/>
-    <mergeCell ref="AR35:AR36"/>
-    <mergeCell ref="AP37:AP38"/>
-    <mergeCell ref="AQ37:AQ38"/>
-    <mergeCell ref="AR37:AR38"/>
-    <mergeCell ref="AT37:AT38"/>
-    <mergeCell ref="AU37:AU38"/>
-    <mergeCell ref="AR33:AR34"/>
-    <mergeCell ref="AS33:AS38"/>
-    <mergeCell ref="AT33:AT36"/>
-    <mergeCell ref="AV37:AV38"/>
-    <mergeCell ref="AV33:AV36"/>
-    <mergeCell ref="AK59:AM59"/>
-    <mergeCell ref="AZ8:AZ9"/>
-    <mergeCell ref="BA8:BA9"/>
-    <mergeCell ref="BB8:BB9"/>
-    <mergeCell ref="AP55:AP56"/>
-    <mergeCell ref="AQ55:AQ56"/>
-    <mergeCell ref="AR55:AR56"/>
-    <mergeCell ref="AP57:AP58"/>
-    <mergeCell ref="AQ57:AQ58"/>
-    <mergeCell ref="AR57:AR58"/>
-    <mergeCell ref="AT57:AT58"/>
-    <mergeCell ref="AU57:AU58"/>
-    <mergeCell ref="AW57:AW58"/>
-    <mergeCell ref="BB53:BB58"/>
-    <mergeCell ref="AU53:AU56"/>
-    <mergeCell ref="AW53:AW56"/>
-    <mergeCell ref="AK40:AM40"/>
-    <mergeCell ref="AT8:AX8"/>
-    <mergeCell ref="AJ33:AN33"/>
-    <mergeCell ref="AT16:AX16"/>
-    <mergeCell ref="AX19:BB19"/>
-    <mergeCell ref="AX20:BB20"/>
-    <mergeCell ref="AX22:BB22"/>
-    <mergeCell ref="AX23:BB23"/>
-    <mergeCell ref="AJ34:AN34"/>
-    <mergeCell ref="AJ35:AN35"/>
-    <mergeCell ref="AJ36:AN36"/>
-    <mergeCell ref="AJ37:AN37"/>
-    <mergeCell ref="AJ38:AN38"/>
-    <mergeCell ref="BA3:BA4"/>
-    <mergeCell ref="BB3:BB4"/>
-    <mergeCell ref="AX53:AX56"/>
-    <mergeCell ref="AY53:AY56"/>
-    <mergeCell ref="AZ53:AZ56"/>
-    <mergeCell ref="BA53:BA58"/>
-    <mergeCell ref="AZ10:AZ11"/>
-    <mergeCell ref="AS53:AS58"/>
-    <mergeCell ref="AT53:AT56"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="AT14:AX14"/>
-    <mergeCell ref="AT15:AX15"/>
-    <mergeCell ref="AZ3:AZ4"/>
-    <mergeCell ref="AT4:AX4"/>
-    <mergeCell ref="AT5:AX5"/>
-    <mergeCell ref="AT6:AX6"/>
-    <mergeCell ref="AX25:BB25"/>
-    <mergeCell ref="BF3:BF6"/>
-    <mergeCell ref="BG3:BG6"/>
-    <mergeCell ref="BF22:BF23"/>
-    <mergeCell ref="BG22:BG23"/>
-    <mergeCell ref="BD8:BD11"/>
-    <mergeCell ref="BE8:BE11"/>
-    <mergeCell ref="BF8:BF11"/>
-    <mergeCell ref="BG8:BG11"/>
-    <mergeCell ref="BD19:BD20"/>
-    <mergeCell ref="BE19:BE20"/>
-    <mergeCell ref="BF19:BF20"/>
-    <mergeCell ref="BG19:BG20"/>
-    <mergeCell ref="BG13:BG16"/>
-    <mergeCell ref="BD13:BD16"/>
-    <mergeCell ref="BD22:BD23"/>
-    <mergeCell ref="BE22:BE23"/>
-    <mergeCell ref="BG73:BI73"/>
-    <mergeCell ref="AO30:AO38"/>
-    <mergeCell ref="BF65:BJ65"/>
-    <mergeCell ref="BF67:BJ67"/>
-    <mergeCell ref="BL67:BL68"/>
-    <mergeCell ref="BM67:BM68"/>
-    <mergeCell ref="BN67:BN68"/>
-    <mergeCell ref="BF68:BJ68"/>
-    <mergeCell ref="BF70:BJ70"/>
-    <mergeCell ref="BL70:BL71"/>
-    <mergeCell ref="BM70:BM71"/>
-    <mergeCell ref="BN70:BN71"/>
-    <mergeCell ref="BF71:BJ71"/>
-    <mergeCell ref="BF64:BJ64"/>
-    <mergeCell ref="BL64:BL65"/>
-    <mergeCell ref="BM64:BM65"/>
-    <mergeCell ref="BN64:BN65"/>
-    <mergeCell ref="AO53:AO58"/>
-    <mergeCell ref="AP53:AP54"/>
-    <mergeCell ref="AQ53:AQ54"/>
-    <mergeCell ref="AR53:AR54"/>
-    <mergeCell ref="BI33:BI38"/>
-    <mergeCell ref="BB33:BB38"/>
-    <mergeCell ref="BC33:BC38"/>
-    <mergeCell ref="BN48:BN49"/>
-    <mergeCell ref="BM42:BM43"/>
-    <mergeCell ref="BL42:BL43"/>
-    <mergeCell ref="BK42:BK43"/>
-    <mergeCell ref="BI3:BI6"/>
-    <mergeCell ref="BJ8:BJ11"/>
-    <mergeCell ref="BH19:BH20"/>
-    <mergeCell ref="BJ19:BJ20"/>
-    <mergeCell ref="BH13:BH16"/>
-    <mergeCell ref="BJ13:BJ16"/>
-    <mergeCell ref="BH22:BH23"/>
-    <mergeCell ref="BJ22:BJ23"/>
-    <mergeCell ref="BH25:BH26"/>
-    <mergeCell ref="BH8:BH11"/>
-    <mergeCell ref="BH3:BH6"/>
-    <mergeCell ref="BJ3:BJ6"/>
-    <mergeCell ref="BK19:BK26"/>
-    <mergeCell ref="BK3:BK16"/>
-    <mergeCell ref="BN42:BN43"/>
-    <mergeCell ref="AV53:AV56"/>
-    <mergeCell ref="AV57:AV58"/>
-    <mergeCell ref="BI8:BI11"/>
-    <mergeCell ref="BI13:BI16"/>
-    <mergeCell ref="BI19:BI20"/>
-    <mergeCell ref="BI22:BI23"/>
-    <mergeCell ref="BI25:BI26"/>
-    <mergeCell ref="BI53:BI58"/>
-    <mergeCell ref="AZ13:AZ14"/>
-    <mergeCell ref="BA13:BA14"/>
-    <mergeCell ref="BB13:BB14"/>
-    <mergeCell ref="BG25:BG26"/>
-    <mergeCell ref="BA10:BA11"/>
-    <mergeCell ref="BB10:BB11"/>
-    <mergeCell ref="BE25:BE26"/>
-    <mergeCell ref="BF25:BF26"/>
-    <mergeCell ref="BC3:BC16"/>
-    <mergeCell ref="BC19:BC26"/>
-    <mergeCell ref="AX26:BB26"/>
-    <mergeCell ref="AZ15:AZ16"/>
-    <mergeCell ref="BA15:BA16"/>
-    <mergeCell ref="BB15:BB16"/>
-    <mergeCell ref="BD3:BD6"/>
-    <mergeCell ref="BE3:BE6"/>
-    <mergeCell ref="BP53:BP58"/>
-    <mergeCell ref="BK34:BK38"/>
-    <mergeCell ref="BL34:BL38"/>
-    <mergeCell ref="BM34:BM38"/>
-    <mergeCell ref="BN34:BN38"/>
-    <mergeCell ref="BO34:BO38"/>
-    <mergeCell ref="BK64:BK71"/>
-    <mergeCell ref="BO64:BO71"/>
-    <mergeCell ref="BD33:BD38"/>
-    <mergeCell ref="BM53:BM58"/>
-    <mergeCell ref="BJ53:BJ58"/>
-    <mergeCell ref="BK53:BK58"/>
-    <mergeCell ref="BL53:BL58"/>
-    <mergeCell ref="BN53:BN58"/>
-    <mergeCell ref="BO53:BO58"/>
-    <mergeCell ref="BO42:BO43"/>
-    <mergeCell ref="BK45:BK46"/>
-    <mergeCell ref="BO45:BO46"/>
-    <mergeCell ref="BK48:BK49"/>
-    <mergeCell ref="BO48:BO49"/>
-    <mergeCell ref="BM45:BM46"/>
-    <mergeCell ref="BN45:BN46"/>
-    <mergeCell ref="BL48:BL49"/>
-    <mergeCell ref="BM48:BM49"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -55035,19 +55018,19 @@
     </row>
     <row r="94" spans="72:85">
       <c r="BT94" s="292"/>
-      <c r="BU94" s="163"/>
-      <c r="BV94" s="163"/>
-      <c r="BW94" s="163"/>
-      <c r="BX94" s="163"/>
-      <c r="BY94" s="163"/>
-      <c r="BZ94" s="163"/>
-      <c r="CA94" s="163"/>
-      <c r="CB94" s="163"/>
-      <c r="CC94" s="163"/>
-      <c r="CD94" s="163"/>
-      <c r="CE94" s="163"/>
-      <c r="CF94" s="163"/>
-      <c r="CG94" s="164"/>
+      <c r="BU94" s="204"/>
+      <c r="BV94" s="204"/>
+      <c r="BW94" s="204"/>
+      <c r="BX94" s="204"/>
+      <c r="BY94" s="204"/>
+      <c r="BZ94" s="204"/>
+      <c r="CA94" s="204"/>
+      <c r="CB94" s="204"/>
+      <c r="CC94" s="204"/>
+      <c r="CD94" s="204"/>
+      <c r="CE94" s="204"/>
+      <c r="CF94" s="204"/>
+      <c r="CG94" s="248"/>
     </row>
     <row r="95" spans="72:85">
       <c r="BT95" s="293"/>
@@ -55179,19 +55162,19 @@
     </row>
     <row r="103" spans="72:85">
       <c r="BT103" s="292"/>
-      <c r="BU103" s="163"/>
-      <c r="BV103" s="163"/>
-      <c r="BW103" s="163"/>
-      <c r="BX103" s="163"/>
-      <c r="BY103" s="163"/>
-      <c r="BZ103" s="163"/>
-      <c r="CA103" s="163"/>
-      <c r="CB103" s="163"/>
-      <c r="CC103" s="163"/>
-      <c r="CD103" s="163"/>
-      <c r="CE103" s="163"/>
-      <c r="CF103" s="163"/>
-      <c r="CG103" s="164"/>
+      <c r="BU103" s="204"/>
+      <c r="BV103" s="204"/>
+      <c r="BW103" s="204"/>
+      <c r="BX103" s="204"/>
+      <c r="BY103" s="204"/>
+      <c r="BZ103" s="204"/>
+      <c r="CA103" s="204"/>
+      <c r="CB103" s="204"/>
+      <c r="CC103" s="204"/>
+      <c r="CD103" s="204"/>
+      <c r="CE103" s="204"/>
+      <c r="CF103" s="204"/>
+      <c r="CG103" s="248"/>
     </row>
     <row r="104" spans="72:85">
       <c r="BT104" s="293"/>
@@ -55330,7 +55313,6 @@
     <mergeCell ref="BT22:CG30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
